--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,86 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>100107002</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Chirimoya</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>200</v>
+      </c>
+      <c r="N5" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>19000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>18500</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>2312</v>
+      </c>
+      <c r="T5" t="n">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44488</v>
+        <v>44495</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="N3" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>17500</v>
+        <v>19556</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2188</v>
+        <v>2444</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44159</v>
+        <v>44488</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N4" t="n">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="O4" t="n">
-        <v>2100</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>2050</v>
+        <v>17500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2050</v>
+        <v>2188</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44491</v>
+        <v>44159</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,35 +760,115 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>300</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2100</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2050</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>$/kilo (en caja de 14 kilos)</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>2050</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>100107002</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Chirimoya</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M6" t="n">
         <v>200</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N6" t="n">
         <v>18000</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O6" t="n">
         <v>19000</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P6" t="n">
         <v>18500</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>$/bandeja 8 kilos</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S5" t="n">
+      <c r="S6" t="n">
         <v>2312</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T6" t="n">
         <v>8</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44495</v>
+        <v>44498</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="N3" t="n">
         <v>19000</v>
@@ -613,7 +613,7 @@
         <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>19556</v>
+        <v>19500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2444</v>
+        <v>2438</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44488</v>
+        <v>44495</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="N4" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>17500</v>
+        <v>19556</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2188</v>
+        <v>2444</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44159</v>
+        <v>44488</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N5" t="n">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="O5" t="n">
-        <v>2100</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>2050</v>
+        <v>17500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2050</v>
+        <v>2188</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44491</v>
+        <v>44159</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,35 +840,115 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>300</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2100</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2050</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>$/kilo (en caja de 14 kilos)</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>2050</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>100107002</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Chirimoya</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M7" t="n">
         <v>200</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N7" t="n">
         <v>18000</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O7" t="n">
         <v>19000</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P7" t="n">
         <v>18500</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>$/bandeja 8 kilos</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S6" t="n">
+      <c r="S7" t="n">
         <v>2312</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T7" t="n">
         <v>8</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44162</v>
+        <v>44495</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,24 +520,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N2" t="n">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="O2" t="n">
-        <v>2100</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>2050</v>
+        <v>19556</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2050</v>
+        <v>2444</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44495</v>
+        <v>44488</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="N4" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>19556</v>
+        <v>17500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2444</v>
+        <v>2188</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44488</v>
+        <v>44162</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>2100</v>
       </c>
       <c r="P5" t="n">
-        <v>17500</v>
+        <v>2050</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2188</v>
+        <v>2050</v>
       </c>
       <c r="T5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44491</v>
+        <v>44505</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,31 +924,111 @@
         </is>
       </c>
       <c r="M7" t="n">
+        <v>300</v>
+      </c>
+      <c r="N7" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>19500</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>2438</v>
+      </c>
+      <c r="T7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>100107002</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Chirimoya</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>200</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N8" t="n">
         <v>18000</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O8" t="n">
         <v>19000</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P8" t="n">
         <v>18500</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>$/bandeja 8 kilos</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S7" t="n">
+      <c r="S8" t="n">
         <v>2312</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T8" t="n">
         <v>8</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44491</v>
+        <v>44509</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1007,28 +1007,108 @@
         <v>200</v>
       </c>
       <c r="N8" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>19500</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>2438</v>
+      </c>
+      <c r="T8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>100107002</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Chirimoya</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>200</v>
+      </c>
+      <c r="N9" t="n">
         <v>18000</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O9" t="n">
         <v>19000</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P9" t="n">
         <v>18500</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>$/bandeja 8 kilos</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S8" t="n">
+      <c r="S9" t="n">
         <v>2312</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T9" t="n">
         <v>8</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44505</v>
+        <v>44512</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44509</v>
+        <v>44505</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
         <v>19000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44491</v>
+        <v>44509</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1087,28 +1087,108 @@
         <v>200</v>
       </c>
       <c r="N9" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>19500</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>2438</v>
+      </c>
+      <c r="T9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>100107002</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Chirimoya</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>200</v>
+      </c>
+      <c r="N10" t="n">
         <v>18000</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O10" t="n">
         <v>19000</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P10" t="n">
         <v>18500</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>$/bandeja 8 kilos</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S9" t="n">
+      <c r="S10" t="n">
         <v>2312</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T10" t="n">
         <v>8</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44509</v>
+        <v>44516</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1087,13 +1087,13 @@
         <v>200</v>
       </c>
       <c r="N9" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O9" t="n">
         <v>19000</v>
       </c>
-      <c r="O9" t="n">
-        <v>20000</v>
-      </c>
       <c r="P9" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44491</v>
+        <v>44509</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1167,28 +1167,108 @@
         <v>200</v>
       </c>
       <c r="N10" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>19500</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>2438</v>
+      </c>
+      <c r="T10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>100107002</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Chirimoya</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>200</v>
+      </c>
+      <c r="N11" t="n">
         <v>18000</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O11" t="n">
         <v>19000</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P11" t="n">
         <v>18500</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>$/bandeja 8 kilos</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S10" t="n">
+      <c r="S11" t="n">
         <v>2312</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T11" t="n">
         <v>8</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44495</v>
+        <v>44488</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="N2" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>19556</v>
+        <v>17500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2444</v>
+        <v>2188</v>
       </c>
       <c r="T2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44498</v>
+        <v>44159</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>300</v>
       </c>
       <c r="N3" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P3" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2438</v>
+        <v>2050</v>
       </c>
       <c r="T3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44488</v>
+        <v>44512</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2188</v>
+        <v>2438</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44162</v>
+        <v>44516</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>2100</v>
+        <v>19000</v>
       </c>
       <c r="P5" t="n">
-        <v>2050</v>
+        <v>18500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2050</v>
+        <v>2312</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44159</v>
+        <v>44162</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
         <v>2000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44512</v>
+        <v>44498</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44516</v>
+        <v>44509</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1087,13 +1087,13 @@
         <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O9" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44509</v>
+        <v>44491</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1167,13 +1167,13 @@
         <v>200</v>
       </c>
       <c r="N10" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O10" t="n">
         <v>19000</v>
       </c>
-      <c r="O10" t="n">
-        <v>20000</v>
-      </c>
       <c r="P10" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44491</v>
+        <v>44495</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O11" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>18500</v>
+        <v>19556</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2312</v>
+        <v>2444</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44516</v>
+        <v>44519</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O5" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>18500</v>
+        <v>21500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2312</v>
+        <v>2688</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44162</v>
+        <v>44519</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>2100</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>2050</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2050</v>
+        <v>2250</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44498</v>
+        <v>44516</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O7" t="n">
         <v>19000</v>
       </c>
-      <c r="O7" t="n">
-        <v>20000</v>
-      </c>
       <c r="P7" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44505</v>
+        <v>44162</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,24 +1000,24 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P8" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2438</v>
+        <v>2050</v>
       </c>
       <c r="T8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44509</v>
+        <v>44498</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
         <v>19000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44491</v>
+        <v>44505</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O10" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44495</v>
+        <v>44509</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
         <v>19000</v>
@@ -1253,22 +1253,182 @@
         <v>20000</v>
       </c>
       <c r="P11" t="n">
+        <v>19500</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>2438</v>
+      </c>
+      <c r="T11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>100107002</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Chirimoya</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>200</v>
+      </c>
+      <c r="N12" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O12" t="n">
+        <v>19000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>18500</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>2312</v>
+      </c>
+      <c r="T12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>44495</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>100107002</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Chirimoya</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>270</v>
+      </c>
+      <c r="N13" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O13" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P13" t="n">
         <v>19556</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>$/bandeja 8 kilos</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S11" t="n">
+      <c r="S13" t="n">
         <v>2444</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T13" t="n">
         <v>8</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44491</v>
+        <v>44523</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O12" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>18500</v>
+        <v>21500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2312</v>
+        <v>2688</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44495</v>
+        <v>44523</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1404,31 +1404,191 @@
         </is>
       </c>
       <c r="M13" t="n">
+        <v>100</v>
+      </c>
+      <c r="N13" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O13" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>2250</v>
+      </c>
+      <c r="T13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>100107002</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Chirimoya</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>200</v>
+      </c>
+      <c r="N14" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O14" t="n">
+        <v>19000</v>
+      </c>
+      <c r="P14" t="n">
+        <v>18500</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>2312</v>
+      </c>
+      <c r="T14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>44495</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>100107002</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Chirimoya</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>270</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N15" t="n">
         <v>19000</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O15" t="n">
         <v>20000</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P15" t="n">
         <v>19556</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>$/bandeja 8 kilos</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S13" t="n">
+      <c r="S15" t="n">
         <v>2444</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T15" t="n">
         <v>8</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44519</v>
+        <v>44526</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
         <v>21000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>21500</v>
+        <v>21000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2688</v>
+        <v>2625</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>21500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2250</v>
+        <v>2688</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44516</v>
+        <v>44519</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -930,10 +930,10 @@
         <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2312</v>
+        <v>2250</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44162</v>
+        <v>44516</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,24 +1000,24 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>2100</v>
+        <v>19000</v>
       </c>
       <c r="P8" t="n">
-        <v>2050</v>
+        <v>18500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2050</v>
+        <v>2312</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44498</v>
+        <v>44162</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,24 +1080,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P9" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2438</v>
+        <v>2050</v>
       </c>
       <c r="T9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44505</v>
+        <v>44498</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44509</v>
+        <v>44505</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
         <v>19000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44523</v>
+        <v>44509</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2688</v>
+        <v>2438</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>21500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2250</v>
+        <v>2688</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44491</v>
+        <v>44523</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
         <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2312</v>
+        <v>2250</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44495</v>
+        <v>44491</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1564,31 +1564,111 @@
         </is>
       </c>
       <c r="M15" t="n">
+        <v>200</v>
+      </c>
+      <c r="N15" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O15" t="n">
+        <v>19000</v>
+      </c>
+      <c r="P15" t="n">
+        <v>18500</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>2312</v>
+      </c>
+      <c r="T15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>44495</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>100107002</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Chirimoya</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>270</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N16" t="n">
         <v>19000</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O16" t="n">
         <v>20000</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P16" t="n">
         <v>19556</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>$/bandeja 8 kilos</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S15" t="n">
+      <c r="S16" t="n">
         <v>2444</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T16" t="n">
         <v>8</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44159</v>
+        <v>44530</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="O3" t="n">
-        <v>2100</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>2050</v>
+        <v>19500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2050</v>
+        <v>2438</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44512</v>
+        <v>44530</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P4" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2438</v>
+        <v>2000</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44526</v>
+        <v>44159</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -767,17 +767,17 @@
         <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>2100</v>
       </c>
       <c r="P5" t="n">
-        <v>21000</v>
+        <v>2050</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2625</v>
+        <v>2050</v>
       </c>
       <c r="T5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44519</v>
+        <v>44512</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2688</v>
+        <v>2438</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44519</v>
+        <v>44526</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2250</v>
+        <v>2625</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44516</v>
+        <v>44519</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O8" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>18500</v>
+        <v>21500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2312</v>
+        <v>2688</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44162</v>
+        <v>44519</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,24 +1080,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>2100</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>2050</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2050</v>
+        <v>2250</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44498</v>
+        <v>44516</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O10" t="n">
         <v>19000</v>
       </c>
-      <c r="O10" t="n">
-        <v>20000</v>
-      </c>
       <c r="P10" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44505</v>
+        <v>44162</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,24 +1240,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P11" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2438</v>
+        <v>2050</v>
       </c>
       <c r="T11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44509</v>
+        <v>44498</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
         <v>19000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44523</v>
+        <v>44505</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2688</v>
+        <v>2438</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44523</v>
+        <v>44509</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2250</v>
+        <v>2438</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44491</v>
+        <v>44523</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N15" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O15" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>18500</v>
+        <v>21500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2312</v>
+        <v>2688</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44495</v>
+        <v>44523</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1644,31 +1644,191 @@
         </is>
       </c>
       <c r="M16" t="n">
+        <v>100</v>
+      </c>
+      <c r="N16" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O16" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P16" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>2250</v>
+      </c>
+      <c r="T16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>100107002</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Chirimoya</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>200</v>
+      </c>
+      <c r="N17" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O17" t="n">
+        <v>19000</v>
+      </c>
+      <c r="P17" t="n">
+        <v>18500</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>2312</v>
+      </c>
+      <c r="T17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>44495</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>100107002</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Chirimoya</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>270</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N18" t="n">
         <v>19000</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O18" t="n">
         <v>20000</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P18" t="n">
         <v>19556</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>$/bandeja 8 kilos</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S16" t="n">
+      <c r="S18" t="n">
         <v>2444</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T18" t="n">
         <v>8</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44488</v>
+        <v>44498</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2188</v>
+        <v>2438</v>
       </c>
       <c r="T2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44530</v>
+        <v>44162</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -607,17 +607,17 @@
         <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P3" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2438</v>
+        <v>2050</v>
       </c>
       <c r="T3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44530</v>
+        <v>44516</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P4" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2000</v>
+        <v>2312</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44159</v>
+        <v>44488</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N5" t="n">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="O5" t="n">
-        <v>2100</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>2050</v>
+        <v>17500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2050</v>
+        <v>2188</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44512</v>
+        <v>44526</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P6" t="n">
-        <v>19500</v>
+        <v>21000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2438</v>
+        <v>2625</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44526</v>
+        <v>44523</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N7" t="n">
         <v>21000</v>
       </c>
       <c r="O7" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>21000</v>
+        <v>21500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2625</v>
+        <v>2688</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44519</v>
+        <v>44523</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>21500</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2688</v>
+        <v>2250</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44519</v>
+        <v>44495</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>19556</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2250</v>
+        <v>2444</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44516</v>
+        <v>44530</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O10" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44162</v>
+        <v>44530</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
         <v>2000</v>
       </c>
-      <c r="O11" t="n">
-        <v>2100</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2050</v>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
-        <v>2050</v>
-      </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44498</v>
+        <v>44159</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,24 +1320,24 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P12" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2438</v>
+        <v>2050</v>
       </c>
       <c r="T12" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44509</v>
+        <v>44519</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N14" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2438</v>
+        <v>2688</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44523</v>
+        <v>44519</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P15" t="n">
-        <v>21500</v>
+        <v>18000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2688</v>
+        <v>2250</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44523</v>
+        <v>44512</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N16" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O16" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2250</v>
+        <v>2438</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44491</v>
+        <v>44509</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1727,13 +1727,13 @@
         <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O17" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44495</v>
+        <v>44491</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O18" t="n">
         <v>19000</v>
       </c>
-      <c r="O18" t="n">
-        <v>20000</v>
-      </c>
       <c r="P18" t="n">
-        <v>19556</v>
+        <v>18500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2444</v>
+        <v>2312</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44530</v>
+        <v>44533</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O10" t="n">
         <v>19000</v>
       </c>
-      <c r="O10" t="n">
-        <v>20000</v>
-      </c>
       <c r="P10" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44530</v>
+        <v>44533</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44159</v>
+        <v>44530</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1324,20 +1324,20 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="O12" t="n">
-        <v>2100</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>2050</v>
+        <v>19500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2050</v>
+        <v>2438</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44505</v>
+        <v>44530</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P13" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2438</v>
+        <v>2000</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44519</v>
+        <v>44159</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1484,20 +1484,20 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>2100</v>
       </c>
       <c r="P14" t="n">
-        <v>21500</v>
+        <v>2050</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2688</v>
+        <v>2050</v>
       </c>
       <c r="T14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44519</v>
+        <v>44505</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O15" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2250</v>
+        <v>2438</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44512</v>
+        <v>44519</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N16" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2438</v>
+        <v>2688</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44509</v>
+        <v>44519</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1727,13 +1727,13 @@
         <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2438</v>
+        <v>2250</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44491</v>
+        <v>44512</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1804,31 +1804,191 @@
         </is>
       </c>
       <c r="M18" t="n">
+        <v>300</v>
+      </c>
+      <c r="N18" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O18" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P18" t="n">
+        <v>19500</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>2438</v>
+      </c>
+      <c r="T18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>44509</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>100107002</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Chirimoya</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>200</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N19" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O19" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P19" t="n">
+        <v>19500</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>2438</v>
+      </c>
+      <c r="T19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>100107002</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Chirimoya</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>200</v>
+      </c>
+      <c r="N20" t="n">
         <v>18000</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O20" t="n">
         <v>19000</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P20" t="n">
         <v>18500</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>$/bandeja 8 kilos</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S18" t="n">
+      <c r="S20" t="n">
         <v>2312</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T20" t="n">
         <v>8</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44498</v>
+        <v>44509</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
         <v>19000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44162</v>
+        <v>44159</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N3" t="n">
         <v>2000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44516</v>
+        <v>44523</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>18500</v>
+        <v>21500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2312</v>
+        <v>2688</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44488</v>
+        <v>44523</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
         <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2188</v>
+        <v>2250</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44526</v>
+        <v>44530</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O6" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>21000</v>
+        <v>19500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2625</v>
+        <v>2438</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44523</v>
+        <v>44530</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P7" t="n">
-        <v>21500</v>
+        <v>16000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2688</v>
+        <v>2000</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44523</v>
+        <v>44512</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2250</v>
+        <v>2438</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44495</v>
+        <v>44505</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
         <v>19000</v>
@@ -1093,7 +1093,7 @@
         <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>19556</v>
+        <v>19500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2444</v>
+        <v>2438</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44533</v>
+        <v>44488</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N10" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O10" t="n">
         <v>18000</v>
       </c>
-      <c r="O10" t="n">
-        <v>19000</v>
-      </c>
       <c r="P10" t="n">
-        <v>18500</v>
+        <v>17500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2312</v>
+        <v>2188</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44533</v>
+        <v>44162</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,24 +1240,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="O11" t="n">
-        <v>16000</v>
+        <v>2100</v>
       </c>
       <c r="P11" t="n">
-        <v>16000</v>
+        <v>2050</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2000</v>
+        <v>2050</v>
       </c>
       <c r="T11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44530</v>
+        <v>44516</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>200</v>
       </c>
       <c r="N12" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O12" t="n">
         <v>19000</v>
       </c>
-      <c r="O12" t="n">
-        <v>20000</v>
-      </c>
       <c r="P12" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44530</v>
+        <v>44533</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P13" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2000</v>
+        <v>2312</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44159</v>
+        <v>44533</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,36 +1480,36 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O14" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P14" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
         <v>2000</v>
       </c>
-      <c r="O14" t="n">
-        <v>2100</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2050</v>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S14" t="n">
-        <v>2050</v>
-      </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44505</v>
+        <v>44495</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="N15" t="n">
         <v>19000</v>
@@ -1573,7 +1573,7 @@
         <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>19500</v>
+        <v>19556</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2438</v>
+        <v>2444</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44519</v>
+        <v>44498</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N16" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O16" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2688</v>
+        <v>2438</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44519</v>
+        <v>44526</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P17" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2250</v>
+        <v>2625</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44512</v>
+        <v>44491</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O18" t="n">
         <v>19000</v>
       </c>
-      <c r="O18" t="n">
-        <v>20000</v>
-      </c>
       <c r="P18" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44509</v>
+        <v>44519</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N19" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2438</v>
+        <v>2688</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44491</v>
+        <v>44519</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1970,10 +1970,10 @@
         <v>18000</v>
       </c>
       <c r="O20" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P20" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2312</v>
+        <v>2250</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44509</v>
+        <v>44159</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,24 +520,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P2" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2438</v>
+        <v>2050</v>
       </c>
       <c r="T2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44159</v>
+        <v>44519</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N3" t="n">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="O3" t="n">
-        <v>2100</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>2050</v>
+        <v>21500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2050</v>
+        <v>2688</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44523</v>
+        <v>44519</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>21500</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2688</v>
+        <v>2250</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44523</v>
+        <v>44530</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2250</v>
+        <v>2438</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P6" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2438</v>
+        <v>2000</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44530</v>
+        <v>44516</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P7" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2000</v>
+        <v>2312</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44512</v>
+        <v>44523</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N8" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2438</v>
+        <v>2688</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44505</v>
+        <v>44523</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2438</v>
+        <v>2250</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44488</v>
+        <v>44495</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="N10" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>17500</v>
+        <v>19556</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2188</v>
+        <v>2444</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44162</v>
+        <v>44505</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,24 +1240,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="O11" t="n">
-        <v>2100</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>2050</v>
+        <v>19500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2050</v>
+        <v>2438</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44516</v>
+        <v>44498</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O12" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44533</v>
+        <v>44526</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1407,13 +1407,13 @@
         <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O13" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="P13" t="n">
-        <v>18500</v>
+        <v>21000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2312</v>
+        <v>2625</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44533</v>
+        <v>44509</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O14" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>16000</v>
+        <v>19500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2000</v>
+        <v>2438</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44495</v>
+        <v>44488</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="N15" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P15" t="n">
-        <v>19556</v>
+        <v>17500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2444</v>
+        <v>2188</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44498</v>
+        <v>44162</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,24 +1640,24 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P16" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2438</v>
+        <v>2050</v>
       </c>
       <c r="T16" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44526</v>
+        <v>44491</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O17" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="P17" t="n">
-        <v>21000</v>
+        <v>18500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2625</v>
+        <v>2312</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44491</v>
+        <v>44533</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,11 +1800,11 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
         <v>18000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44519</v>
+        <v>44533</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P19" t="n">
-        <v>21500</v>
+        <v>16000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2688</v>
+        <v>2000</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44519</v>
+        <v>44512</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N20" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O20" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2250</v>
+        <v>2438</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44159</v>
+        <v>44495</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,24 +520,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="N2" t="n">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="O2" t="n">
-        <v>2100</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>2050</v>
+        <v>19556</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2050</v>
+        <v>2444</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44519</v>
+        <v>44491</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P3" t="n">
-        <v>21500</v>
+        <v>18500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2688</v>
+        <v>2312</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44519</v>
+        <v>44488</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O4" t="n">
         <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2250</v>
+        <v>2188</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44530</v>
+        <v>44498</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,11 +760,11 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
         <v>19000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44530</v>
+        <v>44509</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O6" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>16000</v>
+        <v>19500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2000</v>
+        <v>2438</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44516</v>
+        <v>44505</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O7" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44523</v>
+        <v>44530</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2688</v>
+        <v>2438</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44523</v>
+        <v>44530</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1087,13 +1087,13 @@
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2250</v>
+        <v>2000</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44495</v>
+        <v>44159</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P10" t="n">
-        <v>19556</v>
+        <v>2050</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2444</v>
+        <v>2050</v>
       </c>
       <c r="T10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44505</v>
+        <v>44516</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O11" t="n">
         <v>19000</v>
       </c>
-      <c r="O11" t="n">
-        <v>20000</v>
-      </c>
       <c r="P11" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44498</v>
+        <v>44512</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44526</v>
+        <v>44519</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N13" t="n">
         <v>21000</v>
       </c>
       <c r="O13" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>21000</v>
+        <v>21500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2625</v>
+        <v>2688</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44509</v>
+        <v>44519</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1487,13 +1487,13 @@
         <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2438</v>
+        <v>2250</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44488</v>
+        <v>44526</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O15" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P15" t="n">
-        <v>17500</v>
+        <v>21000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2188</v>
+        <v>2625</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44162</v>
+        <v>44533</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1644,20 +1644,20 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N16" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O16" t="n">
-        <v>2100</v>
+        <v>19000</v>
       </c>
       <c r="P16" t="n">
-        <v>2050</v>
+        <v>18500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2050</v>
+        <v>2312</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44491</v>
+        <v>44533</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O17" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P17" t="n">
-        <v>18500</v>
+        <v>16000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2312</v>
+        <v>2000</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44533</v>
+        <v>44523</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N18" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O18" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P18" t="n">
-        <v>18500</v>
+        <v>21500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2312</v>
+        <v>2688</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44533</v>
+        <v>44523</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1887,13 +1887,13 @@
         <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O19" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2000</v>
+        <v>2250</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44512</v>
+        <v>44162</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,24 +1960,24 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P20" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2438</v>
+        <v>2050</v>
       </c>
       <c r="T20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44495</v>
+        <v>44488</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="N2" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>19556</v>
+        <v>17500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2444</v>
+        <v>2188</v>
       </c>
       <c r="T2" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44488</v>
+        <v>44523</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="N4" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>17500</v>
+        <v>21500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2188</v>
+        <v>2688</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44498</v>
+        <v>44523</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2438</v>
+        <v>2250</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44509</v>
+        <v>44512</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
         <v>19000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44505</v>
+        <v>44495</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="N7" t="n">
         <v>19000</v>
@@ -933,7 +933,7 @@
         <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>19500</v>
+        <v>19556</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2438</v>
+        <v>2444</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44530</v>
+        <v>44505</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,11 +1000,11 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
         <v>19000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44530</v>
+        <v>44519</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N9" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O9" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>16000</v>
+        <v>21500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2000</v>
+        <v>2688</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44159</v>
+        <v>44519</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>2100</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>2050</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2050</v>
+        <v>2250</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44516</v>
+        <v>44533</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,11 +1240,11 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
         <v>18000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44512</v>
+        <v>44533</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P12" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2438</v>
+        <v>2000</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44519</v>
+        <v>44526</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
         <v>21000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P13" t="n">
-        <v>21500</v>
+        <v>21000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2688</v>
+        <v>2625</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44519</v>
+        <v>44509</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1487,13 +1487,13 @@
         <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2250</v>
+        <v>2438</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44526</v>
+        <v>44159</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1567,17 +1567,17 @@
         <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="O15" t="n">
-        <v>21000</v>
+        <v>2100</v>
       </c>
       <c r="P15" t="n">
-        <v>21000</v>
+        <v>2050</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2625</v>
+        <v>2050</v>
       </c>
       <c r="T15" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44533</v>
+        <v>44162</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1644,20 +1644,20 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="O16" t="n">
-        <v>19000</v>
+        <v>2100</v>
       </c>
       <c r="P16" t="n">
-        <v>18500</v>
+        <v>2050</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2312</v>
+        <v>2050</v>
       </c>
       <c r="T16" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44533</v>
+        <v>44516</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O17" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P17" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2000</v>
+        <v>2312</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44523</v>
+        <v>44530</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2688</v>
+        <v>2438</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44523</v>
+        <v>44530</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1887,13 +1887,13 @@
         <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P19" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2250</v>
+        <v>2000</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44162</v>
+        <v>44498</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,24 +1960,24 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N20" t="n">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="O20" t="n">
-        <v>2100</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>2050</v>
+        <v>19500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2050</v>
+        <v>2438</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44491</v>
+        <v>44505</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O3" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44523</v>
+        <v>44509</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2688</v>
+        <v>2438</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44523</v>
+        <v>44495</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>19556</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2250</v>
+        <v>2444</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44512</v>
+        <v>44159</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P6" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2438</v>
+        <v>2050</v>
       </c>
       <c r="T6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44495</v>
+        <v>44512</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
         <v>19000</v>
@@ -933,7 +933,7 @@
         <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>19556</v>
+        <v>19500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2444</v>
+        <v>2438</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44505</v>
+        <v>44498</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44519</v>
+        <v>44516</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P9" t="n">
-        <v>21500</v>
+        <v>18500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2688</v>
+        <v>2312</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>18000</v>
+        <v>21500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2250</v>
+        <v>2688</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44533</v>
+        <v>44519</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
         <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2312</v>
+        <v>2250</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44533</v>
+        <v>44530</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O12" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>16000</v>
+        <v>19500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2000</v>
+        <v>2438</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44526</v>
+        <v>44530</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O13" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P13" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2625</v>
+        <v>2000</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44509</v>
+        <v>44491</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1487,13 +1487,13 @@
         <v>200</v>
       </c>
       <c r="N14" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O14" t="n">
         <v>19000</v>
       </c>
-      <c r="O14" t="n">
-        <v>20000</v>
-      </c>
       <c r="P14" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44159</v>
+        <v>44523</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1564,20 +1564,20 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N15" t="n">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="O15" t="n">
-        <v>2100</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>2050</v>
+        <v>21500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2050</v>
+        <v>2688</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44162</v>
+        <v>44523</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,24 +1640,24 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O16" t="n">
-        <v>2100</v>
+        <v>18000</v>
       </c>
       <c r="P16" t="n">
-        <v>2050</v>
+        <v>18000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2050</v>
+        <v>2250</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44516</v>
+        <v>44526</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O17" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="P17" t="n">
-        <v>18500</v>
+        <v>21000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2312</v>
+        <v>2625</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44530</v>
+        <v>44162</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1807,17 +1807,17 @@
         <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P18" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2438</v>
+        <v>2050</v>
       </c>
       <c r="T18" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44530</v>
+        <v>44533</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O19" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P19" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2000</v>
+        <v>2312</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44498</v>
+        <v>44533</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P20" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2438</v>
+        <v>2000</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44488</v>
+        <v>44495</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="N2" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>17500</v>
+        <v>19556</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2188</v>
+        <v>2444</v>
       </c>
       <c r="T2" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44495</v>
+        <v>44526</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>19556</v>
+        <v>21000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2444</v>
+        <v>2625</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44159</v>
+        <v>44519</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N6" t="n">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="O6" t="n">
-        <v>2100</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>2050</v>
+        <v>21500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2050</v>
+        <v>2688</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44512</v>
+        <v>44519</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2438</v>
+        <v>2250</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44498</v>
+        <v>44488</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N8" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2438</v>
+        <v>2188</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44519</v>
+        <v>44523</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44519</v>
+        <v>44523</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
         <v>18000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44530</v>
+        <v>44491</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>200</v>
       </c>
       <c r="N12" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O12" t="n">
         <v>19000</v>
       </c>
-      <c r="O12" t="n">
-        <v>20000</v>
-      </c>
       <c r="P12" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44530</v>
+        <v>44533</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P13" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2000</v>
+        <v>2312</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44491</v>
+        <v>44533</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O14" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P14" t="n">
-        <v>18500</v>
+        <v>16000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2312</v>
+        <v>2000</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44523</v>
+        <v>44159</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1564,20 +1564,20 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>2100</v>
       </c>
       <c r="P15" t="n">
-        <v>21500</v>
+        <v>2050</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2688</v>
+        <v>2050</v>
       </c>
       <c r="T15" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44523</v>
+        <v>44530</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O16" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2250</v>
+        <v>2438</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44526</v>
+        <v>44530</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O17" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P17" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2625</v>
+        <v>2000</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44533</v>
+        <v>44512</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O19" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44533</v>
+        <v>44498</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N20" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O20" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>16000</v>
+        <v>19500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2000</v>
+        <v>2438</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44505</v>
+        <v>44526</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>300</v>
       </c>
       <c r="N3" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>19500</v>
+        <v>21000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2438</v>
+        <v>2625</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44509</v>
+        <v>44530</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,7 +680,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44526</v>
+        <v>44530</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P5" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2625</v>
+        <v>2000</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44519</v>
+        <v>44509</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2688</v>
+        <v>2438</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44519</v>
+        <v>44505</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2250</v>
+        <v>2438</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44488</v>
+        <v>44159</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,24 +1000,24 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>2100</v>
       </c>
       <c r="P8" t="n">
-        <v>17500</v>
+        <v>2050</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2188</v>
+        <v>2050</v>
       </c>
       <c r="T8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44516</v>
+        <v>44488</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N9" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O9" t="n">
         <v>18000</v>
       </c>
-      <c r="O9" t="n">
-        <v>19000</v>
-      </c>
       <c r="P9" t="n">
-        <v>18500</v>
+        <v>17500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2312</v>
+        <v>2188</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44523</v>
+        <v>44491</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P10" t="n">
-        <v>21500</v>
+        <v>18500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2688</v>
+        <v>2312</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>21500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2250</v>
+        <v>2688</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44491</v>
+        <v>44523</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
         <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2312</v>
+        <v>2250</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44533</v>
+        <v>44519</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O13" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>18500</v>
+        <v>21500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2312</v>
+        <v>2688</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44533</v>
+        <v>44519</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2000</v>
+        <v>2250</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44159</v>
+        <v>44533</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1567,17 +1567,17 @@
         <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O15" t="n">
-        <v>2100</v>
+        <v>19000</v>
       </c>
       <c r="P15" t="n">
-        <v>2050</v>
+        <v>18500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2050</v>
+        <v>2312</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44530</v>
+        <v>44533</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P16" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2438</v>
+        <v>2000</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44530</v>
+        <v>44512</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O17" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>16000</v>
+        <v>19500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2000</v>
+        <v>2438</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44162</v>
+        <v>44516</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,24 +1800,24 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O18" t="n">
-        <v>2100</v>
+        <v>19000</v>
       </c>
       <c r="P18" t="n">
-        <v>2050</v>
+        <v>18500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2050</v>
+        <v>2312</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44512</v>
+        <v>44498</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44498</v>
+        <v>44162</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,24 +1960,24 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P20" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2438</v>
+        <v>2050</v>
       </c>
       <c r="T20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44495</v>
+        <v>44488</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="N2" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>19556</v>
+        <v>17500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2444</v>
+        <v>2188</v>
       </c>
       <c r="T2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44526</v>
+        <v>44519</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N3" t="n">
         <v>21000</v>
       </c>
       <c r="O3" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>21000</v>
+        <v>21500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2625</v>
+        <v>2688</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44530</v>
+        <v>44519</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2438</v>
+        <v>2250</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44530</v>
+        <v>44516</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P5" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2000</v>
+        <v>2312</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44509</v>
+        <v>44495</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N6" t="n">
         <v>19000</v>
@@ -853,7 +853,7 @@
         <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>19500</v>
+        <v>19556</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2438</v>
+        <v>2444</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44505</v>
+        <v>44159</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,24 +920,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P7" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2438</v>
+        <v>2050</v>
       </c>
       <c r="T7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44159</v>
+        <v>44509</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,24 +1000,24 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="O8" t="n">
-        <v>2100</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>2050</v>
+        <v>19500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2050</v>
+        <v>2438</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44488</v>
+        <v>44498</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2188</v>
+        <v>2438</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44491</v>
+        <v>44523</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O10" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>18500</v>
+        <v>21500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2312</v>
+        <v>2688</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>21500</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2688</v>
+        <v>2250</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44523</v>
+        <v>44526</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2250</v>
+        <v>2625</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44519</v>
+        <v>44533</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P13" t="n">
-        <v>21500</v>
+        <v>18500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2688</v>
+        <v>2312</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44519</v>
+        <v>44533</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2250</v>
+        <v>2000</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44533</v>
+        <v>44530</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O15" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44533</v>
+        <v>44530</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44512</v>
+        <v>44162</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,24 +1720,24 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P17" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2438</v>
+        <v>2050</v>
       </c>
       <c r="T17" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44516</v>
+        <v>44512</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O18" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44498</v>
+        <v>44505</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44162</v>
+        <v>44491</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,24 +1960,24 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O20" t="n">
-        <v>2100</v>
+        <v>19000</v>
       </c>
       <c r="P20" t="n">
-        <v>2050</v>
+        <v>18500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2050</v>
+        <v>2312</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44488</v>
+        <v>44516</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P2" t="n">
-        <v>17500</v>
+        <v>18500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2188</v>
+        <v>2312</v>
       </c>
       <c r="T2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44519</v>
+        <v>44509</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2688</v>
+        <v>2438</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44519</v>
+        <v>44512</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2250</v>
+        <v>2438</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44516</v>
+        <v>44526</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O5" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>18500</v>
+        <v>21000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2312</v>
+        <v>2625</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44495</v>
+        <v>44530</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,11 +840,11 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
         <v>19000</v>
@@ -853,7 +853,7 @@
         <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>19556</v>
+        <v>19500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2444</v>
+        <v>2438</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44159</v>
+        <v>44530</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,36 +920,36 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
         <v>2000</v>
       </c>
-      <c r="O7" t="n">
-        <v>2100</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2050</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v>2050</v>
-      </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44509</v>
+        <v>44162</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,24 +1000,24 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P8" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2438</v>
+        <v>2050</v>
       </c>
       <c r="T8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44498</v>
+        <v>44491</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O9" t="n">
         <v>19000</v>
       </c>
-      <c r="O9" t="n">
-        <v>20000</v>
-      </c>
       <c r="P9" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44523</v>
+        <v>44495</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="N10" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>21500</v>
+        <v>19556</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2688</v>
+        <v>2444</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44523</v>
+        <v>44498</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2250</v>
+        <v>2438</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44526</v>
+        <v>44488</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N12" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="O12" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>21000</v>
+        <v>17500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2625</v>
+        <v>2188</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44533</v>
+        <v>44519</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O13" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>18500</v>
+        <v>21500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2312</v>
+        <v>2688</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44533</v>
+        <v>44519</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2000</v>
+        <v>2250</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44530</v>
+        <v>44505</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,11 +1560,11 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
         <v>19000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44530</v>
+        <v>44533</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N16" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O16" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P16" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2000</v>
+        <v>2312</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44162</v>
+        <v>44533</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,36 +1720,36 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O17" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P17" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
         <v>2000</v>
       </c>
-      <c r="O17" t="n">
-        <v>2100</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2050</v>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S17" t="n">
-        <v>2050</v>
-      </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44512</v>
+        <v>44523</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N18" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P18" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2438</v>
+        <v>2688</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44505</v>
+        <v>44523</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2438</v>
+        <v>2250</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44491</v>
+        <v>44159</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,24 +1960,24 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N20" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="O20" t="n">
-        <v>19000</v>
+        <v>2100</v>
       </c>
       <c r="P20" t="n">
-        <v>18500</v>
+        <v>2050</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2312</v>
+        <v>2050</v>
       </c>
       <c r="T20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44516</v>
+        <v>44488</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N2" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O2" t="n">
         <v>18000</v>
       </c>
-      <c r="O2" t="n">
-        <v>19000</v>
-      </c>
       <c r="P2" t="n">
-        <v>18500</v>
+        <v>17500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2312</v>
+        <v>2188</v>
       </c>
       <c r="T2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44509</v>
+        <v>44533</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N3" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O3" t="n">
         <v>19000</v>
       </c>
-      <c r="O3" t="n">
-        <v>20000</v>
-      </c>
       <c r="P3" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44512</v>
+        <v>44533</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P4" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2438</v>
+        <v>2000</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44526</v>
+        <v>44498</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>21000</v>
+        <v>19500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2625</v>
+        <v>2438</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44530</v>
+        <v>44491</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>200</v>
       </c>
       <c r="N6" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O6" t="n">
         <v>19000</v>
       </c>
-      <c r="O6" t="n">
-        <v>20000</v>
-      </c>
       <c r="P6" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44530</v>
+        <v>44162</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,24 +920,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="O7" t="n">
-        <v>16000</v>
+        <v>2100</v>
       </c>
       <c r="P7" t="n">
-        <v>16000</v>
+        <v>2050</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2000</v>
+        <v>2050</v>
       </c>
       <c r="T7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44162</v>
+        <v>44159</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
         <v>2000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44491</v>
+        <v>44519</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O9" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>18500</v>
+        <v>21500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2312</v>
+        <v>2688</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44495</v>
+        <v>44519</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>19556</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2444</v>
+        <v>2250</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44498</v>
+        <v>44516</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O11" t="n">
         <v>19000</v>
       </c>
-      <c r="O11" t="n">
-        <v>20000</v>
-      </c>
       <c r="P11" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44488</v>
+        <v>44505</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2188</v>
+        <v>2438</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44519</v>
+        <v>44509</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2688</v>
+        <v>2438</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44519</v>
+        <v>44530</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2250</v>
+        <v>2438</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44505</v>
+        <v>44530</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P15" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2438</v>
+        <v>2000</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44533</v>
+        <v>44523</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N16" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O16" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>18500</v>
+        <v>21500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2312</v>
+        <v>2688</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44533</v>
+        <v>44523</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1727,13 +1727,13 @@
         <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O17" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2000</v>
+        <v>2250</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44523</v>
+        <v>44512</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2688</v>
+        <v>2438</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44523</v>
+        <v>44495</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>18000</v>
+        <v>19556</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2250</v>
+        <v>2444</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44159</v>
+        <v>44526</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1967,17 +1967,17 @@
         <v>300</v>
       </c>
       <c r="N20" t="n">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="O20" t="n">
-        <v>2100</v>
+        <v>21000</v>
       </c>
       <c r="P20" t="n">
-        <v>2050</v>
+        <v>21000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2050</v>
+        <v>2625</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44488</v>
+        <v>44159</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,24 +520,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>2100</v>
       </c>
       <c r="P2" t="n">
-        <v>17500</v>
+        <v>2050</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2188</v>
+        <v>2050</v>
       </c>
       <c r="T2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44533</v>
+        <v>44505</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>300</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O3" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44533</v>
+        <v>44488</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>16000</v>
+        <v>17500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2000</v>
+        <v>2188</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44498</v>
+        <v>44523</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N5" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2438</v>
+        <v>2688</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44491</v>
+        <v>44523</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
         <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2312</v>
+        <v>2250</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44162</v>
+        <v>44533</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>2100</v>
+        <v>19000</v>
       </c>
       <c r="P7" t="n">
-        <v>2050</v>
+        <v>18500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2050</v>
+        <v>2312</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44159</v>
+        <v>44533</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,36 +1000,36 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
         <v>2000</v>
       </c>
-      <c r="O8" t="n">
-        <v>2100</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2050</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v>2050</v>
-      </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44519</v>
+        <v>44491</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P9" t="n">
-        <v>21500</v>
+        <v>18500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2688</v>
+        <v>2312</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44519</v>
+        <v>44162</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>2100</v>
       </c>
       <c r="P10" t="n">
-        <v>18000</v>
+        <v>2050</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2250</v>
+        <v>2050</v>
       </c>
       <c r="T10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44516</v>
+        <v>44495</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O11" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>18500</v>
+        <v>19556</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2312</v>
+        <v>2444</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44505</v>
+        <v>44498</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44509</v>
+        <v>44530</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P14" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2438</v>
+        <v>2000</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44530</v>
+        <v>44519</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N15" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O15" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>16000</v>
+        <v>21500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2000</v>
+        <v>2688</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44523</v>
+        <v>44519</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O16" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P16" t="n">
-        <v>21500</v>
+        <v>18000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2688</v>
+        <v>2250</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44523</v>
+        <v>44516</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
         <v>18000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P17" t="n">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2250</v>
+        <v>2312</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44512</v>
+        <v>44509</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
         <v>19000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44495</v>
+        <v>44526</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P19" t="n">
-        <v>19556</v>
+        <v>21000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2444</v>
+        <v>2625</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44526</v>
+        <v>44512</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>300</v>
       </c>
       <c r="N20" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O20" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>21000</v>
+        <v>19500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2625</v>
+        <v>2438</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44159</v>
+        <v>44512</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,24 +520,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="O2" t="n">
-        <v>2100</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>2050</v>
+        <v>19500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2050</v>
+        <v>2438</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44505</v>
+        <v>44495</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="N3" t="n">
         <v>19000</v>
@@ -613,7 +613,7 @@
         <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>19500</v>
+        <v>19556</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2438</v>
+        <v>2444</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44488</v>
+        <v>44523</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="N4" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>17500</v>
+        <v>21500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2188</v>
+        <v>2688</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>21500</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2688</v>
+        <v>2250</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44523</v>
+        <v>44498</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2250</v>
+        <v>2438</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44533</v>
+        <v>44530</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O7" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44533</v>
+        <v>44530</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44491</v>
+        <v>44509</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1087,13 +1087,13 @@
         <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O9" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44162</v>
+        <v>44526</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="O10" t="n">
-        <v>2100</v>
+        <v>21000</v>
       </c>
       <c r="P10" t="n">
-        <v>2050</v>
+        <v>21000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2050</v>
+        <v>2625</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44495</v>
+        <v>44488</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="N11" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>19556</v>
+        <v>17500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2444</v>
+        <v>2188</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44498</v>
+        <v>44516</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O12" t="n">
         <v>19000</v>
       </c>
-      <c r="O12" t="n">
-        <v>20000</v>
-      </c>
       <c r="P12" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44530</v>
+        <v>44491</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>200</v>
       </c>
       <c r="N13" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O13" t="n">
         <v>19000</v>
       </c>
-      <c r="O13" t="n">
-        <v>20000</v>
-      </c>
       <c r="P13" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44530</v>
+        <v>44162</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,24 +1480,24 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="O14" t="n">
-        <v>16000</v>
+        <v>2100</v>
       </c>
       <c r="P14" t="n">
-        <v>16000</v>
+        <v>2050</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2000</v>
+        <v>2050</v>
       </c>
       <c r="T14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44519</v>
+        <v>44159</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1564,20 +1564,20 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>2100</v>
       </c>
       <c r="P15" t="n">
-        <v>21500</v>
+        <v>2050</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2688</v>
+        <v>2050</v>
       </c>
       <c r="T15" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44519</v>
+        <v>44533</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N16" t="n">
         <v>18000</v>
       </c>
       <c r="O16" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P16" t="n">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2250</v>
+        <v>2312</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44516</v>
+        <v>44533</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O17" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P17" t="n">
-        <v>18500</v>
+        <v>16000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2312</v>
+        <v>2000</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44509</v>
+        <v>44505</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
         <v>19000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44526</v>
+        <v>44519</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N19" t="n">
         <v>21000</v>
       </c>
       <c r="O19" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>21000</v>
+        <v>21500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2625</v>
+        <v>2688</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44512</v>
+        <v>44519</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P20" t="n">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2438</v>
+        <v>2250</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44512</v>
+        <v>44509</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
         <v>19000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44495</v>
+        <v>44159</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="N3" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P3" t="n">
-        <v>19556</v>
+        <v>2050</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2444</v>
+        <v>2050</v>
       </c>
       <c r="T3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44523</v>
+        <v>44512</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2688</v>
+        <v>2438</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44523</v>
+        <v>44495</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>19556</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2250</v>
+        <v>2444</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44498</v>
+        <v>44488</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N6" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2438</v>
+        <v>2188</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44530</v>
+        <v>44519</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N7" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2438</v>
+        <v>2688</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44530</v>
+        <v>44519</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2000</v>
+        <v>2250</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44509</v>
+        <v>44533</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O9" t="n">
         <v>19000</v>
       </c>
-      <c r="O9" t="n">
-        <v>20000</v>
-      </c>
       <c r="P9" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44526</v>
+        <v>44533</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O10" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P10" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2625</v>
+        <v>2000</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44488</v>
+        <v>44491</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P11" t="n">
-        <v>17500</v>
+        <v>18500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2188</v>
+        <v>2312</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44516</v>
+        <v>44523</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O12" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>18500</v>
+        <v>21500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2312</v>
+        <v>2688</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44491</v>
+        <v>44523</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
         <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2312</v>
+        <v>2250</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44162</v>
+        <v>44526</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1484,20 +1484,20 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="O14" t="n">
-        <v>2100</v>
+        <v>21000</v>
       </c>
       <c r="P14" t="n">
-        <v>2050</v>
+        <v>21000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2050</v>
+        <v>2625</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44159</v>
+        <v>44516</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,24 +1560,24 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O15" t="n">
-        <v>2100</v>
+        <v>19000</v>
       </c>
       <c r="P15" t="n">
-        <v>2050</v>
+        <v>18500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2050</v>
+        <v>2312</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44533</v>
+        <v>44162</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1644,20 +1644,20 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="O16" t="n">
-        <v>19000</v>
+        <v>2100</v>
       </c>
       <c r="P16" t="n">
-        <v>18500</v>
+        <v>2050</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2312</v>
+        <v>2050</v>
       </c>
       <c r="T16" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44533</v>
+        <v>44530</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O17" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>16000</v>
+        <v>19500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2000</v>
+        <v>2438</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44505</v>
+        <v>44530</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P18" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2438</v>
+        <v>2000</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44519</v>
+        <v>44498</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2688</v>
+        <v>2438</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44519</v>
+        <v>44505</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N20" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O20" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2250</v>
+        <v>2438</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44509</v>
+        <v>44495</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N2" t="n">
         <v>19000</v>
@@ -533,7 +533,7 @@
         <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>19500</v>
+        <v>19556</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2438</v>
+        <v>2444</v>
       </c>
       <c r="T2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44159</v>
+        <v>44526</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -607,17 +607,17 @@
         <v>300</v>
       </c>
       <c r="N3" t="n">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="O3" t="n">
-        <v>2100</v>
+        <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>2050</v>
+        <v>21000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2050</v>
+        <v>2625</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44512</v>
+        <v>44523</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N4" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2438</v>
+        <v>2688</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44495</v>
+        <v>44523</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>19556</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2444</v>
+        <v>2250</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44488</v>
+        <v>44516</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P6" t="n">
-        <v>17500</v>
+        <v>18500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2188</v>
+        <v>2312</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44519</v>
+        <v>44530</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2688</v>
+        <v>2438</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44519</v>
+        <v>44530</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2250</v>
+        <v>2000</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44533</v>
+        <v>44159</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1087,17 +1087,17 @@
         <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="O9" t="n">
-        <v>19000</v>
+        <v>2100</v>
       </c>
       <c r="P9" t="n">
-        <v>18500</v>
+        <v>2050</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2312</v>
+        <v>2050</v>
       </c>
       <c r="T9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44533</v>
+        <v>44491</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P10" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2000</v>
+        <v>2312</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44491</v>
+        <v>44505</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O11" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44523</v>
+        <v>44498</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2688</v>
+        <v>2438</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44523</v>
+        <v>44519</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>21500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2250</v>
+        <v>2688</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44526</v>
+        <v>44519</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2625</v>
+        <v>2250</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44516</v>
+        <v>44509</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1567,13 +1567,13 @@
         <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O15" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44162</v>
+        <v>44533</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1644,20 +1644,20 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N16" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O16" t="n">
-        <v>2100</v>
+        <v>19000</v>
       </c>
       <c r="P16" t="n">
-        <v>2050</v>
+        <v>18500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2050</v>
+        <v>2312</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44530</v>
+        <v>44533</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P17" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2438</v>
+        <v>2000</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44530</v>
+        <v>44162</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,24 +1800,24 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="O18" t="n">
-        <v>16000</v>
+        <v>2100</v>
       </c>
       <c r="P18" t="n">
-        <v>16000</v>
+        <v>2050</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2000</v>
+        <v>2050</v>
       </c>
       <c r="T18" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44498</v>
+        <v>44488</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N19" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2438</v>
+        <v>2188</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44505</v>
+        <v>44512</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44495</v>
+        <v>44509</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
         <v>19000</v>
@@ -533,7 +533,7 @@
         <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>19556</v>
+        <v>19500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2444</v>
+        <v>2438</v>
       </c>
       <c r="T2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44526</v>
+        <v>44495</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="N3" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O3" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>21000</v>
+        <v>19556</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2625</v>
+        <v>2444</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44523</v>
+        <v>44162</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>2100</v>
       </c>
       <c r="P4" t="n">
-        <v>21500</v>
+        <v>2050</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2688</v>
+        <v>2050</v>
       </c>
       <c r="T4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44523</v>
+        <v>44530</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2250</v>
+        <v>2438</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44516</v>
+        <v>44530</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O6" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P6" t="n">
-        <v>18500</v>
+        <v>16000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2312</v>
+        <v>2000</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44530</v>
+        <v>44491</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>200</v>
       </c>
       <c r="N7" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O7" t="n">
         <v>19000</v>
       </c>
-      <c r="O7" t="n">
-        <v>20000</v>
-      </c>
       <c r="P7" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44530</v>
+        <v>44526</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O8" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P8" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2000</v>
+        <v>2625</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44159</v>
+        <v>44505</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,24 +1080,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="O9" t="n">
-        <v>2100</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>2050</v>
+        <v>19500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2050</v>
+        <v>2438</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44491</v>
+        <v>44488</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N10" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O10" t="n">
         <v>18000</v>
       </c>
-      <c r="O10" t="n">
-        <v>19000</v>
-      </c>
       <c r="P10" t="n">
-        <v>18500</v>
+        <v>17500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2312</v>
+        <v>2188</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44505</v>
+        <v>44498</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44498</v>
+        <v>44512</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44509</v>
+        <v>44523</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N15" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2438</v>
+        <v>2688</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44533</v>
+        <v>44523</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
         <v>18000</v>
       </c>
       <c r="O16" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P16" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2312</v>
+        <v>2250</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O17" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P17" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2000</v>
+        <v>2312</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44162</v>
+        <v>44533</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,36 +1800,36 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O18" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P18" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
         <v>2000</v>
       </c>
-      <c r="O18" t="n">
-        <v>2100</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2050</v>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S18" t="n">
-        <v>2050</v>
-      </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44488</v>
+        <v>44159</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,24 +1880,24 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>2100</v>
       </c>
       <c r="P19" t="n">
-        <v>17500</v>
+        <v>2050</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2188</v>
+        <v>2050</v>
       </c>
       <c r="T19" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44512</v>
+        <v>44516</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O20" t="n">
         <v>19000</v>
       </c>
-      <c r="O20" t="n">
-        <v>20000</v>
-      </c>
       <c r="P20" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44509</v>
+        <v>44491</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -527,13 +527,13 @@
         <v>200</v>
       </c>
       <c r="N2" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O2" t="n">
         <v>19000</v>
       </c>
-      <c r="O2" t="n">
-        <v>20000</v>
-      </c>
       <c r="P2" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44495</v>
+        <v>44519</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="N3" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>19556</v>
+        <v>21500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2444</v>
+        <v>2688</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44162</v>
+        <v>44519</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>2100</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>2050</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2050</v>
+        <v>2250</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44530</v>
+        <v>44516</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>200</v>
       </c>
       <c r="N5" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O5" t="n">
         <v>19000</v>
       </c>
-      <c r="O5" t="n">
-        <v>20000</v>
-      </c>
       <c r="P5" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44530</v>
+        <v>44523</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N6" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O6" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>16000</v>
+        <v>21500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2000</v>
+        <v>2688</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44491</v>
+        <v>44523</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
         <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2312</v>
+        <v>2250</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44526</v>
+        <v>44488</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N8" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="O8" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>21000</v>
+        <v>17500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2625</v>
+        <v>2188</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44505</v>
+        <v>44530</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,11 +1080,11 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
         <v>19000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44488</v>
+        <v>44530</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P10" t="n">
-        <v>17500</v>
+        <v>16000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2188</v>
+        <v>2000</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44498</v>
+        <v>44509</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
         <v>19000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44512</v>
+        <v>44505</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44519</v>
+        <v>44533</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P13" t="n">
-        <v>21500</v>
+        <v>18500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2688</v>
+        <v>2312</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44519</v>
+        <v>44533</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2250</v>
+        <v>2000</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44523</v>
+        <v>44495</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="N15" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>21500</v>
+        <v>19556</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2688</v>
+        <v>2444</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44523</v>
+        <v>44512</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N16" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O16" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2250</v>
+        <v>2438</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44533</v>
+        <v>44498</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O17" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44533</v>
+        <v>44159</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,24 +1800,24 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="O18" t="n">
-        <v>16000</v>
+        <v>2100</v>
       </c>
       <c r="P18" t="n">
-        <v>16000</v>
+        <v>2050</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2000</v>
+        <v>2050</v>
       </c>
       <c r="T18" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44159</v>
+        <v>44526</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1887,17 +1887,17 @@
         <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="O19" t="n">
-        <v>2100</v>
+        <v>21000</v>
       </c>
       <c r="P19" t="n">
-        <v>2050</v>
+        <v>21000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2050</v>
+        <v>2625</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44516</v>
+        <v>44162</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,24 +1960,24 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="O20" t="n">
-        <v>19000</v>
+        <v>2100</v>
       </c>
       <c r="P20" t="n">
-        <v>18500</v>
+        <v>2050</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2312</v>
+        <v>2050</v>
       </c>
       <c r="T20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44491</v>
+        <v>44523</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O2" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>18500</v>
+        <v>21500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2312</v>
+        <v>2688</v>
       </c>
       <c r="T2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44519</v>
+        <v>44523</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>21500</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2688</v>
+        <v>2250</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44519</v>
+        <v>44512</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2250</v>
+        <v>2438</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44516</v>
+        <v>44509</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -767,13 +767,13 @@
         <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O5" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44523</v>
+        <v>44530</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2688</v>
+        <v>2438</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44523</v>
+        <v>44530</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -927,13 +927,13 @@
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2250</v>
+        <v>2000</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44488</v>
+        <v>44162</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,24 +1000,24 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>2100</v>
       </c>
       <c r="P8" t="n">
-        <v>17500</v>
+        <v>2050</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2188</v>
+        <v>2050</v>
       </c>
       <c r="T8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44530</v>
+        <v>44159</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P9" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2438</v>
+        <v>2050</v>
       </c>
       <c r="T9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44530</v>
+        <v>44519</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N10" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O10" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>16000</v>
+        <v>21500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2000</v>
+        <v>2688</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44509</v>
+        <v>44519</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1247,13 +1247,13 @@
         <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2438</v>
+        <v>2250</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44505</v>
+        <v>44533</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>300</v>
       </c>
       <c r="N12" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O12" t="n">
         <v>19000</v>
       </c>
-      <c r="O12" t="n">
-        <v>20000</v>
-      </c>
       <c r="P12" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O13" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P13" t="n">
-        <v>18500</v>
+        <v>16000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2312</v>
+        <v>2000</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44533</v>
+        <v>44491</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P14" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2000</v>
+        <v>2312</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44495</v>
+        <v>44516</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O15" t="n">
         <v>19000</v>
       </c>
-      <c r="O15" t="n">
-        <v>20000</v>
-      </c>
       <c r="P15" t="n">
-        <v>19556</v>
+        <v>18500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2444</v>
+        <v>2312</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44512</v>
+        <v>44505</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44498</v>
+        <v>44526</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P17" t="n">
-        <v>19500</v>
+        <v>21000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2438</v>
+        <v>2625</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44159</v>
+        <v>44488</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,24 +1800,24 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N18" t="n">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="O18" t="n">
-        <v>2100</v>
+        <v>18000</v>
       </c>
       <c r="P18" t="n">
-        <v>2050</v>
+        <v>17500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2050</v>
+        <v>2188</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44526</v>
+        <v>44498</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O19" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>21000</v>
+        <v>19500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2625</v>
+        <v>2438</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44162</v>
+        <v>44495</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,24 +1960,24 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N20" t="n">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="O20" t="n">
-        <v>2100</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>2050</v>
+        <v>19556</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2050</v>
+        <v>2444</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44526</v>
+        <v>44873</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1727,13 +1727,13 @@
         <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O17" t="n">
-        <v>21000</v>
+        <v>22500</v>
       </c>
       <c r="P17" t="n">
-        <v>21000</v>
+        <v>22250</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2625</v>
+        <v>2781</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44488</v>
+        <v>44526</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O18" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P18" t="n">
-        <v>17500</v>
+        <v>21000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2188</v>
+        <v>2625</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44498</v>
+        <v>44488</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N19" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2438</v>
+        <v>2188</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44495</v>
+        <v>44498</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="N20" t="n">
         <v>19000</v>
@@ -1973,22 +1973,102 @@
         <v>20000</v>
       </c>
       <c r="P20" t="n">
+        <v>19500</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
+        <v>2438</v>
+      </c>
+      <c r="T20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>44495</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>100107002</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Chirimoya</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>270</v>
+      </c>
+      <c r="N21" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O21" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P21" t="n">
         <v>19556</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>$/bandeja 8 kilos</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S20" t="n">
+      <c r="S21" t="n">
         <v>2444</v>
       </c>
-      <c r="T20" t="n">
+      <c r="T21" t="n">
         <v>8</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44488</v>
+        <v>44876</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>22500</v>
       </c>
       <c r="P19" t="n">
-        <v>17500</v>
+        <v>22250</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2188</v>
+        <v>2781</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44498</v>
+        <v>44488</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N20" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P20" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2438</v>
+        <v>2188</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44495</v>
+        <v>44498</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="N21" t="n">
         <v>19000</v>
@@ -2053,22 +2053,102 @@
         <v>20000</v>
       </c>
       <c r="P21" t="n">
+        <v>19500</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
+        <v>2438</v>
+      </c>
+      <c r="T21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>44495</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>100107002</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Chirimoya</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>270</v>
+      </c>
+      <c r="N22" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O22" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P22" t="n">
         <v>19556</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>$/bandeja 8 kilos</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S21" t="n">
+      <c r="S22" t="n">
         <v>2444</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T22" t="n">
         <v>8</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44519</v>
+        <v>44880</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>22500</v>
       </c>
       <c r="P10" t="n">
-        <v>21500</v>
+        <v>22250</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2688</v>
+        <v>2781</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>21500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2250</v>
+        <v>2688</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44533</v>
+        <v>44519</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
         <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2312</v>
+        <v>2250</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P13" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2000</v>
+        <v>2312</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44491</v>
+        <v>44533</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O14" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P14" t="n">
-        <v>18500</v>
+        <v>16000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2312</v>
+        <v>2000</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44516</v>
+        <v>44491</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44505</v>
+        <v>44516</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O16" t="n">
         <v>19000</v>
       </c>
-      <c r="O16" t="n">
-        <v>20000</v>
-      </c>
       <c r="P16" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44873</v>
+        <v>44505</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O17" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>22250</v>
+        <v>19500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2781</v>
+        <v>2438</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44526</v>
+        <v>44873</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1807,13 +1807,13 @@
         <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O18" t="n">
-        <v>21000</v>
+        <v>22500</v>
       </c>
       <c r="P18" t="n">
-        <v>21000</v>
+        <v>22250</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2625</v>
+        <v>2781</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44876</v>
+        <v>44526</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1887,13 +1887,13 @@
         <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O19" t="n">
-        <v>22500</v>
+        <v>21000</v>
       </c>
       <c r="P19" t="n">
-        <v>22250</v>
+        <v>21000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2781</v>
+        <v>2625</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44488</v>
+        <v>44876</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N20" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>18000</v>
+        <v>22500</v>
       </c>
       <c r="P20" t="n">
-        <v>17500</v>
+        <v>22250</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2188</v>
+        <v>2781</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44498</v>
+        <v>44488</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N21" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O21" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P21" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2438</v>
+        <v>2188</v>
       </c>
       <c r="T21" t="n">
         <v>8</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44495</v>
+        <v>44498</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="N22" t="n">
         <v>19000</v>
@@ -2133,22 +2133,102 @@
         <v>20000</v>
       </c>
       <c r="P22" t="n">
+        <v>19500</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
+        <v>2438</v>
+      </c>
+      <c r="T22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>44495</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>100107002</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Chirimoya</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>270</v>
+      </c>
+      <c r="N23" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O23" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P23" t="n">
         <v>19556</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>$/bandeja 8 kilos</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S22" t="n">
+      <c r="S23" t="n">
         <v>2444</v>
       </c>
-      <c r="T22" t="n">
+      <c r="T23" t="n">
         <v>8</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44523</v>
+        <v>44509</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2688</v>
+        <v>2438</v>
       </c>
       <c r="T2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44523</v>
+        <v>44516</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
         <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2250</v>
+        <v>2312</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44512</v>
+        <v>44876</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P4" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44509</v>
+        <v>44526</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>19500</v>
+        <v>21000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2438</v>
+        <v>2625</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44530</v>
+        <v>44523</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N6" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2438</v>
+        <v>2688</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44530</v>
+        <v>44523</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -927,13 +927,13 @@
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2000</v>
+        <v>2250</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44162</v>
+        <v>44530</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1007,17 +1007,17 @@
         <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="O8" t="n">
-        <v>2100</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>2050</v>
+        <v>19500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2050</v>
+        <v>2438</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44159</v>
+        <v>44530</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
         <v>2000</v>
       </c>
-      <c r="O9" t="n">
-        <v>2100</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2050</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v>2050</v>
-      </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44880</v>
+        <v>44159</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1167,17 +1167,17 @@
         <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="O10" t="n">
-        <v>22500</v>
+        <v>2100</v>
       </c>
       <c r="P10" t="n">
-        <v>22250</v>
+        <v>2050</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2781</v>
+        <v>2050</v>
       </c>
       <c r="T10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44519</v>
+        <v>44505</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2688</v>
+        <v>2438</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>21500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2250</v>
+        <v>2688</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44533</v>
+        <v>44519</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
         <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2312</v>
+        <v>2250</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44533</v>
+        <v>44498</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O14" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>16000</v>
+        <v>19500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2000</v>
+        <v>2438</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44491</v>
+        <v>44880</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="P15" t="n">
-        <v>18500</v>
+        <v>22250</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2312</v>
+        <v>2781</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44516</v>
+        <v>44873</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N16" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O16" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="P16" t="n">
-        <v>18500</v>
+        <v>22250</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2312</v>
+        <v>2781</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44505</v>
+        <v>44491</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O17" t="n">
         <v>19000</v>
       </c>
-      <c r="O17" t="n">
-        <v>20000</v>
-      </c>
       <c r="P17" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44873</v>
+        <v>44512</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O18" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>22250</v>
+        <v>19500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2781</v>
+        <v>2438</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44526</v>
+        <v>44488</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N19" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="O19" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>21000</v>
+        <v>17500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2625</v>
+        <v>2188</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44876</v>
+        <v>44495</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="N20" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O20" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>22250</v>
+        <v>19556</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2781</v>
+        <v>2444</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44488</v>
+        <v>44162</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,24 +2040,24 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="O21" t="n">
-        <v>18000</v>
+        <v>2100</v>
       </c>
       <c r="P21" t="n">
-        <v>17500</v>
+        <v>2050</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2188</v>
+        <v>2050</v>
       </c>
       <c r="T21" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44498</v>
+        <v>44533</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>300</v>
       </c>
       <c r="N22" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O22" t="n">
         <v>19000</v>
       </c>
-      <c r="O22" t="n">
-        <v>20000</v>
-      </c>
       <c r="P22" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T22" t="n">
         <v>8</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44495</v>
+        <v>44533</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O23" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P23" t="n">
-        <v>19556</v>
+        <v>16000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2444</v>
+        <v>2000</v>
       </c>
       <c r="T23" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2232,6 +2232,86 @@
         <v>8</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>100107002</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Chirimoya</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>200</v>
+      </c>
+      <c r="N24" t="n">
+        <v>22000</v>
+      </c>
+      <c r="O24" t="n">
+        <v>22500</v>
+      </c>
+      <c r="P24" t="n">
+        <v>22250</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S24" t="n">
+        <v>2781</v>
+      </c>
+      <c r="T24" t="n">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44880</v>
+        <v>44894</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
         <v>22000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44873</v>
+        <v>44880</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44491</v>
+        <v>44873</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O17" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="P17" t="n">
-        <v>18500</v>
+        <v>22250</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2312</v>
+        <v>2781</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44512</v>
+        <v>44491</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O18" t="n">
         <v>19000</v>
       </c>
-      <c r="O18" t="n">
-        <v>20000</v>
-      </c>
       <c r="P18" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44488</v>
+        <v>44512</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2188</v>
+        <v>2438</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44495</v>
+        <v>44488</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="N20" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P20" t="n">
-        <v>19556</v>
+        <v>17500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2444</v>
+        <v>2188</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44162</v>
+        <v>44495</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,24 +2040,24 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N21" t="n">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="O21" t="n">
-        <v>2100</v>
+        <v>20000</v>
       </c>
       <c r="P21" t="n">
-        <v>2050</v>
+        <v>19556</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2050</v>
+        <v>2444</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44533</v>
+        <v>44162</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2124,20 +2124,20 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N22" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="O22" t="n">
-        <v>19000</v>
+        <v>2100</v>
       </c>
       <c r="P22" t="n">
-        <v>18500</v>
+        <v>2050</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2312</v>
+        <v>2050</v>
       </c>
       <c r="T22" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N23" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O23" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P23" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2000</v>
+        <v>2312</v>
       </c>
       <c r="T23" t="n">
         <v>8</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44890</v>
+        <v>44533</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,35 +2280,115 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>100</v>
+      </c>
+      <c r="N24" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O24" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P24" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S24" t="n">
+        <v>2000</v>
+      </c>
+      <c r="T24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>4</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>100107002</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Chirimoya</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M24" t="n">
+      <c r="M25" t="n">
         <v>200</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N25" t="n">
         <v>22000</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O25" t="n">
         <v>22500</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P25" t="n">
         <v>22250</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>$/bandeja 8 kilos</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S24" t="n">
+      <c r="S25" t="n">
         <v>2781</v>
       </c>
-      <c r="T24" t="n">
+      <c r="T25" t="n">
         <v>8</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44873</v>
+        <v>44895</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
         <v>22000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44491</v>
+        <v>44873</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O18" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="P18" t="n">
-        <v>18500</v>
+        <v>22250</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2312</v>
+        <v>2781</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44512</v>
+        <v>44491</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O19" t="n">
         <v>19000</v>
       </c>
-      <c r="O19" t="n">
-        <v>20000</v>
-      </c>
       <c r="P19" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44488</v>
+        <v>44512</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N20" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O20" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2188</v>
+        <v>2438</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44495</v>
+        <v>44488</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="N21" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O21" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P21" t="n">
-        <v>19556</v>
+        <v>17500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2444</v>
+        <v>2188</v>
       </c>
       <c r="T21" t="n">
         <v>8</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44162</v>
+        <v>44495</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2120,24 +2120,24 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N22" t="n">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="O22" t="n">
-        <v>2100</v>
+        <v>20000</v>
       </c>
       <c r="P22" t="n">
-        <v>2050</v>
+        <v>19556</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2050</v>
+        <v>2444</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44533</v>
+        <v>44162</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2204,20 +2204,20 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N23" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="O23" t="n">
-        <v>19000</v>
+        <v>2100</v>
       </c>
       <c r="P23" t="n">
-        <v>18500</v>
+        <v>2050</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2312</v>
+        <v>2050</v>
       </c>
       <c r="T23" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N24" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O24" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P24" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2000</v>
+        <v>2312</v>
       </c>
       <c r="T24" t="n">
         <v>8</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44890</v>
+        <v>44533</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2360,35 +2360,115 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>100</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O25" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P25" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S25" t="n">
+        <v>2000</v>
+      </c>
+      <c r="T25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>4</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>100107002</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Chirimoya</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="M26" t="n">
         <v>200</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N26" t="n">
         <v>22000</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O26" t="n">
         <v>22500</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P26" t="n">
         <v>22250</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>$/bandeja 8 kilos</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S25" t="n">
+      <c r="S26" t="n">
         <v>2781</v>
       </c>
-      <c r="T25" t="n">
+      <c r="T26" t="n">
         <v>8</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44509</v>
+        <v>44488</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N2" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2438</v>
+        <v>2188</v>
       </c>
       <c r="T2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44516</v>
+        <v>44890</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O3" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="P3" t="n">
-        <v>18500</v>
+        <v>22250</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2312</v>
+        <v>2781</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44876</v>
+        <v>44880</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44526</v>
+        <v>44162</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>2100</v>
       </c>
       <c r="P5" t="n">
-        <v>21000</v>
+        <v>2050</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2625</v>
+        <v>2050</v>
       </c>
       <c r="T5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44523</v>
+        <v>44495</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="N6" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>21500</v>
+        <v>19556</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2688</v>
+        <v>2444</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44523</v>
+        <v>44526</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2250</v>
+        <v>2625</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44530</v>
+        <v>44876</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P8" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44530</v>
+        <v>44895</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>16000</v>
+        <v>22500</v>
       </c>
       <c r="P9" t="n">
-        <v>16000</v>
+        <v>22250</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2000</v>
+        <v>2781</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44159</v>
+        <v>44533</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1167,17 +1167,17 @@
         <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>2100</v>
+        <v>19000</v>
       </c>
       <c r="P10" t="n">
-        <v>2050</v>
+        <v>18500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2050</v>
+        <v>2312</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44505</v>
+        <v>44533</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P11" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2438</v>
+        <v>2000</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44519</v>
+        <v>44516</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P12" t="n">
-        <v>21500</v>
+        <v>18500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2688</v>
+        <v>2312</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44519</v>
+        <v>44509</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1407,13 +1407,13 @@
         <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2250</v>
+        <v>2438</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44498</v>
+        <v>44873</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P14" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44894</v>
+        <v>44491</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O15" t="n">
-        <v>22500</v>
+        <v>19000</v>
       </c>
       <c r="P15" t="n">
-        <v>22250</v>
+        <v>18500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2781</v>
+        <v>2312</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44880</v>
+        <v>44894</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
         <v>22000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44895</v>
+        <v>44159</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="O17" t="n">
-        <v>22500</v>
+        <v>2100</v>
       </c>
       <c r="P17" t="n">
-        <v>22250</v>
+        <v>2050</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2781</v>
+        <v>2050</v>
       </c>
       <c r="T17" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44873</v>
+        <v>44498</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O18" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>22250</v>
+        <v>19500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2781</v>
+        <v>2438</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44491</v>
+        <v>44530</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O19" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44512</v>
+        <v>44530</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P20" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2438</v>
+        <v>2000</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44488</v>
+        <v>44523</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="N21" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O21" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P21" t="n">
-        <v>17500</v>
+        <v>21500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2188</v>
+        <v>2688</v>
       </c>
       <c r="T21" t="n">
         <v>8</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44495</v>
+        <v>44523</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O22" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P22" t="n">
-        <v>19556</v>
+        <v>18000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2444</v>
+        <v>2250</v>
       </c>
       <c r="T22" t="n">
         <v>8</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44162</v>
+        <v>44512</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2200,24 +2200,24 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N23" t="n">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="O23" t="n">
-        <v>2100</v>
+        <v>20000</v>
       </c>
       <c r="P23" t="n">
-        <v>2050</v>
+        <v>19500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2050</v>
+        <v>2438</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44533</v>
+        <v>44505</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>300</v>
       </c>
       <c r="N24" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O24" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P24" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T24" t="n">
         <v>8</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44533</v>
+        <v>44519</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N25" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O25" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P25" t="n">
-        <v>16000</v>
+        <v>21500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2000</v>
+        <v>2688</v>
       </c>
       <c r="T25" t="n">
         <v>8</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44890</v>
+        <v>44519</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>200</v>
       </c>
       <c r="N26" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O26" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P26" t="n">
-        <v>22250</v>
+        <v>18000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2781</v>
+        <v>2250</v>
       </c>
       <c r="T26" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44488</v>
+        <v>44873</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>22500</v>
       </c>
       <c r="P2" t="n">
-        <v>17500</v>
+        <v>22250</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2188</v>
+        <v>2781</v>
       </c>
       <c r="T2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44890</v>
+        <v>44495</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N3" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O3" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>22250</v>
+        <v>19556</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2781</v>
+        <v>2444</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44880</v>
+        <v>44523</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N4" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O4" t="n">
         <v>22000</v>
       </c>
-      <c r="O4" t="n">
-        <v>22500</v>
-      </c>
       <c r="P4" t="n">
-        <v>22250</v>
+        <v>21500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2781</v>
+        <v>2688</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44162</v>
+        <v>44523</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>2100</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>2050</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2050</v>
+        <v>2250</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44495</v>
+        <v>44519</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="N6" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>19556</v>
+        <v>21500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2444</v>
+        <v>2688</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44526</v>
+        <v>44519</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2625</v>
+        <v>2250</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44876</v>
+        <v>44505</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O8" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>22250</v>
+        <v>19500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2781</v>
+        <v>2438</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44895</v>
+        <v>44876</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
         <v>22000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44533</v>
+        <v>44159</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1167,17 +1167,17 @@
         <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="O10" t="n">
-        <v>19000</v>
+        <v>2100</v>
       </c>
       <c r="P10" t="n">
-        <v>18500</v>
+        <v>2050</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2312</v>
+        <v>2050</v>
       </c>
       <c r="T10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44533</v>
+        <v>44530</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O11" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>16000</v>
+        <v>19500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2000</v>
+        <v>2438</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44516</v>
+        <v>44530</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O12" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P12" t="n">
-        <v>18500</v>
+        <v>16000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2312</v>
+        <v>2000</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44509</v>
+        <v>44526</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P13" t="n">
-        <v>19500</v>
+        <v>21000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2438</v>
+        <v>2625</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44873</v>
+        <v>44488</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O14" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>22250</v>
+        <v>17500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2781</v>
+        <v>2188</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44491</v>
+        <v>44880</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="P15" t="n">
-        <v>18500</v>
+        <v>22250</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2312</v>
+        <v>2781</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44894</v>
+        <v>44512</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N16" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O16" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>22250</v>
+        <v>19500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2781</v>
+        <v>2438</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44159</v>
+        <v>44509</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,24 +1720,24 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="O17" t="n">
-        <v>2100</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>2050</v>
+        <v>19500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2050</v>
+        <v>2438</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44498</v>
+        <v>44894</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P18" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44530</v>
+        <v>44498</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,11 +1880,11 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N19" t="n">
         <v>19000</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44530</v>
+        <v>44895</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>16000</v>
+        <v>22500</v>
       </c>
       <c r="P20" t="n">
-        <v>16000</v>
+        <v>22250</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2000</v>
+        <v>2781</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44523</v>
+        <v>44491</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O21" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P21" t="n">
-        <v>21500</v>
+        <v>18500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2688</v>
+        <v>2312</v>
       </c>
       <c r="T21" t="n">
         <v>8</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44523</v>
+        <v>44516</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N22" t="n">
         <v>18000</v>
       </c>
       <c r="O22" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P22" t="n">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2250</v>
+        <v>2312</v>
       </c>
       <c r="T22" t="n">
         <v>8</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44512</v>
+        <v>44162</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2200,24 +2200,24 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N23" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O23" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P23" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2438</v>
+        <v>2050</v>
       </c>
       <c r="T23" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44505</v>
+        <v>44533</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>300</v>
       </c>
       <c r="N24" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O24" t="n">
         <v>19000</v>
       </c>
-      <c r="O24" t="n">
-        <v>20000</v>
-      </c>
       <c r="P24" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T24" t="n">
         <v>8</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44519</v>
+        <v>44533</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N25" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O25" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P25" t="n">
-        <v>21500</v>
+        <v>16000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2688</v>
+        <v>2000</v>
       </c>
       <c r="T25" t="n">
         <v>8</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44519</v>
+        <v>44890</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>200</v>
       </c>
       <c r="N26" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O26" t="n">
-        <v>18000</v>
+        <v>22500</v>
       </c>
       <c r="P26" t="n">
-        <v>18000</v>
+        <v>22250</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2250</v>
+        <v>2781</v>
       </c>
       <c r="T26" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44873</v>
+        <v>44894</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
         <v>22000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44495</v>
+        <v>44505</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="N3" t="n">
         <v>19000</v>
@@ -613,7 +613,7 @@
         <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>19556</v>
+        <v>19500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2444</v>
+        <v>2438</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44523</v>
+        <v>44512</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2688</v>
+        <v>2438</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44523</v>
+        <v>44890</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>22500</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>22250</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2250</v>
+        <v>2781</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44519</v>
+        <v>44162</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>2100</v>
       </c>
       <c r="P6" t="n">
-        <v>21500</v>
+        <v>2050</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2688</v>
+        <v>2050</v>
       </c>
       <c r="T6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44519</v>
+        <v>44533</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
         <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2250</v>
+        <v>2312</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44505</v>
+        <v>44533</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P8" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2438</v>
+        <v>2000</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44876</v>
+        <v>44530</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O9" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>22250</v>
+        <v>19500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2781</v>
+        <v>2438</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44159</v>
+        <v>44530</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
         <v>2000</v>
       </c>
-      <c r="O10" t="n">
-        <v>2100</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2050</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v>2050</v>
-      </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44530</v>
+        <v>44526</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P11" t="n">
-        <v>19500</v>
+        <v>21000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2438</v>
+        <v>2625</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44530</v>
+        <v>44880</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>16000</v>
+        <v>22500</v>
       </c>
       <c r="P12" t="n">
-        <v>16000</v>
+        <v>22250</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2000</v>
+        <v>2781</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44526</v>
+        <v>44876</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1407,13 +1407,13 @@
         <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>21000</v>
+        <v>22500</v>
       </c>
       <c r="P13" t="n">
-        <v>21000</v>
+        <v>22250</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2625</v>
+        <v>2781</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44488</v>
+        <v>44509</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2188</v>
+        <v>2438</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44880</v>
+        <v>44523</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N15" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O15" t="n">
         <v>22000</v>
       </c>
-      <c r="O15" t="n">
-        <v>22500</v>
-      </c>
       <c r="P15" t="n">
-        <v>22250</v>
+        <v>21500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2781</v>
+        <v>2688</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44512</v>
+        <v>44523</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P16" t="n">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2438</v>
+        <v>2250</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44509</v>
+        <v>44495</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N17" t="n">
         <v>19000</v>
@@ -1733,7 +1733,7 @@
         <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>19500</v>
+        <v>19556</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2438</v>
+        <v>2444</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44894</v>
+        <v>44516</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O18" t="n">
-        <v>22500</v>
+        <v>19000</v>
       </c>
       <c r="P18" t="n">
-        <v>22250</v>
+        <v>18500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2781</v>
+        <v>2312</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44498</v>
+        <v>44159</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,24 +1880,24 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P19" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2438</v>
+        <v>2050</v>
       </c>
       <c r="T19" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44895</v>
+        <v>44519</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N20" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O20" t="n">
         <v>22000</v>
       </c>
-      <c r="O20" t="n">
-        <v>22500</v>
-      </c>
       <c r="P20" t="n">
-        <v>22250</v>
+        <v>21500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2781</v>
+        <v>2688</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44491</v>
+        <v>44519</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2050,10 +2050,10 @@
         <v>18000</v>
       </c>
       <c r="O21" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P21" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2312</v>
+        <v>2250</v>
       </c>
       <c r="T21" t="n">
         <v>8</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44516</v>
+        <v>44895</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>200</v>
       </c>
       <c r="N22" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O22" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="P22" t="n">
-        <v>18500</v>
+        <v>22250</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2312</v>
+        <v>2781</v>
       </c>
       <c r="T22" t="n">
         <v>8</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44162</v>
+        <v>44873</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2204,20 +2204,20 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N23" t="n">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="O23" t="n">
-        <v>2100</v>
+        <v>22500</v>
       </c>
       <c r="P23" t="n">
-        <v>2050</v>
+        <v>22250</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2050</v>
+        <v>2781</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44533</v>
+        <v>44498</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>300</v>
       </c>
       <c r="N24" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O24" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P24" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T24" t="n">
         <v>8</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44533</v>
+        <v>44491</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N25" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O25" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P25" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2000</v>
+        <v>2312</v>
       </c>
       <c r="T25" t="n">
         <v>8</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44890</v>
+        <v>44488</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N26" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O26" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P26" t="n">
-        <v>22250</v>
+        <v>17500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2781</v>
+        <v>2188</v>
       </c>
       <c r="T26" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44894</v>
+        <v>44873</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
         <v>22000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44505</v>
+        <v>44495</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="N3" t="n">
         <v>19000</v>
@@ -613,7 +613,7 @@
         <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>19500</v>
+        <v>19556</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2438</v>
+        <v>2444</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44512</v>
+        <v>44523</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N4" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2438</v>
+        <v>2688</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44890</v>
+        <v>44523</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>22250</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2781</v>
+        <v>2250</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44162</v>
+        <v>44519</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N6" t="n">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="O6" t="n">
-        <v>2100</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>2050</v>
+        <v>21500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2050</v>
+        <v>2688</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44533</v>
+        <v>44519</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
         <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2312</v>
+        <v>2250</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44533</v>
+        <v>44505</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O8" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>16000</v>
+        <v>19500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2000</v>
+        <v>2438</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44530</v>
+        <v>44876</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P9" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44530</v>
+        <v>44159</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="O10" t="n">
-        <v>16000</v>
+        <v>2100</v>
       </c>
       <c r="P10" t="n">
-        <v>16000</v>
+        <v>2050</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2000</v>
+        <v>2050</v>
       </c>
       <c r="T10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44526</v>
+        <v>44530</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O11" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>21000</v>
+        <v>19500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2625</v>
+        <v>2438</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44880</v>
+        <v>44530</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O12" t="n">
-        <v>22500</v>
+        <v>16000</v>
       </c>
       <c r="P12" t="n">
-        <v>22250</v>
+        <v>16000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2781</v>
+        <v>2000</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44876</v>
+        <v>44526</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1407,13 +1407,13 @@
         <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O13" t="n">
-        <v>22500</v>
+        <v>21000</v>
       </c>
       <c r="P13" t="n">
-        <v>22250</v>
+        <v>21000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2781</v>
+        <v>2625</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44509</v>
+        <v>44488</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N14" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2438</v>
+        <v>2188</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44523</v>
+        <v>44880</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>22500</v>
       </c>
       <c r="P15" t="n">
-        <v>21500</v>
+        <v>22250</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2688</v>
+        <v>2781</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44523</v>
+        <v>44512</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N16" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O16" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2250</v>
+        <v>2438</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44495</v>
+        <v>44509</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
         <v>19000</v>
@@ -1733,7 +1733,7 @@
         <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>19556</v>
+        <v>19500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2444</v>
+        <v>2438</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44516</v>
+        <v>44894</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O18" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="P18" t="n">
-        <v>18500</v>
+        <v>22250</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2312</v>
+        <v>2781</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44159</v>
+        <v>44498</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,24 +1880,24 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="O19" t="n">
-        <v>2100</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>2050</v>
+        <v>19500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2050</v>
+        <v>2438</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44519</v>
+        <v>44895</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>22500</v>
       </c>
       <c r="P20" t="n">
-        <v>21500</v>
+        <v>22250</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2688</v>
+        <v>2781</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44519</v>
+        <v>44491</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2050,10 +2050,10 @@
         <v>18000</v>
       </c>
       <c r="O21" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P21" t="n">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2250</v>
+        <v>2312</v>
       </c>
       <c r="T21" t="n">
         <v>8</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44895</v>
+        <v>44516</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>200</v>
       </c>
       <c r="N22" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O22" t="n">
-        <v>22500</v>
+        <v>19000</v>
       </c>
       <c r="P22" t="n">
-        <v>22250</v>
+        <v>18500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2781</v>
+        <v>2312</v>
       </c>
       <c r="T22" t="n">
         <v>8</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44873</v>
+        <v>44162</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2204,20 +2204,20 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N23" t="n">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="O23" t="n">
-        <v>22500</v>
+        <v>2100</v>
       </c>
       <c r="P23" t="n">
-        <v>22250</v>
+        <v>2050</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2781</v>
+        <v>2050</v>
       </c>
       <c r="T23" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44498</v>
+        <v>44533</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>300</v>
       </c>
       <c r="N24" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O24" t="n">
         <v>19000</v>
       </c>
-      <c r="O24" t="n">
-        <v>20000</v>
-      </c>
       <c r="P24" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T24" t="n">
         <v>8</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44491</v>
+        <v>44533</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N25" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O25" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P25" t="n">
-        <v>18500</v>
+        <v>16000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2312</v>
+        <v>2000</v>
       </c>
       <c r="T25" t="n">
         <v>8</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44488</v>
+        <v>44890</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N26" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O26" t="n">
-        <v>18000</v>
+        <v>22500</v>
       </c>
       <c r="P26" t="n">
-        <v>17500</v>
+        <v>22250</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2188</v>
+        <v>2781</v>
       </c>
       <c r="T26" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44894</v>
+        <v>44498</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O2" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>22250</v>
+        <v>19500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2781</v>
+        <v>2438</v>
       </c>
       <c r="T2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44505</v>
+        <v>44895</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P3" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44512</v>
+        <v>44880</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P4" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44890</v>
+        <v>44159</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="O5" t="n">
-        <v>22500</v>
+        <v>2100</v>
       </c>
       <c r="P5" t="n">
-        <v>22250</v>
+        <v>2050</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2781</v>
+        <v>2050</v>
       </c>
       <c r="T5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44162</v>
+        <v>44876</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="O6" t="n">
-        <v>2100</v>
+        <v>22500</v>
       </c>
       <c r="P6" t="n">
-        <v>2050</v>
+        <v>22250</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2050</v>
+        <v>2781</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44533</v>
+        <v>44516</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,11 +920,11 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
         <v>18000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44533</v>
+        <v>44873</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O8" t="n">
-        <v>16000</v>
+        <v>22500</v>
       </c>
       <c r="P8" t="n">
-        <v>16000</v>
+        <v>22250</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2000</v>
+        <v>2781</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44530</v>
+        <v>44509</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44530</v>
+        <v>44890</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>16000</v>
+        <v>22500</v>
       </c>
       <c r="P10" t="n">
-        <v>16000</v>
+        <v>22250</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2000</v>
+        <v>2781</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44526</v>
+        <v>44530</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O11" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>21000</v>
+        <v>19500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2625</v>
+        <v>2438</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44880</v>
+        <v>44530</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O12" t="n">
-        <v>22500</v>
+        <v>16000</v>
       </c>
       <c r="P12" t="n">
-        <v>22250</v>
+        <v>16000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2781</v>
+        <v>2000</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44876</v>
+        <v>44495</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="N13" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O13" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>22250</v>
+        <v>19556</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2781</v>
+        <v>2444</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44509</v>
+        <v>44162</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,24 +1480,24 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P14" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2438</v>
+        <v>2050</v>
       </c>
       <c r="T14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44523</v>
+        <v>44533</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P15" t="n">
-        <v>21500</v>
+        <v>18500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2688</v>
+        <v>2312</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44523</v>
+        <v>44533</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1647,13 +1647,13 @@
         <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O16" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P16" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2250</v>
+        <v>2000</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44495</v>
+        <v>44519</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="N17" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P17" t="n">
-        <v>19556</v>
+        <v>21500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2444</v>
+        <v>2688</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44516</v>
+        <v>44519</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1810,10 +1810,10 @@
         <v>18000</v>
       </c>
       <c r="O18" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P18" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2312</v>
+        <v>2250</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44159</v>
+        <v>44523</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1884,20 +1884,20 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N19" t="n">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="O19" t="n">
-        <v>2100</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>2050</v>
+        <v>21500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2050</v>
+        <v>2688</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44519</v>
+        <v>44523</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P20" t="n">
-        <v>21500</v>
+        <v>18000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2688</v>
+        <v>2250</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44519</v>
+        <v>44512</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N21" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O21" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P21" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2250</v>
+        <v>2438</v>
       </c>
       <c r="T21" t="n">
         <v>8</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44895</v>
+        <v>44488</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N22" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O22" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P22" t="n">
-        <v>22250</v>
+        <v>17500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2781</v>
+        <v>2188</v>
       </c>
       <c r="T22" t="n">
         <v>8</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44873</v>
+        <v>44491</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N23" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O23" t="n">
-        <v>22500</v>
+        <v>19000</v>
       </c>
       <c r="P23" t="n">
-        <v>22250</v>
+        <v>18500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2781</v>
+        <v>2312</v>
       </c>
       <c r="T23" t="n">
         <v>8</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44498</v>
+        <v>44894</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N24" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O24" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P24" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T24" t="n">
         <v>8</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44491</v>
+        <v>44526</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N25" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O25" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="P25" t="n">
-        <v>18500</v>
+        <v>21000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2312</v>
+        <v>2625</v>
       </c>
       <c r="T25" t="n">
         <v>8</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44488</v>
+        <v>44505</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N26" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O26" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P26" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2188</v>
+        <v>2438</v>
       </c>
       <c r="T26" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44498</v>
+        <v>44505</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44895</v>
+        <v>44488</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N3" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O3" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>22250</v>
+        <v>17500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2781</v>
+        <v>2188</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44880</v>
+        <v>44895</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
         <v>22000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44159</v>
+        <v>44873</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -767,17 +767,17 @@
         <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>2100</v>
+        <v>22500</v>
       </c>
       <c r="P5" t="n">
-        <v>2050</v>
+        <v>22250</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2050</v>
+        <v>2781</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44876</v>
+        <v>44516</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>22500</v>
+        <v>19000</v>
       </c>
       <c r="P6" t="n">
-        <v>22250</v>
+        <v>18500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2781</v>
+        <v>2312</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44516</v>
+        <v>44890</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="P7" t="n">
-        <v>18500</v>
+        <v>22250</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2312</v>
+        <v>2781</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44873</v>
+        <v>44162</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="O8" t="n">
-        <v>22500</v>
+        <v>2100</v>
       </c>
       <c r="P8" t="n">
-        <v>22250</v>
+        <v>2050</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2781</v>
+        <v>2050</v>
       </c>
       <c r="T8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44509</v>
+        <v>44491</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1087,13 +1087,13 @@
         <v>200</v>
       </c>
       <c r="N9" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O9" t="n">
         <v>19000</v>
       </c>
-      <c r="O9" t="n">
-        <v>20000</v>
-      </c>
       <c r="P9" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44890</v>
+        <v>44876</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
         <v>22000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44495</v>
+        <v>44533</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O13" t="n">
         <v>19000</v>
       </c>
-      <c r="O13" t="n">
-        <v>20000</v>
-      </c>
       <c r="P13" t="n">
-        <v>19556</v>
+        <v>18500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2444</v>
+        <v>2312</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44162</v>
+        <v>44533</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,36 +1480,36 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O14" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P14" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
         <v>2000</v>
       </c>
-      <c r="O14" t="n">
-        <v>2100</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2050</v>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S14" t="n">
-        <v>2050</v>
-      </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44533</v>
+        <v>44880</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1567,13 +1567,13 @@
         <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="P15" t="n">
-        <v>18500</v>
+        <v>22250</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2312</v>
+        <v>2781</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44533</v>
+        <v>44159</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,24 +1640,24 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N16" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="O16" t="n">
-        <v>16000</v>
+        <v>2100</v>
       </c>
       <c r="P16" t="n">
-        <v>16000</v>
+        <v>2050</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2000</v>
+        <v>2050</v>
       </c>
       <c r="T16" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44519</v>
+        <v>44495</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="N17" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>21500</v>
+        <v>19556</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2688</v>
+        <v>2444</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44519</v>
+        <v>44512</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O18" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2250</v>
+        <v>2438</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44523</v>
+        <v>44509</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2688</v>
+        <v>2438</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44523</v>
+        <v>44498</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N20" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O20" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2250</v>
+        <v>2438</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44512</v>
+        <v>44523</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N21" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O21" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P21" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2438</v>
+        <v>2688</v>
       </c>
       <c r="T21" t="n">
         <v>8</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44488</v>
+        <v>44523</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O22" t="n">
         <v>18000</v>
       </c>
       <c r="P22" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2188</v>
+        <v>2250</v>
       </c>
       <c r="T22" t="n">
         <v>8</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44491</v>
+        <v>44894</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>200</v>
       </c>
       <c r="N23" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O23" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="P23" t="n">
-        <v>18500</v>
+        <v>22250</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2312</v>
+        <v>2781</v>
       </c>
       <c r="T23" t="n">
         <v>8</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44894</v>
+        <v>44519</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N24" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O24" t="n">
         <v>22000</v>
       </c>
-      <c r="O24" t="n">
-        <v>22500</v>
-      </c>
       <c r="P24" t="n">
-        <v>22250</v>
+        <v>21500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2781</v>
+        <v>2688</v>
       </c>
       <c r="T24" t="n">
         <v>8</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44526</v>
+        <v>44519</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N25" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O25" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P25" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2625</v>
+        <v>2250</v>
       </c>
       <c r="T25" t="n">
         <v>8</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44505</v>
+        <v>44526</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>300</v>
       </c>
       <c r="N26" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O26" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P26" t="n">
-        <v>19500</v>
+        <v>21000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2438</v>
+        <v>2625</v>
       </c>
       <c r="T26" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44505</v>
+        <v>44533</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>300</v>
       </c>
       <c r="N2" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O2" t="n">
         <v>19000</v>
       </c>
-      <c r="O2" t="n">
-        <v>20000</v>
-      </c>
       <c r="P2" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44488</v>
+        <v>44533</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P3" t="n">
-        <v>17500</v>
+        <v>16000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2188</v>
+        <v>2000</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44895</v>
+        <v>44162</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -687,17 +687,17 @@
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="O4" t="n">
-        <v>22500</v>
+        <v>2100</v>
       </c>
       <c r="P4" t="n">
-        <v>22250</v>
+        <v>2050</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2781</v>
+        <v>2050</v>
       </c>
       <c r="T4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44873</v>
+        <v>44491</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>22500</v>
+        <v>19000</v>
       </c>
       <c r="P5" t="n">
-        <v>22250</v>
+        <v>18500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2781</v>
+        <v>2312</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44516</v>
+        <v>44488</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N6" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O6" t="n">
         <v>18000</v>
       </c>
-      <c r="O6" t="n">
-        <v>19000</v>
-      </c>
       <c r="P6" t="n">
-        <v>18500</v>
+        <v>17500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2312</v>
+        <v>2188</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44162</v>
+        <v>44498</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,24 +1000,24 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="O8" t="n">
-        <v>2100</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>2050</v>
+        <v>19500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2050</v>
+        <v>2438</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44491</v>
+        <v>44505</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O9" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44876</v>
+        <v>44526</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1167,13 +1167,13 @@
         <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O10" t="n">
-        <v>22500</v>
+        <v>21000</v>
       </c>
       <c r="P10" t="n">
-        <v>22250</v>
+        <v>21000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2781</v>
+        <v>2625</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44530</v>
+        <v>44519</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N11" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2438</v>
+        <v>2688</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44530</v>
+        <v>44519</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2000</v>
+        <v>2250</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44533</v>
+        <v>44512</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O13" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44533</v>
+        <v>44873</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>16000</v>
+        <v>22500</v>
       </c>
       <c r="P14" t="n">
-        <v>16000</v>
+        <v>22250</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2000</v>
+        <v>2781</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44880</v>
+        <v>44523</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N15" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O15" t="n">
         <v>22000</v>
       </c>
-      <c r="O15" t="n">
-        <v>22500</v>
-      </c>
       <c r="P15" t="n">
-        <v>22250</v>
+        <v>21500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2781</v>
+        <v>2688</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44159</v>
+        <v>44523</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,24 +1640,24 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O16" t="n">
-        <v>2100</v>
+        <v>18000</v>
       </c>
       <c r="P16" t="n">
-        <v>2050</v>
+        <v>18000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2050</v>
+        <v>2250</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44495</v>
+        <v>44895</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P17" t="n">
-        <v>19556</v>
+        <v>22250</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2444</v>
+        <v>2781</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44512</v>
+        <v>44894</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P18" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44498</v>
+        <v>44159</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,24 +1960,24 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>300</v>
       </c>
       <c r="N20" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P20" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2438</v>
+        <v>2050</v>
       </c>
       <c r="T20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44523</v>
+        <v>44495</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="N21" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O21" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P21" t="n">
-        <v>21500</v>
+        <v>19556</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2688</v>
+        <v>2444</v>
       </c>
       <c r="T21" t="n">
         <v>8</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44523</v>
+        <v>44516</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N22" t="n">
         <v>18000</v>
       </c>
       <c r="O22" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P22" t="n">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2250</v>
+        <v>2312</v>
       </c>
       <c r="T22" t="n">
         <v>8</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44894</v>
+        <v>44880</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N23" t="n">
         <v>22000</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44519</v>
+        <v>44530</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N24" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O24" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P24" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2688</v>
+        <v>2438</v>
       </c>
       <c r="T24" t="n">
         <v>8</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44519</v>
+        <v>44530</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N25" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O25" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P25" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2250</v>
+        <v>2000</v>
       </c>
       <c r="T25" t="n">
         <v>8</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44526</v>
+        <v>44876</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2447,13 +2447,13 @@
         <v>300</v>
       </c>
       <c r="N26" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O26" t="n">
-        <v>21000</v>
+        <v>22500</v>
       </c>
       <c r="P26" t="n">
-        <v>21000</v>
+        <v>22250</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2625</v>
+        <v>2781</v>
       </c>
       <c r="T26" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44533</v>
+        <v>44509</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O2" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44533</v>
+        <v>44523</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O3" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>16000</v>
+        <v>21500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2000</v>
+        <v>2688</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44162</v>
+        <v>44523</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>2100</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>2050</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2050</v>
+        <v>2250</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44488</v>
+        <v>44159</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>2100</v>
       </c>
       <c r="P6" t="n">
-        <v>17500</v>
+        <v>2050</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2188</v>
+        <v>2050</v>
       </c>
       <c r="T6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44890</v>
+        <v>44895</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44498</v>
+        <v>44533</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>300</v>
       </c>
       <c r="N8" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O8" t="n">
         <v>19000</v>
       </c>
-      <c r="O8" t="n">
-        <v>20000</v>
-      </c>
       <c r="P8" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44505</v>
+        <v>44533</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P9" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2438</v>
+        <v>2000</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44526</v>
+        <v>44894</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>21000</v>
+        <v>22500</v>
       </c>
       <c r="P10" t="n">
-        <v>21000</v>
+        <v>22250</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2625</v>
+        <v>2781</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44519</v>
+        <v>44162</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>2100</v>
       </c>
       <c r="P11" t="n">
-        <v>21500</v>
+        <v>2050</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2688</v>
+        <v>2050</v>
       </c>
       <c r="T11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44519</v>
+        <v>44890</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>22500</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>22250</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2250</v>
+        <v>2781</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44512</v>
+        <v>44495</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="N13" t="n">
         <v>19000</v>
@@ -1413,7 +1413,7 @@
         <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>19500</v>
+        <v>19556</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2438</v>
+        <v>2444</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44873</v>
+        <v>44526</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1487,13 +1487,13 @@
         <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O14" t="n">
-        <v>22500</v>
+        <v>21000</v>
       </c>
       <c r="P14" t="n">
-        <v>22250</v>
+        <v>21000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2781</v>
+        <v>2625</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44523</v>
+        <v>44488</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="N15" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P15" t="n">
-        <v>21500</v>
+        <v>17500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2688</v>
+        <v>2188</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44523</v>
+        <v>44505</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N16" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O16" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2250</v>
+        <v>2438</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44895</v>
+        <v>44880</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
         <v>22000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44894</v>
+        <v>44516</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O18" t="n">
-        <v>22500</v>
+        <v>19000</v>
       </c>
       <c r="P18" t="n">
-        <v>22250</v>
+        <v>18500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2781</v>
+        <v>2312</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44509</v>
+        <v>44519</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N19" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2438</v>
+        <v>2688</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44159</v>
+        <v>44519</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,24 +1960,24 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O20" t="n">
-        <v>2100</v>
+        <v>18000</v>
       </c>
       <c r="P20" t="n">
-        <v>2050</v>
+        <v>18000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2050</v>
+        <v>2250</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44495</v>
+        <v>44512</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="N21" t="n">
         <v>19000</v>
@@ -2053,7 +2053,7 @@
         <v>20000</v>
       </c>
       <c r="P21" t="n">
-        <v>19556</v>
+        <v>19500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2444</v>
+        <v>2438</v>
       </c>
       <c r="T21" t="n">
         <v>8</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44516</v>
+        <v>44873</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N22" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O22" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="P22" t="n">
-        <v>18500</v>
+        <v>22250</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2312</v>
+        <v>2781</v>
       </c>
       <c r="T22" t="n">
         <v>8</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44880</v>
+        <v>44876</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44876</v>
+        <v>44498</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>300</v>
       </c>
       <c r="N26" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O26" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P26" t="n">
-        <v>22250</v>
+        <v>19500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2781</v>
+        <v>2438</v>
       </c>
       <c r="T26" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44509</v>
+        <v>44495</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N2" t="n">
         <v>19000</v>
@@ -533,7 +533,7 @@
         <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>19500</v>
+        <v>19556</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2438</v>
+        <v>2444</v>
       </c>
       <c r="T2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44523</v>
+        <v>44509</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2688</v>
+        <v>2438</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>21500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2250</v>
+        <v>2688</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44491</v>
+        <v>44523</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
         <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2312</v>
+        <v>2250</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44159</v>
+        <v>44162</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
         <v>2000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44895</v>
+        <v>44533</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>22500</v>
+        <v>19000</v>
       </c>
       <c r="P7" t="n">
-        <v>22250</v>
+        <v>18500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2781</v>
+        <v>2312</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O8" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P8" t="n">
-        <v>18500</v>
+        <v>16000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2312</v>
+        <v>2000</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44533</v>
+        <v>44894</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>16000</v>
+        <v>22500</v>
       </c>
       <c r="P9" t="n">
-        <v>16000</v>
+        <v>22250</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2000</v>
+        <v>2781</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44894</v>
+        <v>44890</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44162</v>
+        <v>44519</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N11" t="n">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="O11" t="n">
-        <v>2100</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>2050</v>
+        <v>21500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2050</v>
+        <v>2688</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44890</v>
+        <v>44519</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>22250</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2781</v>
+        <v>2250</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44495</v>
+        <v>44505</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
         <v>19000</v>
@@ -1413,7 +1413,7 @@
         <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>19556</v>
+        <v>19500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2444</v>
+        <v>2438</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44526</v>
+        <v>44491</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="P14" t="n">
-        <v>21000</v>
+        <v>18500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2625</v>
+        <v>2312</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44488</v>
+        <v>44530</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O15" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2188</v>
+        <v>2438</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44505</v>
+        <v>44530</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P16" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2438</v>
+        <v>2000</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44880</v>
+        <v>44488</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N17" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O17" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>22250</v>
+        <v>17500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2781</v>
+        <v>2188</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44516</v>
+        <v>44498</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O18" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44519</v>
+        <v>44895</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>22500</v>
       </c>
       <c r="P19" t="n">
-        <v>21500</v>
+        <v>22250</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2688</v>
+        <v>2781</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44519</v>
+        <v>44876</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N20" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>18000</v>
+        <v>22500</v>
       </c>
       <c r="P20" t="n">
-        <v>18000</v>
+        <v>22250</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2250</v>
+        <v>2781</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44512</v>
+        <v>44159</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,24 +2040,24 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>300</v>
       </c>
       <c r="N21" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O21" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P21" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2438</v>
+        <v>2050</v>
       </c>
       <c r="T21" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44873</v>
+        <v>44880</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44876</v>
+        <v>44516</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N23" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O23" t="n">
-        <v>22500</v>
+        <v>19000</v>
       </c>
       <c r="P23" t="n">
-        <v>22250</v>
+        <v>18500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2781</v>
+        <v>2312</v>
       </c>
       <c r="T23" t="n">
         <v>8</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44530</v>
+        <v>44873</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N24" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O24" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P24" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T24" t="n">
         <v>8</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44530</v>
+        <v>44512</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N25" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O25" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P25" t="n">
-        <v>16000</v>
+        <v>19500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2000</v>
+        <v>2438</v>
       </c>
       <c r="T25" t="n">
         <v>8</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44498</v>
+        <v>44526</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>300</v>
       </c>
       <c r="N26" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O26" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P26" t="n">
-        <v>19500</v>
+        <v>21000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2438</v>
+        <v>2625</v>
       </c>
       <c r="T26" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44495</v>
+        <v>44519</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="N2" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>19556</v>
+        <v>21500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2444</v>
+        <v>2688</v>
       </c>
       <c r="T2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44509</v>
+        <v>44519</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -607,13 +607,13 @@
         <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2438</v>
+        <v>2250</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44523</v>
+        <v>44488</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>21500</v>
+        <v>17500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2688</v>
+        <v>2188</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>21500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2250</v>
+        <v>2688</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44162</v>
+        <v>44523</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>2100</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>2050</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2050</v>
+        <v>2250</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44533</v>
+        <v>44495</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O7" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>18500</v>
+        <v>19556</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2312</v>
+        <v>2444</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44533</v>
+        <v>44516</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P8" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2000</v>
+        <v>2312</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44894</v>
+        <v>44526</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O9" t="n">
-        <v>22500</v>
+        <v>21000</v>
       </c>
       <c r="P9" t="n">
-        <v>22250</v>
+        <v>21000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2781</v>
+        <v>2625</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44890</v>
+        <v>44533</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>22500</v>
+        <v>19000</v>
       </c>
       <c r="P10" t="n">
-        <v>22250</v>
+        <v>18500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2781</v>
+        <v>2312</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44519</v>
+        <v>44533</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P11" t="n">
-        <v>21500</v>
+        <v>16000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2688</v>
+        <v>2000</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44519</v>
+        <v>44162</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,24 +1320,24 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>2100</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>2050</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2250</v>
+        <v>2050</v>
       </c>
       <c r="T12" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44505</v>
+        <v>44890</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P13" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44491</v>
+        <v>44876</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="P14" t="n">
-        <v>18500</v>
+        <v>22250</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2312</v>
+        <v>2781</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44530</v>
+        <v>44159</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1564,20 +1564,20 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P15" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2438</v>
+        <v>2050</v>
       </c>
       <c r="T15" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O16" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>16000</v>
+        <v>19500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2000</v>
+        <v>2438</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44488</v>
+        <v>44530</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P17" t="n">
-        <v>17500</v>
+        <v>16000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2188</v>
+        <v>2000</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44498</v>
+        <v>44509</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
         <v>19000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44895</v>
+        <v>44491</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O19" t="n">
-        <v>22500</v>
+        <v>19000</v>
       </c>
       <c r="P19" t="n">
-        <v>22250</v>
+        <v>18500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2781</v>
+        <v>2312</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44876</v>
+        <v>44880</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44159</v>
+        <v>44894</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2044,20 +2044,20 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="O21" t="n">
-        <v>2100</v>
+        <v>22500</v>
       </c>
       <c r="P21" t="n">
-        <v>2050</v>
+        <v>22250</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2050</v>
+        <v>2781</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44880</v>
+        <v>44505</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>300</v>
       </c>
       <c r="N22" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O22" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P22" t="n">
-        <v>22250</v>
+        <v>19500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2781</v>
+        <v>2438</v>
       </c>
       <c r="T22" t="n">
         <v>8</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44516</v>
+        <v>44498</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N23" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O23" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P23" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T23" t="n">
         <v>8</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44873</v>
+        <v>44895</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N24" t="n">
         <v>22000</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44526</v>
+        <v>44873</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2447,13 +2447,13 @@
         <v>300</v>
       </c>
       <c r="N26" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O26" t="n">
-        <v>21000</v>
+        <v>22500</v>
       </c>
       <c r="P26" t="n">
-        <v>21000</v>
+        <v>22250</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2625</v>
+        <v>2781</v>
       </c>
       <c r="T26" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44519</v>
+        <v>44488</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="N2" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>21500</v>
+        <v>17500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2688</v>
+        <v>2188</v>
       </c>
       <c r="T2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44519</v>
+        <v>44498</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2250</v>
+        <v>2438</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44488</v>
+        <v>44509</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2188</v>
+        <v>2438</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44523</v>
+        <v>44505</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2688</v>
+        <v>2438</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44523</v>
+        <v>44526</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2250</v>
+        <v>2625</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44495</v>
+        <v>44890</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P7" t="n">
-        <v>19556</v>
+        <v>22250</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2444</v>
+        <v>2781</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44516</v>
+        <v>44512</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O8" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44526</v>
+        <v>44495</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="N9" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O9" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>21000</v>
+        <v>19556</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2625</v>
+        <v>2444</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44533</v>
+        <v>44876</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1167,13 +1167,13 @@
         <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="P10" t="n">
-        <v>18500</v>
+        <v>22250</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2312</v>
+        <v>2781</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44533</v>
+        <v>44159</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,24 +1240,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="O11" t="n">
-        <v>16000</v>
+        <v>2100</v>
       </c>
       <c r="P11" t="n">
-        <v>16000</v>
+        <v>2050</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2000</v>
+        <v>2050</v>
       </c>
       <c r="T11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44162</v>
+        <v>44895</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1327,17 +1327,17 @@
         <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>2100</v>
+        <v>22500</v>
       </c>
       <c r="P12" t="n">
-        <v>2050</v>
+        <v>22250</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2050</v>
+        <v>2781</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44890</v>
+        <v>44533</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>22500</v>
+        <v>19000</v>
       </c>
       <c r="P13" t="n">
-        <v>22250</v>
+        <v>18500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2781</v>
+        <v>2312</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44876</v>
+        <v>44533</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O14" t="n">
-        <v>22500</v>
+        <v>16000</v>
       </c>
       <c r="P14" t="n">
-        <v>22250</v>
+        <v>16000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2781</v>
+        <v>2000</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44159</v>
+        <v>44523</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1564,20 +1564,20 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N15" t="n">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="O15" t="n">
-        <v>2100</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>2050</v>
+        <v>21500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2050</v>
+        <v>2688</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44530</v>
+        <v>44523</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P16" t="n">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2438</v>
+        <v>2250</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44530</v>
+        <v>44162</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,24 +1720,24 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="O17" t="n">
-        <v>16000</v>
+        <v>2100</v>
       </c>
       <c r="P17" t="n">
-        <v>16000</v>
+        <v>2050</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2000</v>
+        <v>2050</v>
       </c>
       <c r="T17" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44509</v>
+        <v>44530</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44491</v>
+        <v>44530</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O19" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P19" t="n">
-        <v>18500</v>
+        <v>16000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2312</v>
+        <v>2000</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44880</v>
+        <v>44516</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O20" t="n">
-        <v>22500</v>
+        <v>19000</v>
       </c>
       <c r="P20" t="n">
-        <v>22250</v>
+        <v>18500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2781</v>
+        <v>2312</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44894</v>
+        <v>44519</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N21" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O21" t="n">
         <v>22000</v>
       </c>
-      <c r="O21" t="n">
-        <v>22500</v>
-      </c>
       <c r="P21" t="n">
-        <v>22250</v>
+        <v>21500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2781</v>
+        <v>2688</v>
       </c>
       <c r="T21" t="n">
         <v>8</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44505</v>
+        <v>44519</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N22" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O22" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P22" t="n">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2438</v>
+        <v>2250</v>
       </c>
       <c r="T22" t="n">
         <v>8</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44498</v>
+        <v>44873</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>300</v>
       </c>
       <c r="N23" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O23" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P23" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T23" t="n">
         <v>8</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44895</v>
+        <v>44491</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>200</v>
       </c>
       <c r="N24" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O24" t="n">
-        <v>22500</v>
+        <v>19000</v>
       </c>
       <c r="P24" t="n">
-        <v>22250</v>
+        <v>18500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2781</v>
+        <v>2312</v>
       </c>
       <c r="T24" t="n">
         <v>8</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44512</v>
+        <v>44880</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>300</v>
       </c>
       <c r="N25" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O25" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P25" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T25" t="n">
         <v>8</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44873</v>
+        <v>44894</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N26" t="n">
         <v>22000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44488</v>
+        <v>44498</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2188</v>
+        <v>2438</v>
       </c>
       <c r="T2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44498</v>
+        <v>44162</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P3" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2438</v>
+        <v>2050</v>
       </c>
       <c r="T3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44509</v>
+        <v>44526</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>19500</v>
+        <v>21000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2438</v>
+        <v>2625</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44505</v>
+        <v>44873</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P5" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44526</v>
+        <v>44512</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O6" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>21000</v>
+        <v>19500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2625</v>
+        <v>2438</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44890</v>
+        <v>44519</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N7" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O7" t="n">
         <v>22000</v>
       </c>
-      <c r="O7" t="n">
-        <v>22500</v>
-      </c>
       <c r="P7" t="n">
-        <v>22250</v>
+        <v>21500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2781</v>
+        <v>2688</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44512</v>
+        <v>44519</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2438</v>
+        <v>2250</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44495</v>
+        <v>44533</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O9" t="n">
         <v>19000</v>
       </c>
-      <c r="O9" t="n">
-        <v>20000</v>
-      </c>
       <c r="P9" t="n">
-        <v>19556</v>
+        <v>18500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2444</v>
+        <v>2312</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44876</v>
+        <v>44533</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O10" t="n">
-        <v>22500</v>
+        <v>16000</v>
       </c>
       <c r="P10" t="n">
-        <v>22250</v>
+        <v>16000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2781</v>
+        <v>2000</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44159</v>
+        <v>44516</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,24 +1240,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>2100</v>
+        <v>19000</v>
       </c>
       <c r="P11" t="n">
-        <v>2050</v>
+        <v>18500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2050</v>
+        <v>2312</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44895</v>
+        <v>44523</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N12" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O12" t="n">
         <v>22000</v>
       </c>
-      <c r="O12" t="n">
-        <v>22500</v>
-      </c>
       <c r="P12" t="n">
-        <v>22250</v>
+        <v>21500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2781</v>
+        <v>2688</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44533</v>
+        <v>44523</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
         <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2312</v>
+        <v>2250</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44533</v>
+        <v>44876</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>16000</v>
+        <v>22500</v>
       </c>
       <c r="P14" t="n">
-        <v>16000</v>
+        <v>22250</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2000</v>
+        <v>2781</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44523</v>
+        <v>44495</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="N15" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>21500</v>
+        <v>19556</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2688</v>
+        <v>2444</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44523</v>
+        <v>44159</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,24 +1640,24 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N16" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="O16" t="n">
-        <v>18000</v>
+        <v>2100</v>
       </c>
       <c r="P16" t="n">
-        <v>18000</v>
+        <v>2050</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2250</v>
+        <v>2050</v>
       </c>
       <c r="T16" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44162</v>
+        <v>44505</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,24 +1720,24 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="O17" t="n">
-        <v>2100</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>2050</v>
+        <v>19500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2050</v>
+        <v>2438</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44516</v>
+        <v>44880</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N20" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="P20" t="n">
-        <v>18500</v>
+        <v>22250</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2312</v>
+        <v>2781</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44519</v>
+        <v>44895</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O21" t="n">
-        <v>22000</v>
+        <v>22500</v>
       </c>
       <c r="P21" t="n">
-        <v>21500</v>
+        <v>22250</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2688</v>
+        <v>2781</v>
       </c>
       <c r="T21" t="n">
         <v>8</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44519</v>
+        <v>44509</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2127,13 +2127,13 @@
         <v>200</v>
       </c>
       <c r="N22" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O22" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P22" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2250</v>
+        <v>2438</v>
       </c>
       <c r="T22" t="n">
         <v>8</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44873</v>
+        <v>44488</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N23" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O23" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P23" t="n">
-        <v>22250</v>
+        <v>17500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2781</v>
+        <v>2188</v>
       </c>
       <c r="T23" t="n">
         <v>8</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44491</v>
+        <v>44890</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>200</v>
       </c>
       <c r="N24" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O24" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="P24" t="n">
-        <v>18500</v>
+        <v>22250</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2312</v>
+        <v>2781</v>
       </c>
       <c r="T24" t="n">
         <v>8</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44880</v>
+        <v>44491</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N25" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O25" t="n">
-        <v>22500</v>
+        <v>19000</v>
       </c>
       <c r="P25" t="n">
-        <v>22250</v>
+        <v>18500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2781</v>
+        <v>2312</v>
       </c>
       <c r="T25" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44498</v>
+        <v>44530</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,11 +520,11 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
         <v>19000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44162</v>
+        <v>44530</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,36 +600,36 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
         <v>2000</v>
       </c>
-      <c r="O3" t="n">
-        <v>2100</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2050</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v>2050</v>
-      </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44526</v>
+        <v>44894</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>21000</v>
+        <v>22500</v>
       </c>
       <c r="P4" t="n">
-        <v>21000</v>
+        <v>22250</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2625</v>
+        <v>2781</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44873</v>
+        <v>44533</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -767,13 +767,13 @@
         <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>22500</v>
+        <v>19000</v>
       </c>
       <c r="P5" t="n">
-        <v>22250</v>
+        <v>18500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2781</v>
+        <v>2312</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44512</v>
+        <v>44533</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P6" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2438</v>
+        <v>2000</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44519</v>
+        <v>44509</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2688</v>
+        <v>2438</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>21500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2250</v>
+        <v>2688</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44533</v>
+        <v>44519</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
         <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2312</v>
+        <v>2250</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44533</v>
+        <v>44516</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P10" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2000</v>
+        <v>2312</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44516</v>
+        <v>44876</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O11" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="P11" t="n">
-        <v>18500</v>
+        <v>22250</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2312</v>
+        <v>2781</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44523</v>
+        <v>44159</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1324,20 +1324,20 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>2100</v>
       </c>
       <c r="P12" t="n">
-        <v>21500</v>
+        <v>2050</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2688</v>
+        <v>2050</v>
       </c>
       <c r="T12" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44523</v>
+        <v>44162</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,24 +1400,24 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>2100</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>2050</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2250</v>
+        <v>2050</v>
       </c>
       <c r="T13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44876</v>
+        <v>44526</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1487,13 +1487,13 @@
         <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O14" t="n">
-        <v>22500</v>
+        <v>21000</v>
       </c>
       <c r="P14" t="n">
-        <v>22250</v>
+        <v>21000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2781</v>
+        <v>2625</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44495</v>
+        <v>44523</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="N15" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>19556</v>
+        <v>21500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2444</v>
+        <v>2688</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44159</v>
+        <v>44523</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,24 +1640,24 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O16" t="n">
-        <v>2100</v>
+        <v>18000</v>
       </c>
       <c r="P16" t="n">
-        <v>2050</v>
+        <v>18000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2050</v>
+        <v>2250</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44505</v>
+        <v>44488</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N17" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2438</v>
+        <v>2188</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44530</v>
+        <v>44895</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1807,13 +1807,13 @@
         <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P18" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44530</v>
+        <v>44491</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O19" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P19" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2000</v>
+        <v>2312</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44880</v>
+        <v>44890</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
         <v>22000</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44895</v>
+        <v>44873</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N21" t="n">
         <v>22000</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44509</v>
+        <v>44498</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N22" t="n">
         <v>19000</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44488</v>
+        <v>44505</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N23" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O23" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P23" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2188</v>
+        <v>2438</v>
       </c>
       <c r="T23" t="n">
         <v>8</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44890</v>
+        <v>44512</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N24" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O24" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P24" t="n">
-        <v>22250</v>
+        <v>19500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2781</v>
+        <v>2438</v>
       </c>
       <c r="T24" t="n">
         <v>8</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44491</v>
+        <v>44495</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N25" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O25" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P25" t="n">
-        <v>18500</v>
+        <v>19556</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2312</v>
+        <v>2444</v>
       </c>
       <c r="T25" t="n">
         <v>8</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44894</v>
+        <v>44880</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N26" t="n">
         <v>22000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44530</v>
+        <v>44498</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,11 +520,11 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
         <v>19000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44530</v>
+        <v>44162</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="O3" t="n">
-        <v>16000</v>
+        <v>2100</v>
       </c>
       <c r="P3" t="n">
-        <v>16000</v>
+        <v>2050</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2000</v>
+        <v>2050</v>
       </c>
       <c r="T3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44894</v>
+        <v>44526</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>22500</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>22250</v>
+        <v>21000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2781</v>
+        <v>2625</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44533</v>
+        <v>44873</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -767,13 +767,13 @@
         <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="P5" t="n">
-        <v>18500</v>
+        <v>22250</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2312</v>
+        <v>2781</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44533</v>
+        <v>44512</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O6" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>16000</v>
+        <v>19500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2000</v>
+        <v>2438</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44509</v>
+        <v>44519</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N7" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2438</v>
+        <v>2688</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>21500</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2688</v>
+        <v>2250</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44519</v>
+        <v>44533</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
         <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2250</v>
+        <v>2312</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44516</v>
+        <v>44533</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O10" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P10" t="n">
-        <v>18500</v>
+        <v>16000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2312</v>
+        <v>2000</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44876</v>
+        <v>44516</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>22500</v>
+        <v>19000</v>
       </c>
       <c r="P11" t="n">
-        <v>22250</v>
+        <v>18500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2781</v>
+        <v>2312</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44159</v>
+        <v>44523</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1324,20 +1324,20 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N12" t="n">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="O12" t="n">
-        <v>2100</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>2050</v>
+        <v>21500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2050</v>
+        <v>2688</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44162</v>
+        <v>44523</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,24 +1400,24 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>2100</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>2050</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2050</v>
+        <v>2250</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44526</v>
+        <v>44876</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1487,13 +1487,13 @@
         <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>21000</v>
+        <v>22500</v>
       </c>
       <c r="P14" t="n">
-        <v>21000</v>
+        <v>22250</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2625</v>
+        <v>2781</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44523</v>
+        <v>44495</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="N15" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>21500</v>
+        <v>19556</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2688</v>
+        <v>2444</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44523</v>
+        <v>44159</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,24 +1640,24 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N16" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="O16" t="n">
-        <v>18000</v>
+        <v>2100</v>
       </c>
       <c r="P16" t="n">
-        <v>18000</v>
+        <v>2050</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2250</v>
+        <v>2050</v>
       </c>
       <c r="T16" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44488</v>
+        <v>44505</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2188</v>
+        <v>2438</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44895</v>
+        <v>44530</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1807,13 +1807,13 @@
         <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O18" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>22250</v>
+        <v>19500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2781</v>
+        <v>2438</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44491</v>
+        <v>44530</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O19" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P19" t="n">
-        <v>18500</v>
+        <v>16000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2312</v>
+        <v>2000</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44890</v>
+        <v>44880</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N20" t="n">
         <v>22000</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44873</v>
+        <v>44895</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N21" t="n">
         <v>22000</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44498</v>
+        <v>44509</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N22" t="n">
         <v>19000</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44505</v>
+        <v>44488</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N23" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O23" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P23" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2438</v>
+        <v>2188</v>
       </c>
       <c r="T23" t="n">
         <v>8</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44512</v>
+        <v>44890</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N24" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O24" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P24" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T24" t="n">
         <v>8</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44495</v>
+        <v>44491</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N25" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O25" t="n">
         <v>19000</v>
       </c>
-      <c r="O25" t="n">
-        <v>20000</v>
-      </c>
       <c r="P25" t="n">
-        <v>19556</v>
+        <v>18500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2444</v>
+        <v>2312</v>
       </c>
       <c r="T25" t="n">
         <v>8</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44880</v>
+        <v>44894</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N26" t="n">
         <v>22000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44530</v>
+        <v>44512</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,11 +520,11 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
         <v>19000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44530</v>
+        <v>44526</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O3" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2000</v>
+        <v>2625</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44894</v>
+        <v>44530</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -687,13 +687,13 @@
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O4" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>22250</v>
+        <v>19500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2781</v>
+        <v>2438</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44533</v>
+        <v>44530</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O5" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P5" t="n">
-        <v>18500</v>
+        <v>16000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2312</v>
+        <v>2000</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44533</v>
+        <v>44495</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="N6" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O6" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>16000</v>
+        <v>19556</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2000</v>
+        <v>2444</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44509</v>
+        <v>44159</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,24 +920,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P7" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2438</v>
+        <v>2050</v>
       </c>
       <c r="T7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44519</v>
+        <v>44505</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2688</v>
+        <v>2438</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44519</v>
+        <v>44488</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O9" t="n">
         <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2250</v>
+        <v>2188</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44516</v>
+        <v>44519</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O10" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>18500</v>
+        <v>21500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2312</v>
+        <v>2688</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44876</v>
+        <v>44519</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>22250</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2781</v>
+        <v>2250</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44159</v>
+        <v>44509</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,24 +1320,24 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="O12" t="n">
-        <v>2100</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>2050</v>
+        <v>19500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2050</v>
+        <v>2438</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44162</v>
+        <v>44533</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>2100</v>
+        <v>19000</v>
       </c>
       <c r="P13" t="n">
-        <v>2050</v>
+        <v>18500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2050</v>
+        <v>2312</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44526</v>
+        <v>44533</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O14" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P14" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2625</v>
+        <v>2000</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44523</v>
+        <v>44894</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>22500</v>
       </c>
       <c r="P15" t="n">
-        <v>21500</v>
+        <v>22250</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2688</v>
+        <v>2781</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44523</v>
+        <v>44895</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O16" t="n">
-        <v>18000</v>
+        <v>22500</v>
       </c>
       <c r="P16" t="n">
-        <v>18000</v>
+        <v>22250</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2250</v>
+        <v>2781</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44488</v>
+        <v>44876</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>22500</v>
       </c>
       <c r="P17" t="n">
-        <v>17500</v>
+        <v>22250</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2188</v>
+        <v>2781</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44895</v>
+        <v>44873</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
         <v>22000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44491</v>
+        <v>44890</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O19" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="P19" t="n">
-        <v>18500</v>
+        <v>22250</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2312</v>
+        <v>2781</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44890</v>
+        <v>44498</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N20" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O20" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>22250</v>
+        <v>19500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2781</v>
+        <v>2438</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44873</v>
+        <v>44880</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44498</v>
+        <v>44491</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N22" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O22" t="n">
         <v>19000</v>
       </c>
-      <c r="O22" t="n">
-        <v>20000</v>
-      </c>
       <c r="P22" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T22" t="n">
         <v>8</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44505</v>
+        <v>44516</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N23" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O23" t="n">
         <v>19000</v>
       </c>
-      <c r="O23" t="n">
-        <v>20000</v>
-      </c>
       <c r="P23" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T23" t="n">
         <v>8</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44512</v>
+        <v>44162</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,24 +2280,24 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N24" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O24" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P24" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2438</v>
+        <v>2050</v>
       </c>
       <c r="T24" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44495</v>
+        <v>44523</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="N25" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O25" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P25" t="n">
-        <v>19556</v>
+        <v>21500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2444</v>
+        <v>2688</v>
       </c>
       <c r="T25" t="n">
         <v>8</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44880</v>
+        <v>44523</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N26" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O26" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P26" t="n">
-        <v>22250</v>
+        <v>18000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2781</v>
+        <v>2250</v>
       </c>
       <c r="T26" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44512</v>
+        <v>44530</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,11 +520,11 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
         <v>19000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44526</v>
+        <v>44530</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P3" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2625</v>
+        <v>2000</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44530</v>
+        <v>44162</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -687,17 +687,17 @@
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P4" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2438</v>
+        <v>2050</v>
       </c>
       <c r="T4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44530</v>
+        <v>44895</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>16000</v>
+        <v>22500</v>
       </c>
       <c r="P5" t="n">
-        <v>16000</v>
+        <v>22250</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2000</v>
+        <v>2781</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44159</v>
+        <v>44491</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,24 +920,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>2100</v>
+        <v>19000</v>
       </c>
       <c r="P7" t="n">
-        <v>2050</v>
+        <v>18500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2050</v>
+        <v>2312</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44505</v>
+        <v>44519</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N8" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2438</v>
+        <v>2688</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44488</v>
+        <v>44519</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
         <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2188</v>
+        <v>2250</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44519</v>
+        <v>44876</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>22500</v>
       </c>
       <c r="P10" t="n">
-        <v>21500</v>
+        <v>22250</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2688</v>
+        <v>2781</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44519</v>
+        <v>44509</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1247,13 +1247,13 @@
         <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2250</v>
+        <v>2438</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44509</v>
+        <v>44512</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
         <v>19000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44533</v>
+        <v>44505</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O13" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44533</v>
+        <v>44516</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P14" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2000</v>
+        <v>2312</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44894</v>
+        <v>44159</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1564,20 +1564,20 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="O15" t="n">
-        <v>22500</v>
+        <v>2100</v>
       </c>
       <c r="P15" t="n">
-        <v>22250</v>
+        <v>2050</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2781</v>
+        <v>2050</v>
       </c>
       <c r="T15" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44895</v>
+        <v>44873</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N16" t="n">
         <v>22000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44876</v>
+        <v>44498</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O17" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>22250</v>
+        <v>19500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2781</v>
+        <v>2438</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44873</v>
+        <v>44488</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N18" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O18" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P18" t="n">
-        <v>22250</v>
+        <v>17500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2781</v>
+        <v>2188</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44890</v>
+        <v>44526</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O19" t="n">
-        <v>22500</v>
+        <v>21000</v>
       </c>
       <c r="P19" t="n">
-        <v>22250</v>
+        <v>21000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2781</v>
+        <v>2625</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44498</v>
+        <v>44880</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>300</v>
       </c>
       <c r="N20" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P20" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44880</v>
+        <v>44894</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N21" t="n">
         <v>22000</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44491</v>
+        <v>44890</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>200</v>
       </c>
       <c r="N22" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O22" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="P22" t="n">
-        <v>18500</v>
+        <v>22250</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2312</v>
+        <v>2781</v>
       </c>
       <c r="T22" t="n">
         <v>8</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44516</v>
+        <v>44533</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2200,11 +2200,11 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N23" t="n">
         <v>18000</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44162</v>
+        <v>44533</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,36 +2280,36 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N24" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O24" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P24" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S24" t="n">
         <v>2000</v>
       </c>
-      <c r="O24" t="n">
-        <v>2100</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2050</v>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S24" t="n">
-        <v>2050</v>
-      </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44530</v>
+        <v>44505</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,11 +520,11 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
         <v>19000</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O3" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>16000</v>
+        <v>19500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2000</v>
+        <v>2438</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44162</v>
+        <v>44530</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,36 +680,36 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
         <v>2000</v>
       </c>
-      <c r="O4" t="n">
-        <v>2100</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2050</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v>2050</v>
-      </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44895</v>
+        <v>44533</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>22500</v>
+        <v>19000</v>
       </c>
       <c r="P5" t="n">
-        <v>22250</v>
+        <v>18500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2781</v>
+        <v>2312</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44495</v>
+        <v>44533</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P6" t="n">
-        <v>19556</v>
+        <v>16000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2444</v>
+        <v>2000</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44491</v>
+        <v>44498</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O7" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44519</v>
+        <v>44890</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>22500</v>
       </c>
       <c r="P8" t="n">
-        <v>21500</v>
+        <v>22250</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2688</v>
+        <v>2781</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44519</v>
+        <v>44873</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>22500</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>22250</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2250</v>
+        <v>2781</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44876</v>
+        <v>44526</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1167,13 +1167,13 @@
         <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O10" t="n">
-        <v>22500</v>
+        <v>21000</v>
       </c>
       <c r="P10" t="n">
-        <v>22250</v>
+        <v>21000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2781</v>
+        <v>2625</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44509</v>
+        <v>44491</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1247,13 +1247,13 @@
         <v>200</v>
       </c>
       <c r="N11" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O11" t="n">
         <v>19000</v>
       </c>
-      <c r="O11" t="n">
-        <v>20000</v>
-      </c>
       <c r="P11" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44512</v>
+        <v>44876</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P12" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44505</v>
+        <v>44519</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N13" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2438</v>
+        <v>2688</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44516</v>
+        <v>44519</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1490,10 +1490,10 @@
         <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2312</v>
+        <v>2250</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44159</v>
+        <v>44162</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
         <v>2000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44873</v>
+        <v>44512</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>300</v>
       </c>
       <c r="N16" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O16" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>22250</v>
+        <v>19500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2781</v>
+        <v>2438</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44498</v>
+        <v>44159</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,24 +1720,24 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P17" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2438</v>
+        <v>2050</v>
       </c>
       <c r="T17" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44488</v>
+        <v>44523</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="N18" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O18" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P18" t="n">
-        <v>17500</v>
+        <v>21500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2188</v>
+        <v>2688</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44526</v>
+        <v>44523</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O19" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2625</v>
+        <v>2250</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44880</v>
+        <v>44488</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N20" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O20" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P20" t="n">
-        <v>22250</v>
+        <v>17500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2781</v>
+        <v>2188</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44894</v>
+        <v>44509</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O21" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P21" t="n">
-        <v>22250</v>
+        <v>19500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2781</v>
+        <v>2438</v>
       </c>
       <c r="T21" t="n">
         <v>8</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44890</v>
+        <v>44880</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N22" t="n">
         <v>22000</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44533</v>
+        <v>44895</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N23" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O23" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="P23" t="n">
-        <v>18500</v>
+        <v>22250</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2312</v>
+        <v>2781</v>
       </c>
       <c r="T23" t="n">
         <v>8</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44533</v>
+        <v>44894</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N24" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O24" t="n">
-        <v>16000</v>
+        <v>22500</v>
       </c>
       <c r="P24" t="n">
-        <v>16000</v>
+        <v>22250</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2000</v>
+        <v>2781</v>
       </c>
       <c r="T24" t="n">
         <v>8</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44523</v>
+        <v>44516</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N25" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O25" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P25" t="n">
-        <v>21500</v>
+        <v>18500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2688</v>
+        <v>2312</v>
       </c>
       <c r="T25" t="n">
         <v>8</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44523</v>
+        <v>44495</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="N26" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O26" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P26" t="n">
-        <v>18000</v>
+        <v>19556</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2250</v>
+        <v>2444</v>
       </c>
       <c r="T26" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44505</v>
+        <v>44533</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>300</v>
       </c>
       <c r="N2" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O2" t="n">
         <v>19000</v>
       </c>
-      <c r="O2" t="n">
-        <v>20000</v>
-      </c>
       <c r="P2" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44530</v>
+        <v>44533</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P3" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2438</v>
+        <v>2000</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44530</v>
+        <v>44895</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>22500</v>
       </c>
       <c r="P4" t="n">
-        <v>16000</v>
+        <v>22250</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2000</v>
+        <v>2781</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44533</v>
+        <v>44495</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O5" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>18500</v>
+        <v>19556</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2312</v>
+        <v>2444</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44533</v>
+        <v>44876</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O6" t="n">
-        <v>16000</v>
+        <v>22500</v>
       </c>
       <c r="P6" t="n">
-        <v>16000</v>
+        <v>22250</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2000</v>
+        <v>2781</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44498</v>
+        <v>44519</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N7" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2438</v>
+        <v>2688</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44890</v>
+        <v>44519</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>22250</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2781</v>
+        <v>2250</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44873</v>
+        <v>44880</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44526</v>
+        <v>44523</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N10" t="n">
         <v>21000</v>
       </c>
       <c r="O10" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>21000</v>
+        <v>21500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2625</v>
+        <v>2688</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44491</v>
+        <v>44523</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
         <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2312</v>
+        <v>2250</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44876</v>
+        <v>44498</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O12" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>22250</v>
+        <v>19500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2781</v>
+        <v>2438</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44519</v>
+        <v>44873</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>22500</v>
       </c>
       <c r="P13" t="n">
-        <v>21500</v>
+        <v>22250</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2688</v>
+        <v>2781</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44519</v>
+        <v>44488</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O14" t="n">
         <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2250</v>
+        <v>2188</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44512</v>
+        <v>44530</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,11 +1640,11 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
         <v>19000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44159</v>
+        <v>44530</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,36 +1720,36 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O17" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P17" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
         <v>2000</v>
       </c>
-      <c r="O17" t="n">
-        <v>2100</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2050</v>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S17" t="n">
-        <v>2050</v>
-      </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44523</v>
+        <v>44894</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O18" t="n">
-        <v>22000</v>
+        <v>22500</v>
       </c>
       <c r="P18" t="n">
-        <v>21500</v>
+        <v>22250</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2688</v>
+        <v>2781</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44523</v>
+        <v>44890</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>22500</v>
       </c>
       <c r="P19" t="n">
-        <v>18000</v>
+        <v>22250</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2250</v>
+        <v>2781</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44488</v>
+        <v>44509</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O20" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2188</v>
+        <v>2438</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44509</v>
+        <v>44516</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2047,13 +2047,13 @@
         <v>200</v>
       </c>
       <c r="N21" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O21" t="n">
         <v>19000</v>
       </c>
-      <c r="O21" t="n">
-        <v>20000</v>
-      </c>
       <c r="P21" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T21" t="n">
         <v>8</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44880</v>
+        <v>44512</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>300</v>
       </c>
       <c r="N22" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O22" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P22" t="n">
-        <v>22250</v>
+        <v>19500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2781</v>
+        <v>2438</v>
       </c>
       <c r="T22" t="n">
         <v>8</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44895</v>
+        <v>44159</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2204,20 +2204,20 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N23" t="n">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="O23" t="n">
-        <v>22500</v>
+        <v>2100</v>
       </c>
       <c r="P23" t="n">
-        <v>22250</v>
+        <v>2050</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2781</v>
+        <v>2050</v>
       </c>
       <c r="T23" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44894</v>
+        <v>44491</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>200</v>
       </c>
       <c r="N24" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O24" t="n">
-        <v>22500</v>
+        <v>19000</v>
       </c>
       <c r="P24" t="n">
-        <v>22250</v>
+        <v>18500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2781</v>
+        <v>2312</v>
       </c>
       <c r="T24" t="n">
         <v>8</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44516</v>
+        <v>44526</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N25" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O25" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="P25" t="n">
-        <v>18500</v>
+        <v>21000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2312</v>
+        <v>2625</v>
       </c>
       <c r="T25" t="n">
         <v>8</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44495</v>
+        <v>44505</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="N26" t="n">
         <v>19000</v>
@@ -2453,7 +2453,7 @@
         <v>20000</v>
       </c>
       <c r="P26" t="n">
-        <v>19556</v>
+        <v>19500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2444</v>
+        <v>2438</v>
       </c>
       <c r="T26" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44533</v>
+        <v>44505</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O2" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44533</v>
+        <v>44530</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O3" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>16000</v>
+        <v>19500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2000</v>
+        <v>2438</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44895</v>
+        <v>44530</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>22500</v>
+        <v>16000</v>
       </c>
       <c r="P4" t="n">
-        <v>22250</v>
+        <v>16000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2781</v>
+        <v>2000</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44495</v>
+        <v>44533</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O5" t="n">
         <v>19000</v>
       </c>
-      <c r="O5" t="n">
-        <v>20000</v>
-      </c>
       <c r="P5" t="n">
-        <v>19556</v>
+        <v>18500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2444</v>
+        <v>2312</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44876</v>
+        <v>44533</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O6" t="n">
-        <v>22500</v>
+        <v>16000</v>
       </c>
       <c r="P6" t="n">
-        <v>22250</v>
+        <v>16000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2781</v>
+        <v>2000</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44519</v>
+        <v>44498</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2688</v>
+        <v>2438</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44519</v>
+        <v>44890</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>22500</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>22250</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2250</v>
+        <v>2781</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44880</v>
+        <v>44873</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44523</v>
+        <v>44526</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
         <v>21000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P10" t="n">
-        <v>21500</v>
+        <v>21000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2688</v>
+        <v>2625</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44523</v>
+        <v>44491</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
         <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2250</v>
+        <v>2312</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44498</v>
+        <v>44876</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P12" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44873</v>
+        <v>44519</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N13" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O13" t="n">
         <v>22000</v>
       </c>
-      <c r="O13" t="n">
-        <v>22500</v>
-      </c>
       <c r="P13" t="n">
-        <v>22250</v>
+        <v>21500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2781</v>
+        <v>2688</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44488</v>
+        <v>44519</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
         <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2188</v>
+        <v>2250</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44530</v>
+        <v>44512</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,11 +1640,11 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N16" t="n">
         <v>19000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44530</v>
+        <v>44159</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,24 +1720,24 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="O17" t="n">
-        <v>16000</v>
+        <v>2100</v>
       </c>
       <c r="P17" t="n">
-        <v>16000</v>
+        <v>2050</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2000</v>
+        <v>2050</v>
       </c>
       <c r="T17" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44894</v>
+        <v>44523</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N18" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O18" t="n">
         <v>22000</v>
       </c>
-      <c r="O18" t="n">
-        <v>22500</v>
-      </c>
       <c r="P18" t="n">
-        <v>22250</v>
+        <v>21500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2781</v>
+        <v>2688</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44890</v>
+        <v>44523</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O19" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>22250</v>
+        <v>18000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2781</v>
+        <v>2250</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44509</v>
+        <v>44488</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N20" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P20" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2438</v>
+        <v>2188</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44516</v>
+        <v>44509</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2047,13 +2047,13 @@
         <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O21" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P21" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T21" t="n">
         <v>8</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44512</v>
+        <v>44880</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>300</v>
       </c>
       <c r="N22" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O22" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P22" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T22" t="n">
         <v>8</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44159</v>
+        <v>44895</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2204,20 +2204,20 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N23" t="n">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="O23" t="n">
-        <v>2100</v>
+        <v>22500</v>
       </c>
       <c r="P23" t="n">
-        <v>2050</v>
+        <v>22250</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2050</v>
+        <v>2781</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44491</v>
+        <v>44894</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>200</v>
       </c>
       <c r="N24" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O24" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="P24" t="n">
-        <v>18500</v>
+        <v>22250</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2312</v>
+        <v>2781</v>
       </c>
       <c r="T24" t="n">
         <v>8</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44526</v>
+        <v>44516</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N25" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O25" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="P25" t="n">
-        <v>21000</v>
+        <v>18500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2625</v>
+        <v>2312</v>
       </c>
       <c r="T25" t="n">
         <v>8</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44505</v>
+        <v>44495</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="N26" t="n">
         <v>19000</v>
@@ -2453,7 +2453,7 @@
         <v>20000</v>
       </c>
       <c r="P26" t="n">
-        <v>19500</v>
+        <v>19556</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2438</v>
+        <v>2444</v>
       </c>
       <c r="T26" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44533</v>
+        <v>44873</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -527,13 +527,13 @@
         <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="P2" t="n">
-        <v>18500</v>
+        <v>22250</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2312</v>
+        <v>2781</v>
       </c>
       <c r="T2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44533</v>
+        <v>44523</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O3" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>16000</v>
+        <v>21500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2000</v>
+        <v>2688</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44895</v>
+        <v>44523</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>22250</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2781</v>
+        <v>2250</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44495</v>
+        <v>44512</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
         <v>19000</v>
@@ -773,7 +773,7 @@
         <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>19556</v>
+        <v>19500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2444</v>
+        <v>2438</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44876</v>
+        <v>44162</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="O6" t="n">
-        <v>22500</v>
+        <v>2100</v>
       </c>
       <c r="P6" t="n">
-        <v>22250</v>
+        <v>2050</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2781</v>
+        <v>2050</v>
       </c>
       <c r="T6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44519</v>
+        <v>44876</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>22500</v>
       </c>
       <c r="P7" t="n">
-        <v>21500</v>
+        <v>22250</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2688</v>
+        <v>2781</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44519</v>
+        <v>44491</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1010,10 +1010,10 @@
         <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2250</v>
+        <v>2312</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44880</v>
+        <v>44498</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O9" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>22250</v>
+        <v>19500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2781</v>
+        <v>2438</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44523</v>
+        <v>44894</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>22500</v>
       </c>
       <c r="P10" t="n">
-        <v>21500</v>
+        <v>22250</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2688</v>
+        <v>2781</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44523</v>
+        <v>44533</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
         <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2250</v>
+        <v>2312</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44498</v>
+        <v>44533</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P12" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2438</v>
+        <v>2000</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44873</v>
+        <v>44505</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O13" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>22250</v>
+        <v>19500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2781</v>
+        <v>2438</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44488</v>
+        <v>44159</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,24 +1480,24 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>2100</v>
       </c>
       <c r="P14" t="n">
-        <v>17500</v>
+        <v>2050</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2188</v>
+        <v>2050</v>
       </c>
       <c r="T14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44162</v>
+        <v>44509</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,24 +1560,24 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="O15" t="n">
-        <v>2100</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>2050</v>
+        <v>19500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2050</v>
+        <v>2438</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44530</v>
+        <v>44895</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1647,13 +1647,13 @@
         <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P16" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44530</v>
+        <v>44519</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N17" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O17" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="P17" t="n">
-        <v>16000</v>
+        <v>21500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2000</v>
+        <v>2688</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44894</v>
+        <v>44519</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O18" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P18" t="n">
-        <v>22250</v>
+        <v>18000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2781</v>
+        <v>2250</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44890</v>
+        <v>44488</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N19" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O19" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>22250</v>
+        <v>17500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2781</v>
+        <v>2188</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44509</v>
+        <v>44495</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N20" t="n">
         <v>19000</v>
@@ -1973,7 +1973,7 @@
         <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>19500</v>
+        <v>19556</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2438</v>
+        <v>2444</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44516</v>
+        <v>44526</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N21" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O21" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="P21" t="n">
-        <v>18500</v>
+        <v>21000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2312</v>
+        <v>2625</v>
       </c>
       <c r="T21" t="n">
         <v>8</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44512</v>
+        <v>44880</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>300</v>
       </c>
       <c r="N22" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O22" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P22" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T22" t="n">
         <v>8</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44159</v>
+        <v>44516</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2200,24 +2200,24 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N23" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O23" t="n">
-        <v>2100</v>
+        <v>19000</v>
       </c>
       <c r="P23" t="n">
-        <v>2050</v>
+        <v>18500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2050</v>
+        <v>2312</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44491</v>
+        <v>44530</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>200</v>
       </c>
       <c r="N24" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O24" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P24" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T24" t="n">
         <v>8</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44526</v>
+        <v>44530</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N25" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O25" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P25" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2625</v>
+        <v>2000</v>
       </c>
       <c r="T25" t="n">
         <v>8</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44505</v>
+        <v>44890</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N26" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O26" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P26" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T26" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44873</v>
+        <v>44533</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -527,13 +527,13 @@
         <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>22500</v>
+        <v>19000</v>
       </c>
       <c r="P2" t="n">
-        <v>22250</v>
+        <v>18500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2781</v>
+        <v>2312</v>
       </c>
       <c r="T2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44523</v>
+        <v>44533</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P3" t="n">
-        <v>21500</v>
+        <v>16000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2688</v>
+        <v>2000</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44523</v>
+        <v>44895</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>22500</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>22250</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2250</v>
+        <v>2781</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44512</v>
+        <v>44495</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="N5" t="n">
         <v>19000</v>
@@ -773,7 +773,7 @@
         <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>19500</v>
+        <v>19556</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2438</v>
+        <v>2444</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44162</v>
+        <v>44876</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="O6" t="n">
-        <v>2100</v>
+        <v>22500</v>
       </c>
       <c r="P6" t="n">
-        <v>2050</v>
+        <v>22250</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2050</v>
+        <v>2781</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44876</v>
+        <v>44519</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N7" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O7" t="n">
         <v>22000</v>
       </c>
-      <c r="O7" t="n">
-        <v>22500</v>
-      </c>
       <c r="P7" t="n">
-        <v>22250</v>
+        <v>21500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2781</v>
+        <v>2688</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44491</v>
+        <v>44519</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1010,10 +1010,10 @@
         <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2312</v>
+        <v>2250</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44498</v>
+        <v>44880</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P9" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44894</v>
+        <v>44523</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N10" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O10" t="n">
         <v>22000</v>
       </c>
-      <c r="O10" t="n">
-        <v>22500</v>
-      </c>
       <c r="P10" t="n">
-        <v>22250</v>
+        <v>21500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2781</v>
+        <v>2688</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44533</v>
+        <v>44523</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
         <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2312</v>
+        <v>2250</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44533</v>
+        <v>44498</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O12" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>16000</v>
+        <v>19500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2000</v>
+        <v>2438</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44505</v>
+        <v>44873</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P13" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44159</v>
+        <v>44488</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,24 +1480,24 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N14" t="n">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="O14" t="n">
-        <v>2100</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>2050</v>
+        <v>17500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2050</v>
+        <v>2188</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44509</v>
+        <v>44162</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,24 +1560,24 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P15" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2438</v>
+        <v>2050</v>
       </c>
       <c r="T15" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44895</v>
+        <v>44530</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1647,13 +1647,13 @@
         <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O16" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>22250</v>
+        <v>19500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2781</v>
+        <v>2438</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44519</v>
+        <v>44530</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P17" t="n">
-        <v>21500</v>
+        <v>16000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2688</v>
+        <v>2000</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44519</v>
+        <v>44894</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O18" t="n">
-        <v>18000</v>
+        <v>22500</v>
       </c>
       <c r="P18" t="n">
-        <v>18000</v>
+        <v>22250</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2250</v>
+        <v>2781</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44488</v>
+        <v>44890</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>22500</v>
       </c>
       <c r="P19" t="n">
-        <v>17500</v>
+        <v>22250</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2188</v>
+        <v>2781</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44495</v>
+        <v>44509</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
         <v>19000</v>
@@ -1973,7 +1973,7 @@
         <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>19556</v>
+        <v>19500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2444</v>
+        <v>2438</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44526</v>
+        <v>44516</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O21" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="P21" t="n">
-        <v>21000</v>
+        <v>18500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2625</v>
+        <v>2312</v>
       </c>
       <c r="T21" t="n">
         <v>8</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44880</v>
+        <v>44512</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>300</v>
       </c>
       <c r="N22" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O22" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P22" t="n">
-        <v>22250</v>
+        <v>19500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2781</v>
+        <v>2438</v>
       </c>
       <c r="T22" t="n">
         <v>8</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44516</v>
+        <v>44159</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2200,24 +2200,24 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N23" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="O23" t="n">
-        <v>19000</v>
+        <v>2100</v>
       </c>
       <c r="P23" t="n">
-        <v>18500</v>
+        <v>2050</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2312</v>
+        <v>2050</v>
       </c>
       <c r="T23" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44530</v>
+        <v>44491</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>200</v>
       </c>
       <c r="N24" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O24" t="n">
         <v>19000</v>
       </c>
-      <c r="O24" t="n">
-        <v>20000</v>
-      </c>
       <c r="P24" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T24" t="n">
         <v>8</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44530</v>
+        <v>44526</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N25" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O25" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P25" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2000</v>
+        <v>2625</v>
       </c>
       <c r="T25" t="n">
         <v>8</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44890</v>
+        <v>44505</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N26" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O26" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P26" t="n">
-        <v>22250</v>
+        <v>19500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2781</v>
+        <v>2438</v>
       </c>
       <c r="T26" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44873</v>
+        <v>44495</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O2" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>22250</v>
+        <v>19556</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2781</v>
+        <v>2444</v>
       </c>
       <c r="T2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44523</v>
+        <v>44530</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2688</v>
+        <v>2438</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44523</v>
+        <v>44530</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -687,13 +687,13 @@
         <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2250</v>
+        <v>2000</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44512</v>
+        <v>44162</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P5" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2438</v>
+        <v>2050</v>
       </c>
       <c r="T5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44162</v>
+        <v>44533</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>2100</v>
+        <v>19000</v>
       </c>
       <c r="P6" t="n">
-        <v>2050</v>
+        <v>18500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2050</v>
+        <v>2312</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44876</v>
+        <v>44533</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O7" t="n">
-        <v>22500</v>
+        <v>16000</v>
       </c>
       <c r="P7" t="n">
-        <v>22250</v>
+        <v>16000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2781</v>
+        <v>2000</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44491</v>
+        <v>44505</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O8" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44498</v>
+        <v>44159</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,24 +1080,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P9" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2438</v>
+        <v>2050</v>
       </c>
       <c r="T9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44894</v>
+        <v>44876</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
         <v>22000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44533</v>
+        <v>44894</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O11" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="P11" t="n">
-        <v>18500</v>
+        <v>22250</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2312</v>
+        <v>2781</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44533</v>
+        <v>44873</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>16000</v>
+        <v>22500</v>
       </c>
       <c r="P12" t="n">
-        <v>16000</v>
+        <v>22250</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2000</v>
+        <v>2781</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44505</v>
+        <v>44880</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P13" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44159</v>
+        <v>44890</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1484,20 +1484,20 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>2100</v>
+        <v>22500</v>
       </c>
       <c r="P14" t="n">
-        <v>2050</v>
+        <v>22250</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2050</v>
+        <v>2781</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44509</v>
+        <v>44488</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N15" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P15" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2438</v>
+        <v>2188</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44895</v>
+        <v>44491</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O16" t="n">
-        <v>22500</v>
+        <v>19000</v>
       </c>
       <c r="P16" t="n">
-        <v>22250</v>
+        <v>18500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2781</v>
+        <v>2312</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44519</v>
+        <v>44512</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2688</v>
+        <v>2438</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44519</v>
+        <v>44526</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O18" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P18" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2250</v>
+        <v>2625</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44488</v>
+        <v>44516</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P19" t="n">
-        <v>17500</v>
+        <v>18500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2188</v>
+        <v>2312</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44495</v>
+        <v>44509</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
         <v>19000</v>
@@ -1973,7 +1973,7 @@
         <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>19556</v>
+        <v>19500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2444</v>
+        <v>2438</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44526</v>
+        <v>44523</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N21" t="n">
         <v>21000</v>
       </c>
       <c r="O21" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P21" t="n">
-        <v>21000</v>
+        <v>21500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2625</v>
+        <v>2688</v>
       </c>
       <c r="T21" t="n">
         <v>8</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44880</v>
+        <v>44523</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O22" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P22" t="n">
-        <v>22250</v>
+        <v>18000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2781</v>
+        <v>2250</v>
       </c>
       <c r="T22" t="n">
         <v>8</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44516</v>
+        <v>44519</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N23" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O23" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P23" t="n">
-        <v>18500</v>
+        <v>21500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2312</v>
+        <v>2688</v>
       </c>
       <c r="T23" t="n">
         <v>8</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44530</v>
+        <v>44519</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>200</v>
       </c>
       <c r="N24" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O24" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P24" t="n">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2438</v>
+        <v>2250</v>
       </c>
       <c r="T24" t="n">
         <v>8</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44530</v>
+        <v>44498</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N25" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O25" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P25" t="n">
-        <v>16000</v>
+        <v>19500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2000</v>
+        <v>2438</v>
       </c>
       <c r="T25" t="n">
         <v>8</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44890</v>
+        <v>44895</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44495</v>
+        <v>44519</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="N2" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>19556</v>
+        <v>21500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2444</v>
+        <v>2688</v>
       </c>
       <c r="T2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44530</v>
+        <v>44519</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2438</v>
+        <v>2250</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44530</v>
+        <v>44162</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="O4" t="n">
-        <v>16000</v>
+        <v>2100</v>
       </c>
       <c r="P4" t="n">
-        <v>16000</v>
+        <v>2050</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2000</v>
+        <v>2050</v>
       </c>
       <c r="T4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44162</v>
+        <v>44876</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>2100</v>
+        <v>22500</v>
       </c>
       <c r="P5" t="n">
-        <v>2050</v>
+        <v>22250</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2050</v>
+        <v>2781</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44533</v>
+        <v>44530</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O6" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44533</v>
+        <v>44530</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44505</v>
+        <v>44533</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>300</v>
       </c>
       <c r="N8" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O8" t="n">
         <v>19000</v>
       </c>
-      <c r="O8" t="n">
-        <v>20000</v>
-      </c>
       <c r="P8" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44159</v>
+        <v>44533</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
         <v>2000</v>
       </c>
-      <c r="O9" t="n">
-        <v>2100</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2050</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v>2050</v>
-      </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44876</v>
+        <v>44523</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N10" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O10" t="n">
         <v>22000</v>
       </c>
-      <c r="O10" t="n">
-        <v>22500</v>
-      </c>
       <c r="P10" t="n">
-        <v>22250</v>
+        <v>21500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2781</v>
+        <v>2688</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44894</v>
+        <v>44523</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>22250</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2781</v>
+        <v>2250</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44873</v>
+        <v>44512</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O12" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>22250</v>
+        <v>19500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2781</v>
+        <v>2438</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44880</v>
+        <v>44516</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>22500</v>
+        <v>19000</v>
       </c>
       <c r="P13" t="n">
-        <v>22250</v>
+        <v>18500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2781</v>
+        <v>2312</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44890</v>
+        <v>44159</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1484,20 +1484,20 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="O14" t="n">
-        <v>22500</v>
+        <v>2100</v>
       </c>
       <c r="P14" t="n">
-        <v>22250</v>
+        <v>2050</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2781</v>
+        <v>2050</v>
       </c>
       <c r="T14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44488</v>
+        <v>44873</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>18000</v>
+        <v>22500</v>
       </c>
       <c r="P15" t="n">
-        <v>17500</v>
+        <v>22250</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2188</v>
+        <v>2781</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44491</v>
+        <v>44488</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N16" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O16" t="n">
         <v>18000</v>
       </c>
-      <c r="O16" t="n">
-        <v>19000</v>
-      </c>
       <c r="P16" t="n">
-        <v>18500</v>
+        <v>17500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2312</v>
+        <v>2188</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44512</v>
+        <v>44491</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O17" t="n">
         <v>19000</v>
       </c>
-      <c r="O17" t="n">
-        <v>20000</v>
-      </c>
       <c r="P17" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44526</v>
+        <v>44880</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1807,13 +1807,13 @@
         <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O18" t="n">
-        <v>21000</v>
+        <v>22500</v>
       </c>
       <c r="P18" t="n">
-        <v>21000</v>
+        <v>22250</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2625</v>
+        <v>2781</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44516</v>
+        <v>44890</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O19" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="P19" t="n">
-        <v>18500</v>
+        <v>22250</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2312</v>
+        <v>2781</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44509</v>
+        <v>44505</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N20" t="n">
         <v>19000</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44523</v>
+        <v>44895</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O21" t="n">
-        <v>22000</v>
+        <v>22500</v>
       </c>
       <c r="P21" t="n">
-        <v>21500</v>
+        <v>22250</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2688</v>
+        <v>2781</v>
       </c>
       <c r="T21" t="n">
         <v>8</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44523</v>
+        <v>44509</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N22" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O22" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P22" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2250</v>
+        <v>2438</v>
       </c>
       <c r="T22" t="n">
         <v>8</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44519</v>
+        <v>44894</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N23" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O23" t="n">
-        <v>22000</v>
+        <v>22500</v>
       </c>
       <c r="P23" t="n">
-        <v>21500</v>
+        <v>22250</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2688</v>
+        <v>2781</v>
       </c>
       <c r="T23" t="n">
         <v>8</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44519</v>
+        <v>44495</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N24" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O24" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P24" t="n">
-        <v>18000</v>
+        <v>19556</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2250</v>
+        <v>2444</v>
       </c>
       <c r="T24" t="n">
         <v>8</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44895</v>
+        <v>44526</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N26" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O26" t="n">
-        <v>22500</v>
+        <v>21000</v>
       </c>
       <c r="P26" t="n">
-        <v>22250</v>
+        <v>21000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2781</v>
+        <v>2625</v>
       </c>
       <c r="T26" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44162</v>
+        <v>44894</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -687,17 +687,17 @@
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>2100</v>
+        <v>22500</v>
       </c>
       <c r="P4" t="n">
-        <v>2050</v>
+        <v>22250</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2050</v>
+        <v>2781</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44530</v>
+        <v>44533</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O6" t="n">
         <v>19000</v>
       </c>
-      <c r="O6" t="n">
-        <v>20000</v>
-      </c>
       <c r="P6" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44530</v>
+        <v>44533</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44533</v>
+        <v>44498</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O8" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44533</v>
+        <v>44162</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,24 +1080,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="O9" t="n">
-        <v>16000</v>
+        <v>2100</v>
       </c>
       <c r="P9" t="n">
-        <v>16000</v>
+        <v>2050</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2000</v>
+        <v>2050</v>
       </c>
       <c r="T9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44159</v>
+        <v>44895</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1484,20 +1484,20 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>2100</v>
+        <v>22500</v>
       </c>
       <c r="P14" t="n">
-        <v>2050</v>
+        <v>22250</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2050</v>
+        <v>2781</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44873</v>
+        <v>44526</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1567,13 +1567,13 @@
         <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O15" t="n">
-        <v>22500</v>
+        <v>21000</v>
       </c>
       <c r="P15" t="n">
-        <v>22250</v>
+        <v>21000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2781</v>
+        <v>2625</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44488</v>
+        <v>44505</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N16" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O16" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2188</v>
+        <v>2438</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44491</v>
+        <v>44488</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N17" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O17" t="n">
         <v>18000</v>
       </c>
-      <c r="O17" t="n">
-        <v>19000</v>
-      </c>
       <c r="P17" t="n">
-        <v>18500</v>
+        <v>17500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2312</v>
+        <v>2188</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44880</v>
+        <v>44530</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O18" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>22250</v>
+        <v>19500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2781</v>
+        <v>2438</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44890</v>
+        <v>44530</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O19" t="n">
-        <v>22500</v>
+        <v>16000</v>
       </c>
       <c r="P19" t="n">
-        <v>22250</v>
+        <v>16000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2781</v>
+        <v>2000</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44505</v>
+        <v>44890</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P20" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44895</v>
+        <v>44495</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N21" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O21" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P21" t="n">
-        <v>22250</v>
+        <v>19556</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2781</v>
+        <v>2444</v>
       </c>
       <c r="T21" t="n">
         <v>8</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44894</v>
+        <v>44873</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N23" t="n">
         <v>22000</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44495</v>
+        <v>44491</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N24" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O24" t="n">
         <v>19000</v>
       </c>
-      <c r="O24" t="n">
-        <v>20000</v>
-      </c>
       <c r="P24" t="n">
-        <v>19556</v>
+        <v>18500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2444</v>
+        <v>2312</v>
       </c>
       <c r="T24" t="n">
         <v>8</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44498</v>
+        <v>44880</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>300</v>
       </c>
       <c r="N25" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O25" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P25" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T25" t="n">
         <v>8</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44526</v>
+        <v>44159</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2447,17 +2447,17 @@
         <v>300</v>
       </c>
       <c r="N26" t="n">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="O26" t="n">
-        <v>21000</v>
+        <v>2100</v>
       </c>
       <c r="P26" t="n">
-        <v>21000</v>
+        <v>2050</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2625</v>
+        <v>2050</v>
       </c>
       <c r="T26" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44519</v>
+        <v>44491</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P2" t="n">
-        <v>21500</v>
+        <v>18500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2688</v>
+        <v>2312</v>
       </c>
       <c r="T2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44519</v>
+        <v>44159</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>2100</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>2050</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2250</v>
+        <v>2050</v>
       </c>
       <c r="T3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44894</v>
+        <v>44880</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
         <v>22000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44876</v>
+        <v>44526</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -767,13 +767,13 @@
         <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O5" t="n">
-        <v>22500</v>
+        <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>22250</v>
+        <v>21000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2781</v>
+        <v>2625</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44533</v>
+        <v>44519</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O6" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>18500</v>
+        <v>21500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2312</v>
+        <v>2688</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44533</v>
+        <v>44519</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2000</v>
+        <v>2250</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44498</v>
+        <v>44488</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N8" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2438</v>
+        <v>2188</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44162</v>
+        <v>44495</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,24 +1080,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N9" t="n">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="O9" t="n">
-        <v>2100</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>2050</v>
+        <v>19556</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2050</v>
+        <v>2444</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44523</v>
+        <v>44873</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>22500</v>
       </c>
       <c r="P10" t="n">
-        <v>21500</v>
+        <v>22250</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2688</v>
+        <v>2781</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44523</v>
+        <v>44890</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>22500</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>22250</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2250</v>
+        <v>2781</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44512</v>
+        <v>44505</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44516</v>
+        <v>44894</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="P13" t="n">
-        <v>18500</v>
+        <v>22250</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2312</v>
+        <v>2781</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44895</v>
+        <v>44162</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1487,17 +1487,17 @@
         <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="O14" t="n">
-        <v>22500</v>
+        <v>2100</v>
       </c>
       <c r="P14" t="n">
-        <v>22250</v>
+        <v>2050</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2781</v>
+        <v>2050</v>
       </c>
       <c r="T14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44526</v>
+        <v>44512</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O15" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>21000</v>
+        <v>19500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2625</v>
+        <v>2438</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44505</v>
+        <v>44876</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>300</v>
       </c>
       <c r="N16" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P16" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44488</v>
+        <v>44533</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P17" t="n">
-        <v>17500</v>
+        <v>18500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2188</v>
+        <v>2312</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44530</v>
+        <v>44533</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P18" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2438</v>
+        <v>2000</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44530</v>
+        <v>44895</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O19" t="n">
-        <v>16000</v>
+        <v>22500</v>
       </c>
       <c r="P19" t="n">
-        <v>16000</v>
+        <v>22250</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2000</v>
+        <v>2781</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44890</v>
+        <v>44523</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N20" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O20" t="n">
         <v>22000</v>
       </c>
-      <c r="O20" t="n">
-        <v>22500</v>
-      </c>
       <c r="P20" t="n">
-        <v>22250</v>
+        <v>21500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2781</v>
+        <v>2688</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44495</v>
+        <v>44523</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O21" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P21" t="n">
-        <v>19556</v>
+        <v>18000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2444</v>
+        <v>2250</v>
       </c>
       <c r="T21" t="n">
         <v>8</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44873</v>
+        <v>44516</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N23" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O23" t="n">
-        <v>22500</v>
+        <v>19000</v>
       </c>
       <c r="P23" t="n">
-        <v>22250</v>
+        <v>18500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2781</v>
+        <v>2312</v>
       </c>
       <c r="T23" t="n">
         <v>8</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44491</v>
+        <v>44530</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>200</v>
       </c>
       <c r="N24" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O24" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P24" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T24" t="n">
         <v>8</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44880</v>
+        <v>44530</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N25" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O25" t="n">
-        <v>22500</v>
+        <v>16000</v>
       </c>
       <c r="P25" t="n">
-        <v>22250</v>
+        <v>16000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2781</v>
+        <v>2000</v>
       </c>
       <c r="T25" t="n">
         <v>8</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44159</v>
+        <v>44498</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2440,24 +2440,24 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>300</v>
       </c>
       <c r="N26" t="n">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="O26" t="n">
-        <v>2100</v>
+        <v>20000</v>
       </c>
       <c r="P26" t="n">
-        <v>2050</v>
+        <v>19500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2050</v>
+        <v>2438</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44491</v>
+        <v>44512</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O2" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44159</v>
+        <v>44523</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N3" t="n">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="O3" t="n">
-        <v>2100</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>2050</v>
+        <v>21500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2050</v>
+        <v>2688</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44880</v>
+        <v>44523</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>22250</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2781</v>
+        <v>2250</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44526</v>
+        <v>44491</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="P5" t="n">
-        <v>21000</v>
+        <v>18500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2625</v>
+        <v>2312</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44519</v>
+        <v>44162</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>2100</v>
       </c>
       <c r="P6" t="n">
-        <v>21500</v>
+        <v>2050</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2688</v>
+        <v>2050</v>
       </c>
       <c r="T6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44519</v>
+        <v>44498</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2250</v>
+        <v>2438</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44488</v>
+        <v>44509</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2188</v>
+        <v>2438</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44495</v>
+        <v>44894</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P9" t="n">
-        <v>19556</v>
+        <v>22250</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2444</v>
+        <v>2781</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44873</v>
+        <v>44505</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O10" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>22250</v>
+        <v>19500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2781</v>
+        <v>2438</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44890</v>
+        <v>44873</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
         <v>22000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44505</v>
+        <v>44488</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N12" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2438</v>
+        <v>2188</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44162</v>
+        <v>44519</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1484,20 +1484,20 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N14" t="n">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="O14" t="n">
-        <v>2100</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>2050</v>
+        <v>21500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2050</v>
+        <v>2688</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44512</v>
+        <v>44519</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P15" t="n">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2438</v>
+        <v>2250</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44876</v>
+        <v>44890</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
         <v>22000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44895</v>
+        <v>44516</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O19" t="n">
-        <v>22500</v>
+        <v>19000</v>
       </c>
       <c r="P19" t="n">
-        <v>22250</v>
+        <v>18500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2781</v>
+        <v>2312</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44523</v>
+        <v>44876</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N20" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>22500</v>
       </c>
       <c r="P20" t="n">
-        <v>21500</v>
+        <v>22250</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2688</v>
+        <v>2781</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44523</v>
+        <v>44159</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,24 +2040,24 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N21" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="O21" t="n">
-        <v>18000</v>
+        <v>2100</v>
       </c>
       <c r="P21" t="n">
-        <v>18000</v>
+        <v>2050</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2250</v>
+        <v>2050</v>
       </c>
       <c r="T21" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44509</v>
+        <v>44880</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N22" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O22" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P22" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T22" t="n">
         <v>8</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44516</v>
+        <v>44526</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N23" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O23" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="P23" t="n">
-        <v>18500</v>
+        <v>21000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2312</v>
+        <v>2625</v>
       </c>
       <c r="T23" t="n">
         <v>8</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44530</v>
+        <v>44495</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N24" t="n">
         <v>19000</v>
@@ -2293,7 +2293,7 @@
         <v>20000</v>
       </c>
       <c r="P24" t="n">
-        <v>19500</v>
+        <v>19556</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2438</v>
+        <v>2444</v>
       </c>
       <c r="T24" t="n">
         <v>8</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N25" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O25" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P25" t="n">
-        <v>16000</v>
+        <v>19500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2000</v>
+        <v>2438</v>
       </c>
       <c r="T25" t="n">
         <v>8</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44498</v>
+        <v>44530</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N26" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O26" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P26" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2438</v>
+        <v>2000</v>
       </c>
       <c r="T26" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44523</v>
+        <v>45237</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P3" t="n">
-        <v>21500</v>
+        <v>28000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2688</v>
+        <v>2800</v>
       </c>
       <c r="T3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>21500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2250</v>
+        <v>2688</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44491</v>
+        <v>44523</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
         <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2312</v>
+        <v>2250</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44162</v>
+        <v>44491</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>2100</v>
+        <v>19000</v>
       </c>
       <c r="P6" t="n">
-        <v>2050</v>
+        <v>18500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2050</v>
+        <v>2312</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44498</v>
+        <v>44162</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,24 +920,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P7" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2438</v>
+        <v>2050</v>
       </c>
       <c r="T7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44509</v>
+        <v>44498</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
         <v>19000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44894</v>
+        <v>44509</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O9" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>22250</v>
+        <v>19500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2781</v>
+        <v>2438</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44505</v>
+        <v>44894</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P10" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44873</v>
+        <v>44505</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O11" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>22250</v>
+        <v>19500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2781</v>
+        <v>2438</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44488</v>
+        <v>44873</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>22500</v>
       </c>
       <c r="P12" t="n">
-        <v>17500</v>
+        <v>22250</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2188</v>
+        <v>2781</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44895</v>
+        <v>44488</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N13" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O13" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>22250</v>
+        <v>17500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2781</v>
+        <v>2188</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44519</v>
+        <v>44895</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>22500</v>
       </c>
       <c r="P14" t="n">
-        <v>21500</v>
+        <v>22250</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2688</v>
+        <v>2781</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N15" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O15" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>18000</v>
+        <v>21500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2250</v>
+        <v>2688</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44890</v>
+        <v>44519</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O16" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P16" t="n">
-        <v>22250</v>
+        <v>18000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2781</v>
+        <v>2250</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44533</v>
+        <v>44890</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O17" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="P17" t="n">
-        <v>18500</v>
+        <v>22250</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2312</v>
+        <v>2781</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O18" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P18" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2000</v>
+        <v>2312</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44516</v>
+        <v>44533</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O19" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P19" t="n">
-        <v>18500</v>
+        <v>16000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2312</v>
+        <v>2000</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44876</v>
+        <v>44516</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O20" t="n">
-        <v>22500</v>
+        <v>19000</v>
       </c>
       <c r="P20" t="n">
-        <v>22250</v>
+        <v>18500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2781</v>
+        <v>2312</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44159</v>
+        <v>44876</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2047,17 +2047,17 @@
         <v>300</v>
       </c>
       <c r="N21" t="n">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="O21" t="n">
-        <v>2100</v>
+        <v>22500</v>
       </c>
       <c r="P21" t="n">
-        <v>2050</v>
+        <v>22250</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2050</v>
+        <v>2781</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44880</v>
+        <v>44159</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2127,17 +2127,17 @@
         <v>300</v>
       </c>
       <c r="N22" t="n">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="O22" t="n">
-        <v>22500</v>
+        <v>2100</v>
       </c>
       <c r="P22" t="n">
-        <v>22250</v>
+        <v>2050</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2781</v>
+        <v>2050</v>
       </c>
       <c r="T22" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44526</v>
+        <v>44880</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2207,13 +2207,13 @@
         <v>300</v>
       </c>
       <c r="N23" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O23" t="n">
-        <v>21000</v>
+        <v>22500</v>
       </c>
       <c r="P23" t="n">
-        <v>21000</v>
+        <v>22250</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2625</v>
+        <v>2781</v>
       </c>
       <c r="T23" t="n">
         <v>8</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44495</v>
+        <v>44526</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="N24" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O24" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P24" t="n">
-        <v>19556</v>
+        <v>21000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2444</v>
+        <v>2625</v>
       </c>
       <c r="T24" t="n">
         <v>8</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44530</v>
+        <v>44495</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2360,11 +2360,11 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N25" t="n">
         <v>19000</v>
@@ -2373,7 +2373,7 @@
         <v>20000</v>
       </c>
       <c r="P25" t="n">
-        <v>19500</v>
+        <v>19556</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2438</v>
+        <v>2444</v>
       </c>
       <c r="T25" t="n">
         <v>8</v>
@@ -2440,35 +2440,115 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>200</v>
+      </c>
+      <c r="N26" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O26" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P26" t="n">
+        <v>19500</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>2438</v>
+      </c>
+      <c r="T26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>4</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>100107002</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Chirimoya</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M26" t="n">
+      <c r="M27" t="n">
         <v>100</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N27" t="n">
         <v>16000</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O27" t="n">
         <v>16000</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P27" t="n">
         <v>16000</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>$/bandeja 8 kilos</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S26" t="n">
+      <c r="S27" t="n">
         <v>2000</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T27" t="n">
         <v>8</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44505</v>
+        <v>45134</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P11" t="n">
-        <v>19500</v>
+        <v>28000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2438</v>
+        <v>3500</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44873</v>
+        <v>44505</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O12" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>22250</v>
+        <v>19500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2781</v>
+        <v>2438</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44488</v>
+        <v>44873</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>22500</v>
       </c>
       <c r="P13" t="n">
-        <v>17500</v>
+        <v>22250</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2188</v>
+        <v>2781</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44895</v>
+        <v>44488</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O14" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>22250</v>
+        <v>17500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2781</v>
+        <v>2188</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44519</v>
+        <v>44895</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>22500</v>
       </c>
       <c r="P15" t="n">
-        <v>21500</v>
+        <v>22250</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2688</v>
+        <v>2781</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N16" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O16" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>18000</v>
+        <v>21500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2250</v>
+        <v>2688</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44890</v>
+        <v>44519</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O17" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>22250</v>
+        <v>18000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2781</v>
+        <v>2250</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44533</v>
+        <v>44890</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O18" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="P18" t="n">
-        <v>18500</v>
+        <v>22250</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2312</v>
+        <v>2781</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44533</v>
+        <v>45240</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,36 +1880,36 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N19" t="n">
-        <v>16000</v>
+        <v>28000</v>
       </c>
       <c r="O19" t="n">
-        <v>16000</v>
+        <v>28000</v>
       </c>
       <c r="P19" t="n">
-        <v>16000</v>
+        <v>28000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="T19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44516</v>
+        <v>44533</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,11 +1960,11 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N20" t="n">
         <v>18000</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44876</v>
+        <v>44533</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O21" t="n">
-        <v>22500</v>
+        <v>16000</v>
       </c>
       <c r="P21" t="n">
-        <v>22250</v>
+        <v>16000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2781</v>
+        <v>2000</v>
       </c>
       <c r="T21" t="n">
         <v>8</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44159</v>
+        <v>44516</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2120,24 +2120,24 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N22" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O22" t="n">
-        <v>2100</v>
+        <v>19000</v>
       </c>
       <c r="P22" t="n">
-        <v>2050</v>
+        <v>18500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2050</v>
+        <v>2312</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44880</v>
+        <v>44876</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44526</v>
+        <v>44159</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2287,17 +2287,17 @@
         <v>300</v>
       </c>
       <c r="N24" t="n">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="O24" t="n">
-        <v>21000</v>
+        <v>2100</v>
       </c>
       <c r="P24" t="n">
-        <v>21000</v>
+        <v>2050</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2625</v>
+        <v>2050</v>
       </c>
       <c r="T24" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44495</v>
+        <v>44880</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="N25" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O25" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P25" t="n">
-        <v>19556</v>
+        <v>22250</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2444</v>
+        <v>2781</v>
       </c>
       <c r="T25" t="n">
         <v>8</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44530</v>
+        <v>44526</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N26" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O26" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P26" t="n">
-        <v>19500</v>
+        <v>21000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2438</v>
+        <v>2625</v>
       </c>
       <c r="T26" t="n">
         <v>8</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44530</v>
+        <v>44495</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -2524,31 +2524,191 @@
         </is>
       </c>
       <c r="M27" t="n">
+        <v>270</v>
+      </c>
+      <c r="N27" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O27" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P27" t="n">
+        <v>19556</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S27" t="n">
+        <v>2444</v>
+      </c>
+      <c r="T27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>4</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>100107002</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Chirimoya</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>200</v>
+      </c>
+      <c r="N28" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O28" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P28" t="n">
+        <v>19500</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
+        <v>2438</v>
+      </c>
+      <c r="T28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>4</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="E29" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>100107002</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Chirimoya</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>100</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N29" t="n">
         <v>16000</v>
       </c>
-      <c r="O27" t="n">
+      <c r="O29" t="n">
         <v>16000</v>
       </c>
-      <c r="P27" t="n">
+      <c r="P29" t="n">
         <v>16000</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>$/bandeja 8 kilos</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S27" t="n">
+      <c r="S29" t="n">
         <v>2000</v>
       </c>
-      <c r="T27" t="n">
+      <c r="T29" t="n">
         <v>8</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45134</v>
+        <v>44505</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="O11" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>28000</v>
+        <v>19500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3500</v>
+        <v>2438</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44505</v>
+        <v>44873</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P12" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44873</v>
+        <v>44488</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N13" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O13" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>22250</v>
+        <v>17500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2781</v>
+        <v>2188</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44488</v>
+        <v>44895</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>22500</v>
       </c>
       <c r="P14" t="n">
-        <v>17500</v>
+        <v>22250</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2188</v>
+        <v>2781</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44895</v>
+        <v>44519</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N15" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O15" t="n">
         <v>22000</v>
       </c>
-      <c r="O15" t="n">
-        <v>22500</v>
-      </c>
       <c r="P15" t="n">
-        <v>22250</v>
+        <v>21500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2781</v>
+        <v>2688</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O16" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P16" t="n">
-        <v>21500</v>
+        <v>18000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2688</v>
+        <v>2250</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44519</v>
+        <v>44890</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>22500</v>
       </c>
       <c r="P17" t="n">
-        <v>18000</v>
+        <v>22250</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2250</v>
+        <v>2781</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44890</v>
+        <v>45240</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1804,32 +1804,32 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N18" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="O18" t="n">
-        <v>22500</v>
+        <v>28000</v>
       </c>
       <c r="P18" t="n">
-        <v>22250</v>
+        <v>28000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2781</v>
+        <v>2800</v>
       </c>
       <c r="T18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45240</v>
+        <v>44533</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1884,32 +1884,32 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="O19" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="P19" t="n">
-        <v>28000</v>
+        <v>18500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2800</v>
+        <v>2312</v>
       </c>
       <c r="T19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O20" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P20" t="n">
-        <v>18500</v>
+        <v>16000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2312</v>
+        <v>2000</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44533</v>
+        <v>44516</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O21" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P21" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2000</v>
+        <v>2312</v>
       </c>
       <c r="T21" t="n">
         <v>8</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44516</v>
+        <v>44876</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N22" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O22" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="P22" t="n">
-        <v>18500</v>
+        <v>22250</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2312</v>
+        <v>2781</v>
       </c>
       <c r="T22" t="n">
         <v>8</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44876</v>
+        <v>44159</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2207,17 +2207,17 @@
         <v>300</v>
       </c>
       <c r="N23" t="n">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="O23" t="n">
-        <v>22500</v>
+        <v>2100</v>
       </c>
       <c r="P23" t="n">
-        <v>22250</v>
+        <v>2050</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2781</v>
+        <v>2050</v>
       </c>
       <c r="T23" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44159</v>
+        <v>44880</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2287,17 +2287,17 @@
         <v>300</v>
       </c>
       <c r="N24" t="n">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="O24" t="n">
-        <v>2100</v>
+        <v>22500</v>
       </c>
       <c r="P24" t="n">
-        <v>2050</v>
+        <v>22250</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2050</v>
+        <v>2781</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44880</v>
+        <v>44526</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2367,13 +2367,13 @@
         <v>300</v>
       </c>
       <c r="N25" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O25" t="n">
-        <v>22500</v>
+        <v>21000</v>
       </c>
       <c r="P25" t="n">
-        <v>22250</v>
+        <v>21000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2781</v>
+        <v>2625</v>
       </c>
       <c r="T25" t="n">
         <v>8</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44526</v>
+        <v>45244</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2444,32 +2444,32 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N26" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O26" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P26" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2625</v>
+        <v>2500</v>
       </c>
       <c r="T26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44512</v>
+        <v>44530</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,11 +520,11 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
         <v>19000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45237</v>
+        <v>44530</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,36 +600,36 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="P3" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44523</v>
+        <v>44512</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2688</v>
+        <v>2438</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44523</v>
+        <v>45247</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,36 +760,36 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2250</v>
+        <v>2500</v>
       </c>
       <c r="T5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44491</v>
+        <v>44533</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,11 +840,11 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
         <v>18000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44162</v>
+        <v>44533</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,36 +920,36 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
         <v>2000</v>
       </c>
-      <c r="O7" t="n">
-        <v>2100</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2050</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v>2050</v>
-      </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44498</v>
+        <v>44523</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N8" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2438</v>
+        <v>2688</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44509</v>
+        <v>44523</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2438</v>
+        <v>2250</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44894</v>
+        <v>44162</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1167,17 +1167,17 @@
         <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="O10" t="n">
-        <v>22500</v>
+        <v>2100</v>
       </c>
       <c r="P10" t="n">
-        <v>22250</v>
+        <v>2050</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2781</v>
+        <v>2050</v>
       </c>
       <c r="T10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44505</v>
+        <v>45240</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P11" t="n">
-        <v>19500</v>
+        <v>28000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2438</v>
+        <v>2800</v>
       </c>
       <c r="T11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44873</v>
+        <v>44519</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N12" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O12" t="n">
         <v>22000</v>
       </c>
-      <c r="O12" t="n">
-        <v>22500</v>
-      </c>
       <c r="P12" t="n">
-        <v>22250</v>
+        <v>21500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2781</v>
+        <v>2688</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44488</v>
+        <v>44519</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
         <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2188</v>
+        <v>2250</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44895</v>
+        <v>44498</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O14" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>22250</v>
+        <v>19500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2781</v>
+        <v>2438</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44519</v>
+        <v>44516</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P15" t="n">
-        <v>21500</v>
+        <v>18500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2688</v>
+        <v>2312</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44519</v>
+        <v>44890</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O16" t="n">
-        <v>18000</v>
+        <v>22500</v>
       </c>
       <c r="P16" t="n">
-        <v>18000</v>
+        <v>22250</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2250</v>
+        <v>2781</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44890</v>
+        <v>44495</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N17" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O17" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>22250</v>
+        <v>19556</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2781</v>
+        <v>2444</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45240</v>
+        <v>44873</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1804,32 +1804,32 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O18" t="n">
-        <v>28000</v>
+        <v>22500</v>
       </c>
       <c r="P18" t="n">
-        <v>28000</v>
+        <v>22250</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2800</v>
+        <v>2781</v>
       </c>
       <c r="T18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44533</v>
+        <v>44505</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O19" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44533</v>
+        <v>44159</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,24 +1960,24 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N20" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="O20" t="n">
-        <v>16000</v>
+        <v>2100</v>
       </c>
       <c r="P20" t="n">
-        <v>16000</v>
+        <v>2050</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2000</v>
+        <v>2050</v>
       </c>
       <c r="T20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44516</v>
+        <v>45237</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,36 +2040,36 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N21" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="O21" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="P21" t="n">
-        <v>18500</v>
+        <v>28000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2312</v>
+        <v>2800</v>
       </c>
       <c r="T21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44876</v>
+        <v>44526</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2127,13 +2127,13 @@
         <v>300</v>
       </c>
       <c r="N22" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O22" t="n">
-        <v>22500</v>
+        <v>21000</v>
       </c>
       <c r="P22" t="n">
-        <v>22250</v>
+        <v>21000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2781</v>
+        <v>2625</v>
       </c>
       <c r="T22" t="n">
         <v>8</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44159</v>
+        <v>44488</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2200,24 +2200,24 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N23" t="n">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="O23" t="n">
-        <v>2100</v>
+        <v>18000</v>
       </c>
       <c r="P23" t="n">
-        <v>2050</v>
+        <v>17500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2050</v>
+        <v>2188</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44880</v>
+        <v>45244</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2284,32 +2284,32 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N24" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O24" t="n">
-        <v>22500</v>
+        <v>25000</v>
       </c>
       <c r="P24" t="n">
-        <v>22250</v>
+        <v>25000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2781</v>
+        <v>2500</v>
       </c>
       <c r="T24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44526</v>
+        <v>44876</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2367,13 +2367,13 @@
         <v>300</v>
       </c>
       <c r="N25" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O25" t="n">
-        <v>21000</v>
+        <v>22500</v>
       </c>
       <c r="P25" t="n">
-        <v>21000</v>
+        <v>22250</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2625</v>
+        <v>2781</v>
       </c>
       <c r="T25" t="n">
         <v>8</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45244</v>
+        <v>44491</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2440,36 +2440,36 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N26" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="O26" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="P26" t="n">
-        <v>25000</v>
+        <v>18500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2500</v>
+        <v>2312</v>
       </c>
       <c r="T26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44495</v>
+        <v>44880</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="N27" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O27" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P27" t="n">
-        <v>19556</v>
+        <v>22250</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>2444</v>
+        <v>2781</v>
       </c>
       <c r="T27" t="n">
         <v>8</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44530</v>
+        <v>44509</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44530</v>
+        <v>44894</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N29" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O29" t="n">
-        <v>16000</v>
+        <v>22500</v>
       </c>
       <c r="P29" t="n">
-        <v>16000</v>
+        <v>22250</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,9 +2706,89 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>2000</v>
+        <v>2781</v>
       </c>
       <c r="T29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>4</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="E30" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>100107002</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Chirimoya</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>200</v>
+      </c>
+      <c r="N30" t="n">
+        <v>22000</v>
+      </c>
+      <c r="O30" t="n">
+        <v>22500</v>
+      </c>
+      <c r="P30" t="n">
+        <v>22250</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S30" t="n">
+        <v>2781</v>
+      </c>
+      <c r="T30" t="n">
         <v>8</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44530</v>
+        <v>44512</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,11 +520,11 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
         <v>19000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44530</v>
+        <v>45237</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,36 +600,36 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>28000</v>
       </c>
       <c r="O3" t="n">
-        <v>16000</v>
+        <v>28000</v>
       </c>
       <c r="P3" t="n">
-        <v>16000</v>
+        <v>28000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="T3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44512</v>
+        <v>44523</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N4" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2438</v>
+        <v>2688</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45247</v>
+        <v>44523</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,36 +760,36 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2500</v>
+        <v>2250</v>
       </c>
       <c r="T5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44533</v>
+        <v>44491</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,11 +840,11 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
         <v>18000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44533</v>
+        <v>44162</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,24 +920,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="O7" t="n">
-        <v>16000</v>
+        <v>2100</v>
       </c>
       <c r="P7" t="n">
-        <v>16000</v>
+        <v>2050</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2000</v>
+        <v>2050</v>
       </c>
       <c r="T7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44523</v>
+        <v>44498</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2688</v>
+        <v>2438</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44523</v>
+        <v>44509</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2250</v>
+        <v>2438</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44162</v>
+        <v>44894</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1167,17 +1167,17 @@
         <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>2100</v>
+        <v>22500</v>
       </c>
       <c r="P10" t="n">
-        <v>2050</v>
+        <v>22250</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2050</v>
+        <v>2781</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O11" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P11" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T11" t="n">
         <v>10</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44519</v>
+        <v>44505</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2688</v>
+        <v>2438</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44519</v>
+        <v>44873</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>22500</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>22250</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2250</v>
+        <v>2781</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44498</v>
+        <v>44488</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N14" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2438</v>
+        <v>2188</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44516</v>
+        <v>44895</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="P15" t="n">
-        <v>18500</v>
+        <v>22250</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2312</v>
+        <v>2781</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44890</v>
+        <v>44519</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N16" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O16" t="n">
         <v>22000</v>
       </c>
-      <c r="O16" t="n">
-        <v>22500</v>
-      </c>
       <c r="P16" t="n">
-        <v>22250</v>
+        <v>21500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2781</v>
+        <v>2688</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44495</v>
+        <v>44519</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>19556</v>
+        <v>18000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2444</v>
+        <v>2250</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44873</v>
+        <v>44890</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
         <v>22000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44505</v>
+        <v>45240</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,36 +1880,36 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N19" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P19" t="n">
-        <v>19500</v>
+        <v>28000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2438</v>
+        <v>2800</v>
       </c>
       <c r="T19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44159</v>
+        <v>44533</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1967,17 +1967,17 @@
         <v>300</v>
       </c>
       <c r="N20" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O20" t="n">
-        <v>2100</v>
+        <v>19000</v>
       </c>
       <c r="P20" t="n">
-        <v>2050</v>
+        <v>18500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2050</v>
+        <v>2312</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45237</v>
+        <v>44533</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,36 +2040,36 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="O21" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="P21" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44526</v>
+        <v>44516</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N22" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O22" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="P22" t="n">
-        <v>21000</v>
+        <v>18500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2625</v>
+        <v>2312</v>
       </c>
       <c r="T22" t="n">
         <v>8</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44488</v>
+        <v>44876</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N23" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O23" t="n">
-        <v>18000</v>
+        <v>22500</v>
       </c>
       <c r="P23" t="n">
-        <v>17500</v>
+        <v>22250</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2188</v>
+        <v>2781</v>
       </c>
       <c r="T23" t="n">
         <v>8</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45244</v>
+        <v>44159</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2284,32 +2284,32 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N24" t="n">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="O24" t="n">
-        <v>25000</v>
+        <v>2100</v>
       </c>
       <c r="P24" t="n">
-        <v>25000</v>
+        <v>2050</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2500</v>
+        <v>2050</v>
       </c>
       <c r="T24" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44876</v>
+        <v>44880</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44491</v>
+        <v>44526</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N26" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O26" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="P26" t="n">
-        <v>18500</v>
+        <v>21000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2312</v>
+        <v>2625</v>
       </c>
       <c r="T26" t="n">
         <v>8</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44880</v>
+        <v>45244</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -2524,32 +2524,32 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N27" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O27" t="n">
-        <v>22500</v>
+        <v>25000</v>
       </c>
       <c r="P27" t="n">
-        <v>22250</v>
+        <v>25000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>2781</v>
+        <v>2500</v>
       </c>
       <c r="T27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44509</v>
+        <v>44495</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2604,7 +2604,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N28" t="n">
         <v>19000</v>
@@ -2613,7 +2613,7 @@
         <v>20000</v>
       </c>
       <c r="P28" t="n">
-        <v>19500</v>
+        <v>19556</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>2438</v>
+        <v>2444</v>
       </c>
       <c r="T28" t="n">
         <v>8</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44894</v>
+        <v>44530</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -2687,13 +2687,13 @@
         <v>200</v>
       </c>
       <c r="N29" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O29" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P29" t="n">
-        <v>22250</v>
+        <v>19500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>2781</v>
+        <v>2438</v>
       </c>
       <c r="T29" t="n">
         <v>8</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44895</v>
+        <v>44530</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N30" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O30" t="n">
-        <v>22500</v>
+        <v>16000</v>
       </c>
       <c r="P30" t="n">
-        <v>22250</v>
+        <v>16000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>2781</v>
+        <v>2000</v>
       </c>
       <c r="T30" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44512</v>
+        <v>44530</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -520,11 +520,11 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
         <v>19000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45237</v>
+        <v>44530</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,36 +600,36 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="P3" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44523</v>
+        <v>44512</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2688</v>
+        <v>2438</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44523</v>
+        <v>45247</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,36 +760,36 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2250</v>
+        <v>2500</v>
       </c>
       <c r="T5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44491</v>
+        <v>44533</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,11 +840,11 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
         <v>18000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44162</v>
+        <v>44533</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -920,36 +920,36 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
         <v>2000</v>
       </c>
-      <c r="O7" t="n">
-        <v>2100</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2050</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v>2050</v>
-      </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44498</v>
+        <v>44523</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N8" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2438</v>
+        <v>2688</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44509</v>
+        <v>44523</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2438</v>
+        <v>2250</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44894</v>
+        <v>44162</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1167,17 +1167,17 @@
         <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="O10" t="n">
-        <v>22500</v>
+        <v>2100</v>
       </c>
       <c r="P10" t="n">
-        <v>22250</v>
+        <v>2050</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2781</v>
+        <v>2050</v>
       </c>
       <c r="T10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45247</v>
+        <v>45240</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O11" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P11" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T11" t="n">
         <v>10</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44505</v>
+        <v>44519</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N12" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>19500</v>
+        <v>21500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2438</v>
+        <v>2688</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44873</v>
+        <v>44519</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>22250</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2781</v>
+        <v>2250</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44488</v>
+        <v>44498</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2188</v>
+        <v>2438</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44895</v>
+        <v>44516</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O15" t="n">
-        <v>22500</v>
+        <v>19000</v>
       </c>
       <c r="P15" t="n">
-        <v>22250</v>
+        <v>18500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2781</v>
+        <v>2312</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44519</v>
+        <v>44890</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O16" t="n">
-        <v>22000</v>
+        <v>22500</v>
       </c>
       <c r="P16" t="n">
-        <v>21500</v>
+        <v>22250</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2688</v>
+        <v>2781</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44519</v>
+        <v>44495</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>18000</v>
+        <v>19556</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2250</v>
+        <v>2444</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44890</v>
+        <v>44873</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
         <v>22000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45240</v>
+        <v>44505</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,36 +1880,36 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="O19" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>28000</v>
+        <v>19500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2800</v>
+        <v>2438</v>
       </c>
       <c r="T19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44533</v>
+        <v>44159</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1967,17 +1967,17 @@
         <v>300</v>
       </c>
       <c r="N20" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="O20" t="n">
-        <v>19000</v>
+        <v>2100</v>
       </c>
       <c r="P20" t="n">
-        <v>18500</v>
+        <v>2050</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2312</v>
+        <v>2050</v>
       </c>
       <c r="T20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44533</v>
+        <v>45237</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,36 +2040,36 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N21" t="n">
-        <v>16000</v>
+        <v>28000</v>
       </c>
       <c r="O21" t="n">
-        <v>16000</v>
+        <v>28000</v>
       </c>
       <c r="P21" t="n">
-        <v>16000</v>
+        <v>28000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="T21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44516</v>
+        <v>44526</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N22" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O22" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="P22" t="n">
-        <v>18500</v>
+        <v>21000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2312</v>
+        <v>2625</v>
       </c>
       <c r="T22" t="n">
         <v>8</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44876</v>
+        <v>44488</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N23" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O23" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P23" t="n">
-        <v>22250</v>
+        <v>17500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2781</v>
+        <v>2188</v>
       </c>
       <c r="T23" t="n">
         <v>8</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44159</v>
+        <v>45244</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2284,32 +2284,32 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N24" t="n">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="O24" t="n">
-        <v>2100</v>
+        <v>25000</v>
       </c>
       <c r="P24" t="n">
-        <v>2050</v>
+        <v>25000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2050</v>
+        <v>2500</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44880</v>
+        <v>44876</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44526</v>
+        <v>44491</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N26" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O26" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="P26" t="n">
-        <v>21000</v>
+        <v>18500</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2625</v>
+        <v>2312</v>
       </c>
       <c r="T26" t="n">
         <v>8</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45244</v>
+        <v>44880</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -2524,32 +2524,32 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N27" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O27" t="n">
-        <v>25000</v>
+        <v>22500</v>
       </c>
       <c r="P27" t="n">
-        <v>25000</v>
+        <v>22250</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>2500</v>
+        <v>2781</v>
       </c>
       <c r="T27" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44495</v>
+        <v>44509</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2604,7 +2604,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N28" t="n">
         <v>19000</v>
@@ -2613,7 +2613,7 @@
         <v>20000</v>
       </c>
       <c r="P28" t="n">
-        <v>19556</v>
+        <v>19500</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>2444</v>
+        <v>2438</v>
       </c>
       <c r="T28" t="n">
         <v>8</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44530</v>
+        <v>44894</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -2687,13 +2687,13 @@
         <v>200</v>
       </c>
       <c r="N29" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O29" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P29" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T29" t="n">
         <v>8</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44530</v>
+        <v>44895</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2760,20 +2760,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N30" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="O30" t="n">
-        <v>16000</v>
+        <v>22500</v>
       </c>
       <c r="P30" t="n">
-        <v>16000</v>
+        <v>22250</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>2000</v>
+        <v>2781</v>
       </c>
       <c r="T30" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44530</v>
+        <v>44159</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P2" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2438</v>
+        <v>2050</v>
       </c>
       <c r="T2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44530</v>
+        <v>44509</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O3" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>16000</v>
+        <v>19500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2000</v>
+        <v>2438</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44512</v>
+        <v>44495</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="N4" t="n">
         <v>19000</v>
@@ -693,7 +693,7 @@
         <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>19500</v>
+        <v>19556</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2438</v>
+        <v>2444</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45247</v>
+        <v>44530</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2500</v>
+        <v>2438</v>
       </c>
       <c r="T5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44533</v>
+        <v>44530</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O6" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P6" t="n">
-        <v>18500</v>
+        <v>16000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2312</v>
+        <v>2000</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44533</v>
+        <v>44512</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O7" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>16000</v>
+        <v>19500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2000</v>
+        <v>2438</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44523</v>
+        <v>44516</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P8" t="n">
-        <v>21500</v>
+        <v>18500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2688</v>
+        <v>2312</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44523</v>
+        <v>45240</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2250</v>
+        <v>2800</v>
       </c>
       <c r="T9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44162</v>
+        <v>45237</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,32 +1164,32 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N10" t="n">
-        <v>2000</v>
+        <v>28000</v>
       </c>
       <c r="O10" t="n">
-        <v>2100</v>
+        <v>28000</v>
       </c>
       <c r="P10" t="n">
-        <v>2050</v>
+        <v>28000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2050</v>
+        <v>2800</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45240</v>
+        <v>44523</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N11" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="O11" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>28000</v>
+        <v>21500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2800</v>
+        <v>2688</v>
       </c>
       <c r="T11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44519</v>
+        <v>44523</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>21500</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2688</v>
+        <v>2250</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44519</v>
+        <v>44873</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>22500</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>22250</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2250</v>
+        <v>2781</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44498</v>
+        <v>45247</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,36 +1480,36 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P14" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2438</v>
+        <v>2500</v>
       </c>
       <c r="T14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44516</v>
+        <v>44519</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N15" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O15" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>18500</v>
+        <v>21500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2312</v>
+        <v>2688</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44890</v>
+        <v>44519</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O16" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P16" t="n">
-        <v>22250</v>
+        <v>18000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2781</v>
+        <v>2250</v>
       </c>
       <c r="T16" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44495</v>
+        <v>44491</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O17" t="n">
         <v>19000</v>
       </c>
-      <c r="O17" t="n">
-        <v>20000</v>
-      </c>
       <c r="P17" t="n">
-        <v>19556</v>
+        <v>18500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2444</v>
+        <v>2312</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44873</v>
+        <v>44498</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O18" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>22250</v>
+        <v>19500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2781</v>
+        <v>2438</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44505</v>
+        <v>44488</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N19" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2438</v>
+        <v>2188</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44159</v>
+        <v>44880</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1967,17 +1967,17 @@
         <v>300</v>
       </c>
       <c r="N20" t="n">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>2100</v>
+        <v>22500</v>
       </c>
       <c r="P20" t="n">
-        <v>2050</v>
+        <v>22250</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2050</v>
+        <v>2781</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45237</v>
+        <v>44876</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2044,32 +2044,32 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N21" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O21" t="n">
-        <v>28000</v>
+        <v>22500</v>
       </c>
       <c r="P21" t="n">
-        <v>28000</v>
+        <v>22250</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2800</v>
+        <v>2781</v>
       </c>
       <c r="T21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44526</v>
+        <v>44533</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2127,13 +2127,13 @@
         <v>300</v>
       </c>
       <c r="N22" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O22" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="P22" t="n">
-        <v>21000</v>
+        <v>18500</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2625</v>
+        <v>2312</v>
       </c>
       <c r="T22" t="n">
         <v>8</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44488</v>
+        <v>44533</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O23" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P23" t="n">
-        <v>17500</v>
+        <v>16000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2188</v>
+        <v>2000</v>
       </c>
       <c r="T23" t="n">
         <v>8</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45244</v>
+        <v>44505</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,36 +2280,36 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N24" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O24" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P24" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2500</v>
+        <v>2438</v>
       </c>
       <c r="T24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44876</v>
+        <v>44894</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N25" t="n">
         <v>22000</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44491</v>
+        <v>44162</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2440,24 +2440,24 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>200</v>
       </c>
       <c r="N26" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="O26" t="n">
-        <v>19000</v>
+        <v>2100</v>
       </c>
       <c r="P26" t="n">
-        <v>18500</v>
+        <v>2050</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2312</v>
+        <v>2050</v>
       </c>
       <c r="T26" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44880</v>
+        <v>44895</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N27" t="n">
         <v>22000</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44509</v>
+        <v>44890</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>200</v>
       </c>
       <c r="N28" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O28" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P28" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T28" t="n">
         <v>8</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44894</v>
+        <v>44526</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N29" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O29" t="n">
-        <v>22500</v>
+        <v>21000</v>
       </c>
       <c r="P29" t="n">
-        <v>22250</v>
+        <v>21000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>2781</v>
+        <v>2625</v>
       </c>
       <c r="T29" t="n">
         <v>8</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44895</v>
+        <v>45244</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2764,32 +2764,32 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N30" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O30" t="n">
-        <v>22500</v>
+        <v>25000</v>
       </c>
       <c r="P30" t="n">
-        <v>22250</v>
+        <v>25000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>2781</v>
+        <v>2500</v>
       </c>
       <c r="T30" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44159</v>
+        <v>44895</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>2100</v>
+        <v>22500</v>
       </c>
       <c r="P2" t="n">
-        <v>2050</v>
+        <v>22250</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2050</v>
+        <v>2781</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44509</v>
+        <v>44495</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N3" t="n">
         <v>19000</v>
@@ -613,7 +613,7 @@
         <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>19500</v>
+        <v>19556</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2438</v>
+        <v>2444</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44495</v>
+        <v>44512</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
         <v>19000</v>
@@ -693,7 +693,7 @@
         <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>19556</v>
+        <v>19500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2444</v>
+        <v>2438</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44530</v>
+        <v>44498</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -760,11 +760,11 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
         <v>19000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44530</v>
+        <v>44509</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O6" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>16000</v>
+        <v>19500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2000</v>
+        <v>2438</v>
       </c>
       <c r="T6" t="n">
         <v>8</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44512</v>
+        <v>44491</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O7" t="n">
         <v>19000</v>
       </c>
-      <c r="O7" t="n">
-        <v>20000</v>
-      </c>
       <c r="P7" t="n">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2438</v>
+        <v>2312</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44516</v>
+        <v>44523</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O8" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>18500</v>
+        <v>21500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2312</v>
+        <v>2688</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45240</v>
+        <v>44523</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2800</v>
+        <v>2250</v>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45237</v>
+        <v>44876</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1164,32 +1164,32 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>28000</v>
+        <v>22500</v>
       </c>
       <c r="P10" t="n">
-        <v>28000</v>
+        <v>22250</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2800</v>
+        <v>2781</v>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44523</v>
+        <v>44880</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>22500</v>
       </c>
       <c r="P11" t="n">
-        <v>21500</v>
+        <v>22250</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2688</v>
+        <v>2781</v>
       </c>
       <c r="T11" t="n">
         <v>8</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44523</v>
+        <v>44533</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
         <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2250</v>
+        <v>2312</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44873</v>
+        <v>44533</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O13" t="n">
-        <v>22500</v>
+        <v>16000</v>
       </c>
       <c r="P13" t="n">
-        <v>22250</v>
+        <v>16000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2781</v>
+        <v>2000</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45247</v>
+        <v>44873</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1484,32 +1484,32 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>25000</v>
+        <v>22500</v>
       </c>
       <c r="P14" t="n">
-        <v>25000</v>
+        <v>22250</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2500</v>
+        <v>2781</v>
       </c>
       <c r="T14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44519</v>
+        <v>44516</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P15" t="n">
-        <v>21500</v>
+        <v>18500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2688</v>
+        <v>2312</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44519</v>
+        <v>44162</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,24 +1640,24 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="O16" t="n">
-        <v>18000</v>
+        <v>2100</v>
       </c>
       <c r="P16" t="n">
-        <v>18000</v>
+        <v>2050</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2250</v>
+        <v>2050</v>
       </c>
       <c r="T16" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44491</v>
+        <v>44890</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O17" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="P17" t="n">
-        <v>18500</v>
+        <v>22250</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2312</v>
+        <v>2781</v>
       </c>
       <c r="T17" t="n">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44498</v>
+        <v>44159</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1800,24 +1800,24 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>2100</v>
       </c>
       <c r="P18" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2438</v>
+        <v>2050</v>
       </c>
       <c r="T18" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44488</v>
+        <v>44894</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>22500</v>
       </c>
       <c r="P19" t="n">
-        <v>17500</v>
+        <v>22250</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2188</v>
+        <v>2781</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44880</v>
+        <v>44505</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>300</v>
       </c>
       <c r="N20" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O20" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>22250</v>
+        <v>19500</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2781</v>
+        <v>2438</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44876</v>
+        <v>45247</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2044,32 +2044,32 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O21" t="n">
-        <v>22500</v>
+        <v>25000</v>
       </c>
       <c r="P21" t="n">
-        <v>22250</v>
+        <v>25000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2781</v>
+        <v>2500</v>
       </c>
       <c r="T21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44533</v>
+        <v>44526</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2127,13 +2127,13 @@
         <v>300</v>
       </c>
       <c r="N22" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O22" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="P22" t="n">
-        <v>18500</v>
+        <v>21000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2312</v>
+        <v>2625</v>
       </c>
       <c r="T22" t="n">
         <v>8</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44533</v>
+        <v>44530</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N23" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O23" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P23" t="n">
-        <v>16000</v>
+        <v>19500</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2000</v>
+        <v>2438</v>
       </c>
       <c r="T23" t="n">
         <v>8</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44505</v>
+        <v>44530</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N24" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O24" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P24" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2438</v>
+        <v>2000</v>
       </c>
       <c r="T24" t="n">
         <v>8</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44894</v>
+        <v>45237</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2364,32 +2364,32 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N25" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="O25" t="n">
-        <v>22500</v>
+        <v>28000</v>
       </c>
       <c r="P25" t="n">
-        <v>22250</v>
+        <v>28000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2781</v>
+        <v>2800</v>
       </c>
       <c r="T25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44162</v>
+        <v>45240</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2444,32 +2444,32 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N26" t="n">
-        <v>2000</v>
+        <v>28000</v>
       </c>
       <c r="O26" t="n">
-        <v>2100</v>
+        <v>28000</v>
       </c>
       <c r="P26" t="n">
-        <v>2050</v>
+        <v>28000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2050</v>
+        <v>2800</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44895</v>
+        <v>44488</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -2520,20 +2520,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N27" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O27" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P27" t="n">
-        <v>22250</v>
+        <v>17500</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>2781</v>
+        <v>2188</v>
       </c>
       <c r="T27" t="n">
         <v>8</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44890</v>
+        <v>45244</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2604,32 +2604,32 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N28" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O28" t="n">
-        <v>22500</v>
+        <v>25000</v>
       </c>
       <c r="P28" t="n">
-        <v>22250</v>
+        <v>25000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>2781</v>
+        <v>2500</v>
       </c>
       <c r="T28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44526</v>
+        <v>44519</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N29" t="n">
         <v>21000</v>
       </c>
       <c r="O29" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P29" t="n">
-        <v>21000</v>
+        <v>21500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>2625</v>
+        <v>2688</v>
       </c>
       <c r="T29" t="n">
         <v>8</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45244</v>
+        <v>44519</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2760,36 +2760,36 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N30" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="O30" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P30" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>2500</v>
+        <v>2250</v>
       </c>
       <c r="T30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44512</v>
+        <v>45134</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P4" t="n">
-        <v>19500</v>
+        <v>28000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2438</v>
+        <v>3500</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44498</v>
+        <v>44512</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44509</v>
+        <v>44498</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
         <v>19000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44491</v>
+        <v>44509</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -927,13 +927,13 @@
         <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O7" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2312</v>
+        <v>2438</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44523</v>
+        <v>44491</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P8" t="n">
-        <v>21500</v>
+        <v>18500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2688</v>
+        <v>2312</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>21500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2250</v>
+        <v>2688</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44876</v>
+        <v>44523</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>22250</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2781</v>
+        <v>2250</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44880</v>
+        <v>44876</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44533</v>
+        <v>44880</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -1327,13 +1327,13 @@
         <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="P12" t="n">
-        <v>18500</v>
+        <v>22250</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2312</v>
+        <v>2781</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P13" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2000</v>
+        <v>2312</v>
       </c>
       <c r="T13" t="n">
         <v>8</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44873</v>
+        <v>44533</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O14" t="n">
-        <v>22500</v>
+        <v>16000</v>
       </c>
       <c r="P14" t="n">
-        <v>22250</v>
+        <v>16000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2781</v>
+        <v>2000</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44516</v>
+        <v>44873</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="P15" t="n">
-        <v>18500</v>
+        <v>22250</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2312</v>
+        <v>2781</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44162</v>
+        <v>44516</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1640,24 +1640,24 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O16" t="n">
-        <v>2100</v>
+        <v>19000</v>
       </c>
       <c r="P16" t="n">
-        <v>2050</v>
+        <v>18500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2050</v>
+        <v>2312</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44890</v>
+        <v>44162</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1727,17 +1727,17 @@
         <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="O17" t="n">
-        <v>22500</v>
+        <v>2100</v>
       </c>
       <c r="P17" t="n">
-        <v>22250</v>
+        <v>2050</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2781</v>
+        <v>2050</v>
       </c>
       <c r="T17" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44159</v>
+        <v>44890</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1804,20 +1804,20 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="O18" t="n">
-        <v>2100</v>
+        <v>22500</v>
       </c>
       <c r="P18" t="n">
-        <v>2050</v>
+        <v>22250</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 14 kilos)</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2050</v>
+        <v>2781</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44894</v>
+        <v>44159</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1884,20 +1884,20 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="O19" t="n">
-        <v>22500</v>
+        <v>2100</v>
       </c>
       <c r="P19" t="n">
-        <v>22250</v>
+        <v>2050</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/kilo (en caja de 14 kilos)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2781</v>
+        <v>2050</v>
       </c>
       <c r="T19" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44505</v>
+        <v>44894</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P20" t="n">
-        <v>19500</v>
+        <v>22250</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2438</v>
+        <v>2781</v>
       </c>
       <c r="T20" t="n">
         <v>8</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45247</v>
+        <v>44505</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -2040,36 +2040,36 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N21" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O21" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P21" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2500</v>
+        <v>2438</v>
       </c>
       <c r="T21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44526</v>
+        <v>45247</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -2124,32 +2124,32 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O22" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P22" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2625</v>
+        <v>2500</v>
       </c>
       <c r="T22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44530</v>
+        <v>45275</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N23" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O23" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P23" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2438</v>
+        <v>3000</v>
       </c>
       <c r="T23" t="n">
         <v>8</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44530</v>
+        <v>44526</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N24" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O24" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P24" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2000</v>
+        <v>2625</v>
       </c>
       <c r="T24" t="n">
         <v>8</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45237</v>
+        <v>44530</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -2364,32 +2364,32 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N25" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="O25" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P25" t="n">
-        <v>28000</v>
+        <v>19500</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2800</v>
+        <v>2438</v>
       </c>
       <c r="T25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45240</v>
+        <v>44530</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2440,36 +2440,36 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N26" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="O26" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="P26" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44488</v>
+        <v>45237</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -2520,36 +2520,36 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N27" t="n">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="O27" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="P27" t="n">
-        <v>17500</v>
+        <v>28000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>2188</v>
+        <v>2800</v>
       </c>
       <c r="T27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45244</v>
+        <v>45240</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2607,13 +2607,13 @@
         <v>150</v>
       </c>
       <c r="N28" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O28" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P28" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T28" t="n">
         <v>10</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44519</v>
+        <v>44488</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -2680,20 +2680,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="N29" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="O29" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P29" t="n">
-        <v>21500</v>
+        <v>17500</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>2688</v>
+        <v>2188</v>
       </c>
       <c r="T29" t="n">
         <v>8</v>
@@ -2727,68 +2727,228 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
+        <v>45244</v>
+      </c>
+      <c r="E30" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>100107002</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Chirimoya</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>150</v>
+      </c>
+      <c r="N30" t="n">
+        <v>25000</v>
+      </c>
+      <c r="O30" t="n">
+        <v>25000</v>
+      </c>
+      <c r="P30" t="n">
+        <v>25000</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S30" t="n">
+        <v>2500</v>
+      </c>
+      <c r="T30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>4</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
         <v>44519</v>
       </c>
-      <c r="E30" t="n">
-        <v>10</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>100107</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>100107002</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Chirimoya</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Cultivar IV Región</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="E31" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>100107002</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Chirimoya</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>400</v>
+      </c>
+      <c r="N31" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O31" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P31" t="n">
+        <v>21500</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>$/bandeja 8 kilos</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S31" t="n">
+        <v>2688</v>
+      </c>
+      <c r="T31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>4</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>44519</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>100107002</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Chirimoya</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Cultivar IV Región</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M30" t="n">
+      <c r="M32" t="n">
         <v>200</v>
       </c>
-      <c r="N30" t="n">
+      <c r="N32" t="n">
         <v>18000</v>
       </c>
-      <c r="O30" t="n">
+      <c r="O32" t="n">
         <v>18000</v>
       </c>
-      <c r="P30" t="n">
+      <c r="P32" t="n">
         <v>18000</v>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>$/bandeja 8 kilos</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S30" t="n">
+      <c r="S32" t="n">
         <v>2250</v>
       </c>
-      <c r="T30" t="n">
+      <c r="T32" t="n">
         <v>8</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Chirimoya.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44895</v>
+        <v>45282</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>22250</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2781</v>
+        <v>2500</v>
       </c>
       <c r="T2" t="n">
         <v>8</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44495</v>
+        <v>44895</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="P3" t="n">
-        <v>19556</v>
+        <v>22250</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2444</v>
+        <v>2781</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45134</v>
+        <v>44495</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="N4" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="O4" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>28000</v>
+        <v>19556</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3500</v>
+        <v>2444</v>
       </c>
       <c r="T4" t="n">
         <v>8</v>
